--- a/hoja.xlsx
+++ b/hoja.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Libro(Hoja1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Libro(Hoja1)'!$A$1:$G$216</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Libro(Hoja1)'!$A$1:$G$217</definedName>
   </definedNames>
   <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="479">
   <si>
     <t>Facultad de Medicina - UM</t>
   </si>
@@ -327,9 +327,6 @@
     <t>Dirección de Sede -UM</t>
   </si>
   <si>
-    <t>Directo de Sede</t>
-  </si>
-  <si>
     <t>direccionsedequetzaltenango@umes.edu.gt</t>
   </si>
   <si>
@@ -1393,13 +1390,82 @@
   </si>
   <si>
     <t>Baldomero Gómez Pérez</t>
+  </si>
+  <si>
+    <t>direccionjuridicas@umes.edu.gt</t>
+  </si>
+  <si>
+    <t>apoyopedagogico1@umes.edu.gt</t>
+  </si>
+  <si>
+    <t>secretariapastoral@umes.edu.gt</t>
+  </si>
+  <si>
+    <t>caja1@umes.edu.gt</t>
+  </si>
+  <si>
+    <t>asistsecre@umes.edu.gt</t>
+  </si>
+  <si>
+    <t>garciakbt@umes.edu.gt</t>
+  </si>
+  <si>
+    <t>secretaria2@umes.edu.gt</t>
+  </si>
+  <si>
+    <t>secretaria4@umes.edu.gt</t>
+  </si>
+  <si>
+    <t>secretario5@umes.edu.gt</t>
+  </si>
+  <si>
+    <t>secretaria3@umes.edu.gt</t>
+  </si>
+  <si>
+    <t>asistenterhumanos@umes.edu.gt</t>
+  </si>
+  <si>
+    <t>talentohumano@umes.edu.gt , rhumanos@umes.edu.gt</t>
+  </si>
+  <si>
+    <t>mroman@umes.edu.gt</t>
+  </si>
+  <si>
+    <t>Yleana Alonzo</t>
+  </si>
+  <si>
+    <t>Rebeca Rodas</t>
+  </si>
+  <si>
+    <t>Director de Sede</t>
+  </si>
+  <si>
+    <t>Sleyder Salvador Gramajo de Leon</t>
+  </si>
+  <si>
+    <t>Adriana Alejandra Santiago Flores</t>
+  </si>
+  <si>
+    <t>Escaneo documentos Registro</t>
+  </si>
+  <si>
+    <t>Juan Carlos Espino de León</t>
+  </si>
+  <si>
+    <t>Direccion Administrativa</t>
+  </si>
+  <si>
+    <t>soporte@umes.edu.gt</t>
+  </si>
+  <si>
+    <t>Direccion Administrativa Zona 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1581,6 +1647,31 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -1782,7 +1873,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1927,8 +2018,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1971,8 +2073,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2030,8 +2133,34 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2063,6 +2192,7 @@
     <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2351,10 +2481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G216"/>
+  <dimension ref="A1:G218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E221" sqref="E221"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="C219" sqref="C219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2370,19 +2500,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>163</v>
       </c>
       <c r="G1" s="4">
         <v>228</v>
@@ -2392,20 +2522,20 @@
       <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
+      <c r="B2" s="5" t="s">
+        <v>469</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="G2" s="8">
         <v>221</v>
@@ -2416,19 +2546,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>266</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="G3" s="4">
         <v>266</v>
@@ -2439,19 +2569,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="G4" s="8">
         <v>223</v>
@@ -2514,13 +2644,13 @@
         <v>100</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>233</v>
       </c>
       <c r="G7" s="4">
         <v>252</v>
@@ -2531,19 +2661,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="G8" s="8">
         <v>218</v>
@@ -2553,23 +2683,23 @@
       <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
-        <v>1</v>
+      <c r="B9" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="60.75" thickBot="1">
@@ -2577,7 +2707,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>13</v>
@@ -2589,7 +2719,7 @@
         <v>43</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G10" s="8">
         <v>238</v>
@@ -2600,18 +2730,20 @@
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="21" t="s">
+        <v>456</v>
+      </c>
       <c r="G11" s="4">
         <v>215</v>
       </c>
@@ -2621,19 +2753,19 @@
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>248</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>249</v>
       </c>
       <c r="G12" s="8">
         <v>258</v>
@@ -2644,7 +2776,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>70</v>
@@ -2656,7 +2788,7 @@
         <v>43</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G13" s="4">
         <v>239</v>
@@ -2667,13 +2799,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>43</v>
@@ -2686,19 +2818,19 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>124</v>
       </c>
       <c r="G15" s="4">
         <v>214</v>
@@ -2709,13 +2841,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>20</v>
@@ -2728,13 +2860,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>20</v>
@@ -2747,19 +2879,19 @@
         <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>92</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>186</v>
       </c>
       <c r="G18" s="8">
         <v>235</v>
@@ -2770,19 +2902,19 @@
         <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>368</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>369</v>
       </c>
       <c r="G19" s="15"/>
     </row>
@@ -2791,13 +2923,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>20</v>
@@ -2810,13 +2942,13 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>43</v>
@@ -2829,19 +2961,19 @@
         <v>22</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="16" t="s">
         <v>373</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>374</v>
       </c>
       <c r="G22" s="17"/>
     </row>
@@ -2856,7 +2988,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>20</v>
@@ -2892,13 +3024,13 @@
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>43</v>
@@ -2911,19 +3043,19 @@
         <v>26</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D26" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="G26" s="17"/>
     </row>
@@ -2932,19 +3064,19 @@
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>277</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>278</v>
       </c>
       <c r="G27" s="4">
         <v>279</v>
@@ -2955,19 +3087,19 @@
         <v>28</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D28" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="G28" s="8">
         <v>230</v>
@@ -2978,19 +3110,19 @@
         <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>219</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>220</v>
       </c>
       <c r="G29" s="4">
         <v>245</v>
@@ -3007,13 +3139,13 @@
         <v>70</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>43</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G30" s="17"/>
     </row>
@@ -3022,7 +3154,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>13</v>
@@ -3034,7 +3166,7 @@
         <v>43</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G31" s="4">
         <v>240</v>
@@ -3045,19 +3177,19 @@
         <v>32</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="G32" s="8">
         <v>281</v>
@@ -3068,7 +3200,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>18</v>
@@ -3080,7 +3212,7 @@
         <v>20</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G33" s="15"/>
     </row>
@@ -3089,13 +3221,13 @@
         <v>34</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>20</v>
@@ -3108,16 +3240,16 @@
         <v>35</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
@@ -3127,13 +3259,13 @@
         <v>36</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>43</v>
@@ -3146,19 +3278,19 @@
         <v>37</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E37" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="F37" s="9" t="s">
         <v>388</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>389</v>
       </c>
       <c r="G37" s="15"/>
     </row>
@@ -3167,13 +3299,13 @@
         <v>38</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>43</v>
@@ -3185,23 +3317,23 @@
       <c r="A39" s="2">
         <v>39</v>
       </c>
-      <c r="B39" s="3">
-        <v>1</v>
+      <c r="B39" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="E39" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="9" t="s">
+      <c r="G39" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="60.75" thickBot="1">
@@ -3209,13 +3341,13 @@
         <v>40</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>20</v>
@@ -3228,19 +3360,19 @@
         <v>41</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>229</v>
       </c>
       <c r="G41" s="4">
         <v>249</v>
@@ -3251,19 +3383,19 @@
         <v>42</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D42" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="G42" s="8">
         <v>234</v>
@@ -3274,19 +3406,19 @@
         <v>43</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E43" s="18" t="s">
         <v>43</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G43" s="15"/>
     </row>
@@ -3295,7 +3427,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>92</v>
@@ -3307,7 +3439,7 @@
         <v>43</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G44" s="8">
         <v>217</v>
@@ -3341,13 +3473,13 @@
         <v>46</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>20</v>
@@ -3383,13 +3515,13 @@
         <v>48</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>43</v>
@@ -3402,19 +3534,19 @@
         <v>49</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E49" s="18" t="s">
         <v>43</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G49" s="15"/>
     </row>
@@ -3423,13 +3555,13 @@
         <v>50</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>43</v>
@@ -3442,19 +3574,19 @@
         <v>51</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="G51" s="4">
         <v>231</v>
@@ -3488,19 +3620,19 @@
         <v>53</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E53" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="F53" s="9" t="s">
         <v>400</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>401</v>
       </c>
       <c r="G53" s="15"/>
     </row>
@@ -3509,7 +3641,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>10</v>
@@ -3521,7 +3653,7 @@
         <v>43</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G54" s="8">
         <v>256</v>
@@ -3532,7 +3664,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>83</v>
@@ -3544,7 +3676,7 @@
         <v>43</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G55" s="4">
         <v>282</v>
@@ -3581,10 +3713,10 @@
         <v>1</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E57" s="18" t="s">
         <v>43</v>
@@ -3597,13 +3729,13 @@
         <v>58</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E58" s="18" t="s">
         <v>43</v>
@@ -3616,13 +3748,13 @@
         <v>59</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E59" s="18" t="s">
         <v>20</v>
@@ -3658,7 +3790,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>13</v>
@@ -3670,7 +3802,7 @@
         <v>43</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G61" s="4">
         <v>260</v>
@@ -3704,19 +3836,19 @@
         <v>63</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D63" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="E63" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="G63" s="4">
         <v>211</v>
@@ -3727,7 +3859,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>18</v>
@@ -3739,7 +3871,7 @@
         <v>20</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G64" s="17"/>
     </row>
@@ -3748,19 +3880,19 @@
         <v>65</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D65" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" s="9" t="s">
         <v>280</v>
-      </c>
-      <c r="E65" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>281</v>
       </c>
       <c r="G65" s="4">
         <v>280</v>
@@ -3771,13 +3903,13 @@
         <v>66</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E66" s="18" t="s">
         <v>43</v>
@@ -3790,13 +3922,13 @@
         <v>67</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E67" s="18" t="s">
         <v>20</v>
@@ -3832,13 +3964,13 @@
         <v>69</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E69" s="18" t="s">
         <v>43</v>
@@ -3851,13 +3983,13 @@
         <v>70</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E70" s="18" t="s">
         <v>43</v>
@@ -3870,19 +4002,19 @@
         <v>71</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D71" s="3" t="s">
+      <c r="E71" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>177</v>
       </c>
       <c r="G71" s="4">
         <v>231</v>
@@ -3913,16 +4045,16 @@
     </row>
     <row r="73" spans="1:7" ht="60.75" thickBot="1">
       <c r="A73" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E73" s="18" t="s">
         <v>43</v>
@@ -3932,22 +4064,22 @@
     </row>
     <row r="74" spans="1:7" ht="60.75" thickBot="1">
       <c r="A74" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="G74" s="4">
         <v>213</v>
@@ -3955,22 +4087,22 @@
     </row>
     <row r="75" spans="1:7" ht="60.75" thickBot="1">
       <c r="A75" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="E75" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="G75" s="8">
         <v>242</v>
@@ -3978,10 +4110,10 @@
     </row>
     <row r="76" spans="1:7" ht="60.75" thickBot="1">
       <c r="A76" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>13</v>
@@ -3993,7 +4125,7 @@
         <v>43</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G76" s="4">
         <v>236</v>
@@ -4001,10 +4133,10 @@
     </row>
     <row r="77" spans="1:7" ht="45.75" thickBot="1">
       <c r="A77" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>13</v>
@@ -4016,30 +4148,30 @@
         <v>43</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G77" s="8">
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="45.75" thickBot="1">
+    <row r="78" spans="1:7" ht="60.75" thickBot="1">
       <c r="A78" s="2">
-        <v>79</v>
-      </c>
-      <c r="B78" s="3">
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>472</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D78" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="E78" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="G78" s="4">
         <v>207</v>
@@ -4047,16 +4179,16 @@
     </row>
     <row r="79" spans="1:7" ht="60.75" thickBot="1">
       <c r="A79" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E79" s="18" t="s">
         <v>43</v>
@@ -4066,22 +4198,22 @@
     </row>
     <row r="80" spans="1:7" ht="60.75" thickBot="1">
       <c r="A80" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D80" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="E80" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>207</v>
       </c>
       <c r="G80" s="4">
         <v>241</v>
@@ -4089,16 +4221,16 @@
     </row>
     <row r="81" spans="1:7" ht="60.75" thickBot="1">
       <c r="A81" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E81" s="18" t="s">
         <v>43</v>
@@ -4108,10 +4240,10 @@
     </row>
     <row r="82" spans="1:7" ht="45.75" thickBot="1">
       <c r="A82" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>13</v>
@@ -4123,7 +4255,7 @@
         <v>43</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G82" s="4">
         <v>236</v>
@@ -4131,22 +4263,22 @@
     </row>
     <row r="83" spans="1:7" ht="45.75" thickBot="1">
       <c r="A83" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="E83" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="G83" s="8">
         <v>210</v>
@@ -4154,28 +4286,30 @@
     </row>
     <row r="84" spans="1:7" ht="45.75" thickBot="1">
       <c r="A84" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E84" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F84" s="13"/>
+      <c r="F84" s="21" t="s">
+        <v>457</v>
+      </c>
       <c r="G84" s="4">
         <v>246</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="45.75" thickBot="1">
       <c r="A85" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>1</v>
@@ -4198,22 +4332,22 @@
     </row>
     <row r="86" spans="1:7" ht="45.75" thickBot="1">
       <c r="A86" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" s="3">
         <v>1</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D86" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" s="9" t="s">
         <v>259</v>
-      </c>
-      <c r="E86" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="G86" s="4">
         <v>262</v>
@@ -4221,26 +4355,26 @@
     </row>
     <row r="87" spans="1:7" ht="45.75" thickBot="1">
       <c r="A87" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F87" s="11"/>
       <c r="G87" s="17"/>
     </row>
     <row r="88" spans="1:7" ht="45.75" thickBot="1">
       <c r="A88" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>7</v>
@@ -4263,16 +4397,16 @@
     </row>
     <row r="89" spans="1:7" ht="60.75" thickBot="1">
       <c r="A89" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E89" s="19" t="s">
         <v>20</v>
@@ -4282,7 +4416,7 @@
     </row>
     <row r="90" spans="1:7" ht="45.75" thickBot="1">
       <c r="A90" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>12</v>
@@ -4305,16 +4439,16 @@
     </row>
     <row r="91" spans="1:7" ht="60.75" thickBot="1">
       <c r="A91" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E91" s="19" t="s">
         <v>20</v>
@@ -4324,7 +4458,7 @@
     </row>
     <row r="92" spans="1:7" ht="60.75" thickBot="1">
       <c r="A92" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>63</v>
@@ -4347,7 +4481,7 @@
     </row>
     <row r="93" spans="1:7" ht="45.75" thickBot="1">
       <c r="A93" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>40</v>
@@ -4370,7 +4504,7 @@
     </row>
     <row r="94" spans="1:7" ht="45.75" thickBot="1">
       <c r="A94" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" s="3">
         <v>1</v>
@@ -4379,13 +4513,13 @@
         <v>100</v>
       </c>
       <c r="D94" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="E94" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>192</v>
       </c>
       <c r="G94" s="4">
         <v>237</v>
@@ -4393,10 +4527,10 @@
     </row>
     <row r="95" spans="1:7" ht="60.75" thickBot="1">
       <c r="A95" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>10</v>
@@ -4408,7 +4542,7 @@
         <v>43</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G95" s="8">
         <v>261</v>
@@ -4416,7 +4550,7 @@
     </row>
     <row r="96" spans="1:7" ht="60.75" thickBot="1">
       <c r="A96" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>72</v>
@@ -4439,22 +4573,22 @@
     </row>
     <row r="97" spans="1:7" ht="75.75" thickBot="1">
       <c r="A97" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="E97" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="G97" s="8">
         <v>264</v>
@@ -4462,16 +4596,16 @@
     </row>
     <row r="98" spans="1:7" ht="60.75" thickBot="1">
       <c r="A98" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E98" s="18" t="s">
         <v>20</v>
@@ -4481,16 +4615,16 @@
     </row>
     <row r="99" spans="1:7" ht="60.75" thickBot="1">
       <c r="A99" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>43</v>
@@ -4500,22 +4634,22 @@
     </row>
     <row r="100" spans="1:7" ht="75.75" thickBot="1">
       <c r="A100" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D100" s="3" t="s">
+      <c r="E100" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" s="9" t="s">
         <v>235</v>
-      </c>
-      <c r="E100" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>236</v>
       </c>
       <c r="G100" s="4">
         <v>253</v>
@@ -4523,10 +4657,10 @@
     </row>
     <row r="101" spans="1:7" ht="45.75" thickBot="1">
       <c r="A101" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>13</v>
@@ -4538,7 +4672,7 @@
         <v>43</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G101" s="8">
         <v>240</v>
@@ -4546,22 +4680,22 @@
     </row>
     <row r="102" spans="1:7" ht="60.75" thickBot="1">
       <c r="A102" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D102" s="3" t="s">
+      <c r="E102" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" s="9" t="s">
         <v>212</v>
-      </c>
-      <c r="E102" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>213</v>
       </c>
       <c r="G102" s="4">
         <v>243</v>
@@ -4569,7 +4703,7 @@
     </row>
     <row r="103" spans="1:7" ht="45.75" thickBot="1">
       <c r="A103" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103" s="5">
         <v>1</v>
@@ -4578,13 +4712,13 @@
         <v>100</v>
       </c>
       <c r="D103" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F103" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="E103" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="G103" s="8">
         <v>237</v>
@@ -4592,10 +4726,10 @@
     </row>
     <row r="104" spans="1:7" ht="60.75" thickBot="1">
       <c r="A104" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>70</v>
@@ -4607,7 +4741,7 @@
         <v>43</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G104" s="4">
         <v>239</v>
@@ -4615,16 +4749,16 @@
     </row>
     <row r="105" spans="1:7" ht="60.75" thickBot="1">
       <c r="A105" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E105" s="18" t="s">
         <v>43</v>
@@ -4634,16 +4768,16 @@
     </row>
     <row r="106" spans="1:7" ht="60.75" thickBot="1">
       <c r="A106" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E106" s="18" t="s">
         <v>43</v>
@@ -4653,10 +4787,10 @@
     </row>
     <row r="107" spans="1:7" ht="45.75" thickBot="1">
       <c r="A107" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>10</v>
@@ -4668,7 +4802,7 @@
         <v>43</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G107" s="8">
         <v>227</v>
@@ -4676,22 +4810,22 @@
     </row>
     <row r="108" spans="1:7" ht="27" thickBot="1">
       <c r="A108" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C108" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C108" s="15" t="s">
+      <c r="D108" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E108" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" s="13" t="s">
         <v>152</v>
-      </c>
-      <c r="D108" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E108" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F108" s="13" t="s">
-        <v>153</v>
       </c>
       <c r="G108" s="4">
         <v>225</v>
@@ -4699,28 +4833,30 @@
     </row>
     <row r="109" spans="1:7" ht="60.75" thickBot="1">
       <c r="A109" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C109" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="D109" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D109" s="6" t="s">
-        <v>156</v>
-      </c>
       <c r="E109" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F109" s="12"/>
+      <c r="F109" s="22" t="s">
+        <v>458</v>
+      </c>
       <c r="G109" s="8">
         <v>225</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="60.75" thickBot="1">
       <c r="A110" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>91</v>
@@ -4734,29 +4870,31 @@
       <c r="E110" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F110" s="13"/>
+      <c r="F110" s="21" t="s">
+        <v>459</v>
+      </c>
       <c r="G110" s="4">
         <v>205</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="45.75" thickBot="1">
       <c r="A111" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D111" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F111" s="10" t="s">
         <v>222</v>
-      </c>
-      <c r="E111" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F111" s="10" t="s">
-        <v>223</v>
       </c>
       <c r="G111" s="8">
         <v>245</v>
@@ -4764,7 +4902,7 @@
     </row>
     <row r="112" spans="1:7" ht="60.75" thickBot="1">
       <c r="A112" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>35</v>
@@ -4787,22 +4925,22 @@
     </row>
     <row r="113" spans="1:7" ht="75.75" thickBot="1">
       <c r="A113" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D113" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E113" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F113" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="E113" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F113" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="G113" s="8">
         <v>278</v>
@@ -4810,16 +4948,16 @@
     </row>
     <row r="114" spans="1:7" ht="60.75" thickBot="1">
       <c r="A114" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E114" s="18" t="s">
         <v>43</v>
@@ -4829,7 +4967,7 @@
     </row>
     <row r="115" spans="1:7" ht="60.75" thickBot="1">
       <c r="A115" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>51</v>
@@ -4852,16 +4990,16 @@
     </row>
     <row r="116" spans="1:7" ht="60.75" thickBot="1">
       <c r="A116" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E116" s="18" t="s">
         <v>20</v>
@@ -4871,22 +5009,22 @@
     </row>
     <row r="117" spans="1:7" ht="75.75" thickBot="1">
       <c r="A117" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D117" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F117" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="E117" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F117" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="G117" s="8">
         <v>208</v>
@@ -4894,7 +5032,7 @@
     </row>
     <row r="118" spans="1:7" ht="60.75" thickBot="1">
       <c r="A118" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>59</v>
@@ -4917,16 +5055,16 @@
     </row>
     <row r="119" spans="1:7" ht="60.75" thickBot="1">
       <c r="A119" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E119" s="18" t="s">
         <v>43</v>
@@ -4936,22 +5074,22 @@
     </row>
     <row r="120" spans="1:7" ht="60.75" thickBot="1">
       <c r="A120" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D120" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F120" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="E120" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F120" s="9" t="s">
-        <v>241</v>
       </c>
       <c r="G120" s="4">
         <v>254</v>
@@ -4959,43 +5097,43 @@
     </row>
     <row r="121" spans="1:7" ht="60.75" thickBot="1">
       <c r="A121" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D121" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C121" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D121" s="6" t="s">
+      <c r="E121" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F121" s="10" t="s">
         <v>425</v>
-      </c>
-      <c r="E121" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F121" s="10" t="s">
-        <v>426</v>
       </c>
       <c r="G121" s="17"/>
     </row>
     <row r="122" spans="1:7" ht="45.75" thickBot="1">
       <c r="A122" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D122" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D122" s="3" t="s">
+      <c r="E122" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F122" s="9" t="s">
         <v>139</v>
-      </c>
-      <c r="E122" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F122" s="9" t="s">
-        <v>140</v>
       </c>
       <c r="G122" s="4">
         <v>222</v>
@@ -5003,16 +5141,16 @@
     </row>
     <row r="123" spans="1:7" ht="60.75" thickBot="1">
       <c r="A123" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E123" s="19" t="s">
         <v>20</v>
@@ -5022,7 +5160,7 @@
     </row>
     <row r="124" spans="1:7" ht="60.75" thickBot="1">
       <c r="A124" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B124" s="14" t="s">
         <v>77</v>
@@ -5045,22 +5183,22 @@
     </row>
     <row r="125" spans="1:7" ht="60.75" thickBot="1">
       <c r="A125" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D125" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E125" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F125" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="E125" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F125" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="G125" s="8">
         <v>224</v>
@@ -5068,22 +5206,22 @@
     </row>
     <row r="126" spans="1:7" ht="75.75" thickBot="1">
       <c r="A126" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D126" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E126" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F126" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="E126" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F126" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="G126" s="4">
         <v>209</v>
@@ -5091,22 +5229,22 @@
     </row>
     <row r="127" spans="1:7" ht="60.75" thickBot="1">
       <c r="A127" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D127" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E127" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F127" s="10" t="s">
         <v>215</v>
-      </c>
-      <c r="E127" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F127" s="10" t="s">
-        <v>216</v>
       </c>
       <c r="G127" s="8">
         <v>244</v>
@@ -5114,13 +5252,13 @@
     </row>
     <row r="128" spans="1:7" ht="60.75" thickBot="1">
       <c r="A128" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>6</v>
@@ -5129,7 +5267,7 @@
         <v>43</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G128" s="4">
         <v>251</v>
@@ -5137,7 +5275,7 @@
     </row>
     <row r="129" spans="1:7" ht="60.75" thickBot="1">
       <c r="A129" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>79</v>
@@ -5160,22 +5298,22 @@
     </row>
     <row r="130" spans="1:7" ht="60.75" thickBot="1">
       <c r="A130" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B130" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="D130" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E130" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F130" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E130" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F130" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="G130" s="4">
         <v>230</v>
@@ -5183,16 +5321,16 @@
     </row>
     <row r="131" spans="1:7" ht="60.75" thickBot="1">
       <c r="A131" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E131" s="18" t="s">
         <v>43</v>
@@ -5202,22 +5340,22 @@
     </row>
     <row r="132" spans="1:7" ht="60.75" thickBot="1">
       <c r="A132" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B132" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="D132" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="E132" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F132" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="E132" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F132" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="G132" s="4">
         <v>216</v>
@@ -5225,22 +5363,22 @@
     </row>
     <row r="133" spans="1:7" ht="45.75" thickBot="1">
       <c r="A133" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B133" s="6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E133" s="18" t="s">
         <v>43</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G133" s="8">
         <v>262</v>
@@ -5248,10 +5386,10 @@
     </row>
     <row r="134" spans="1:7" ht="60.75" thickBot="1">
       <c r="A134" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>10</v>
@@ -5263,7 +5401,7 @@
         <v>43</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G134" s="4">
         <v>226</v>
@@ -5271,22 +5409,22 @@
     </row>
     <row r="135" spans="1:7" ht="45.75" thickBot="1">
       <c r="A135" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>92</v>
       </c>
       <c r="D135" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E135" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F135" s="10" t="s">
         <v>269</v>
-      </c>
-      <c r="E135" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F135" s="10" t="s">
-        <v>270</v>
       </c>
       <c r="G135" s="8">
         <v>266</v>
@@ -5294,7 +5432,7 @@
     </row>
     <row r="136" spans="1:7" ht="60.75" thickBot="1">
       <c r="A136" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>47</v>
@@ -5317,22 +5455,22 @@
     </row>
     <row r="137" spans="1:7" ht="60.75" thickBot="1">
       <c r="A137" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>92</v>
       </c>
       <c r="D137" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E137" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F137" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="E137" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F137" s="10" t="s">
-        <v>180</v>
       </c>
       <c r="G137" s="8">
         <v>233</v>
@@ -5340,16 +5478,16 @@
     </row>
     <row r="138" spans="1:7" ht="60.75" thickBot="1">
       <c r="A138" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B138" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>430</v>
-      </c>
       <c r="D138" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E138" s="18" t="s">
         <v>43</v>
@@ -5359,7 +5497,7 @@
     </row>
     <row r="139" spans="1:7" ht="60.75" thickBot="1">
       <c r="A139" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>9</v>
@@ -5382,16 +5520,16 @@
     </row>
     <row r="140" spans="1:7" ht="60.75" thickBot="1">
       <c r="A140" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E140" s="18" t="s">
         <v>20</v>
@@ -5401,16 +5539,16 @@
     </row>
     <row r="141" spans="1:7" ht="60.75" thickBot="1">
       <c r="A141" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B141" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D141" s="6" t="s">
         <v>432</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>433</v>
       </c>
       <c r="E141" s="19" t="s">
         <v>20</v>
@@ -5420,7 +5558,7 @@
     </row>
     <row r="142" spans="1:7" ht="60.75" thickBot="1">
       <c r="A142" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>15</v>
@@ -5443,37 +5581,37 @@
     </row>
     <row r="143" spans="1:7" ht="60.75" thickBot="1">
       <c r="A143" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D143" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E143" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F143" s="10" t="s">
         <v>435</v>
-      </c>
-      <c r="E143" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F143" s="10" t="s">
-        <v>436</v>
       </c>
       <c r="G143" s="17"/>
     </row>
     <row r="144" spans="1:7" ht="60.75" thickBot="1">
       <c r="A144" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E144" s="18" t="s">
         <v>43</v>
@@ -5483,16 +5621,16 @@
     </row>
     <row r="145" spans="1:7" ht="60.75" thickBot="1">
       <c r="A145" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E145" s="19" t="s">
         <v>20</v>
@@ -5502,10 +5640,10 @@
     </row>
     <row r="146" spans="1:7" ht="45.75" thickBot="1">
       <c r="A146" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>10</v>
@@ -5517,7 +5655,7 @@
         <v>20</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G146" s="4">
         <v>257</v>
@@ -5525,16 +5663,16 @@
     </row>
     <row r="147" spans="1:7" ht="45.75" thickBot="1">
       <c r="A147" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E147" s="19" t="s">
         <v>20</v>
@@ -5544,22 +5682,22 @@
     </row>
     <row r="148" spans="1:7" ht="60.75" thickBot="1">
       <c r="A148" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C148" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D148" s="3" t="s">
+      <c r="E148" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F148" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="E148" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F148" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="G148" s="4">
         <v>222</v>
@@ -5567,7 +5705,7 @@
     </row>
     <row r="149" spans="1:7" ht="60.75" thickBot="1">
       <c r="A149" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>19</v>
@@ -5590,7 +5728,7 @@
     </row>
     <row r="150" spans="1:7" ht="45.75" thickBot="1">
       <c r="A150" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>54</v>
@@ -5613,85 +5751,85 @@
     </row>
     <row r="151" spans="1:7" ht="45.75" thickBot="1">
       <c r="A151" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B151" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D151" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="C151" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D151" s="6" t="s">
+      <c r="E151" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F151" s="10" t="s">
         <v>442</v>
-      </c>
-      <c r="E151" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F151" s="10" t="s">
-        <v>443</v>
       </c>
       <c r="G151" s="17"/>
     </row>
     <row r="152" spans="1:7" ht="60.75" thickBot="1">
       <c r="A152" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E152" s="18" t="s">
         <v>43</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G152" s="15"/>
     </row>
-    <row r="153" spans="1:7" ht="45.75" thickBot="1">
+    <row r="153" spans="1:7" ht="60.75" thickBot="1">
       <c r="A153" s="2">
-        <v>154</v>
-      </c>
-      <c r="B153" s="6">
-        <v>1</v>
+        <v>153</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>473</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E153" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="F153" s="10" t="s">
         <v>446</v>
-      </c>
-      <c r="F153" s="10" t="s">
-        <v>447</v>
       </c>
       <c r="G153" s="17"/>
     </row>
     <row r="154" spans="1:7" ht="61.5" thickBot="1">
       <c r="A154" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D154" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E154" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F154" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="E154" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F154" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="G154" s="4">
         <v>212</v>
@@ -5699,7 +5837,7 @@
     </row>
     <row r="155" spans="1:7" ht="60.75" thickBot="1">
       <c r="A155" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>94</v>
@@ -5722,7 +5860,7 @@
     </row>
     <row r="156" spans="1:7" ht="60.75" thickBot="1">
       <c r="A156" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>3</v>
@@ -5745,22 +5883,22 @@
     </row>
     <row r="157" spans="1:7" ht="60.75" thickBot="1">
       <c r="A157" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B157" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E157" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F157" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D157" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E157" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F157" s="10" t="s">
-        <v>165</v>
       </c>
       <c r="G157" s="8">
         <v>228</v>
@@ -5768,7 +5906,7 @@
     </row>
     <row r="158" spans="1:7" ht="60.75" thickBot="1">
       <c r="A158" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B158" s="3">
         <v>1</v>
@@ -5777,7 +5915,7 @@
         <v>18</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E158" s="18" t="s">
         <v>20</v>
@@ -5787,16 +5925,16 @@
     </row>
     <row r="159" spans="1:7" ht="60.75" thickBot="1">
       <c r="A159" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E159" s="19" t="s">
         <v>20</v>
@@ -5806,7 +5944,7 @@
     </row>
     <row r="160" spans="1:7" ht="60.75" thickBot="1">
       <c r="A160" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B160" s="3">
         <v>1</v>
@@ -5815,19 +5953,19 @@
         <v>70</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E160" s="18" t="s">
         <v>43</v>
       </c>
       <c r="F160" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G160" s="15"/>
     </row>
     <row r="161" spans="1:7" ht="60.75" thickBot="1">
       <c r="A161" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>57</v>
@@ -5850,10 +5988,10 @@
     </row>
     <row r="162" spans="1:7" ht="60.75" thickBot="1">
       <c r="A162" s="2">
-        <v>163</v>
-      </c>
-      <c r="B162" s="3">
-        <v>1</v>
+        <v>162</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>469</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>10</v>
@@ -5865,7 +6003,7 @@
         <v>43</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G162" s="4">
         <v>255</v>
@@ -5873,22 +6011,22 @@
     </row>
     <row r="163" spans="1:7" ht="60.75" thickBot="1">
       <c r="A163" s="2">
-        <v>164</v>
-      </c>
-      <c r="B163" s="6">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>474</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D163" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E163" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F163" s="10" t="s">
         <v>271</v>
-      </c>
-      <c r="E163" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F163" s="10" t="s">
-        <v>272</v>
       </c>
       <c r="G163" s="8">
         <v>275</v>
@@ -5896,16 +6034,16 @@
     </row>
     <row r="164" spans="1:7" ht="60.75" thickBot="1">
       <c r="A164" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E164" s="18" t="s">
         <v>43</v>
@@ -5915,22 +6053,22 @@
     </row>
     <row r="165" spans="1:7" ht="75.75" thickBot="1">
       <c r="A165" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B165" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E165" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F165" s="10" t="s">
         <v>237</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E165" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F165" s="10" t="s">
-        <v>238</v>
       </c>
       <c r="G165" s="8">
         <v>253</v>
@@ -5938,10 +6076,10 @@
     </row>
     <row r="166" spans="1:7" ht="60.75" thickBot="1">
       <c r="A166" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>83</v>
@@ -5953,7 +6091,7 @@
         <v>43</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G166" s="4">
         <v>248</v>
@@ -5961,16 +6099,16 @@
     </row>
     <row r="167" spans="1:7" ht="60.75" thickBot="1">
       <c r="A167" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E167" s="18" t="s">
         <v>43</v>
@@ -5980,7 +6118,7 @@
     </row>
     <row r="168" spans="1:7" ht="45.75" thickBot="1">
       <c r="A168" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>66</v>
@@ -6003,7 +6141,7 @@
     </row>
     <row r="169" spans="1:7" ht="60.75" thickBot="1">
       <c r="A169" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>82</v>
@@ -6026,16 +6164,16 @@
     </row>
     <row r="170" spans="1:7" ht="60.75" thickBot="1">
       <c r="A170" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="C170" s="3" t="s">
-        <v>453</v>
-      </c>
       <c r="D170" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E170" s="18" t="s">
         <v>43</v>
@@ -6045,10 +6183,10 @@
     </row>
     <row r="171" spans="1:7" ht="60.75" thickBot="1">
       <c r="A171" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>18</v>
@@ -6064,35 +6202,35 @@
     </row>
     <row r="172" spans="1:7" ht="45.75" thickBot="1">
       <c r="A172" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E172" s="19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F172" s="13"/>
       <c r="G172" s="15"/>
     </row>
     <row r="173" spans="1:7" ht="60.75" thickBot="1">
       <c r="A173" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E173" s="19" t="s">
         <v>20</v>
@@ -6102,7 +6240,7 @@
     </row>
     <row r="174" spans="1:7" ht="45.75" thickBot="1">
       <c r="A174" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B174" s="3">
         <v>1</v>
@@ -6125,7 +6263,7 @@
     </row>
     <row r="175" spans="1:7" ht="60.75" thickBot="1">
       <c r="A175" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>37</v>
@@ -6148,22 +6286,22 @@
     </row>
     <row r="176" spans="1:7" ht="45.75" thickBot="1">
       <c r="A176" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B176" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C176" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="D176" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E176" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F176" s="9" t="s">
         <v>251</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E176" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F176" s="9" t="s">
-        <v>252</v>
       </c>
       <c r="G176" s="4">
         <v>259</v>
@@ -6171,7 +6309,7 @@
     </row>
     <row r="177" spans="1:7" ht="30.75" thickBot="1">
       <c r="A177" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>81</v>
@@ -6192,154 +6330,166 @@
     </row>
     <row r="178" spans="1:7" ht="45.75" thickBot="1">
       <c r="A178" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B178" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C178" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="D178" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E178" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F178" s="13"/>
+      <c r="F178" s="26" t="s">
+        <v>461</v>
+      </c>
       <c r="G178" s="4">
         <v>301</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="45.75" thickBot="1">
       <c r="A179" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B179" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C179" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C179" s="6" t="s">
-        <v>290</v>
-      </c>
       <c r="D179" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E179" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F179" s="12"/>
+      <c r="F179" s="27" t="s">
+        <v>460</v>
+      </c>
       <c r="G179" s="8">
         <v>302</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="30.75" thickBot="1">
       <c r="A180" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E180" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F180" s="13"/>
+      <c r="F180" s="26"/>
       <c r="G180" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="30.75" thickBot="1">
       <c r="A181" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E181" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F181" s="12"/>
+      <c r="F181" s="26" t="s">
+        <v>462</v>
+      </c>
       <c r="G181" s="8">
         <v>309</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="30.75" thickBot="1">
       <c r="A182" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E182" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F182" s="13"/>
+      <c r="F182" s="26" t="s">
+        <v>463</v>
+      </c>
       <c r="G182" s="4">
         <v>308</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="30.75" thickBot="1">
       <c r="A183" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B183" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C183" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C183" s="6" t="s">
-        <v>300</v>
-      </c>
       <c r="D183" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E183" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F183" s="12"/>
+      <c r="F183" s="27" t="s">
+        <v>464</v>
+      </c>
       <c r="G183" s="8">
         <v>307</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="30.75" thickBot="1">
       <c r="A184" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E184" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F184" s="13"/>
+      <c r="F184" s="26" t="s">
+        <v>465</v>
+      </c>
       <c r="G184" s="4">
         <v>312</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="30.75" thickBot="1">
       <c r="A185" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>86</v>
@@ -6360,16 +6510,16 @@
     </row>
     <row r="186" spans="1:7" ht="30.75" thickBot="1">
       <c r="A186" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E186" s="18" t="s">
         <v>76</v>
@@ -6381,7 +6531,7 @@
     </row>
     <row r="187" spans="1:7" ht="30.75" thickBot="1">
       <c r="A187" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B187" s="5" t="s">
         <v>74</v>
@@ -6395,23 +6545,23 @@
       <c r="E187" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F187" s="12"/>
+      <c r="F187" s="27"/>
       <c r="G187" s="8">
         <v>200</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="30.75" thickBot="1">
       <c r="A188" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B188" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C188" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C188" s="3" t="s">
-        <v>295</v>
-      </c>
       <c r="D188" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E188" s="18" t="s">
         <v>76</v>
@@ -6423,79 +6573,85 @@
     </row>
     <row r="189" spans="1:7" ht="30.75" thickBot="1">
       <c r="A189" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E189" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F189" s="12"/>
+      <c r="F189" s="27" t="s">
+        <v>466</v>
+      </c>
       <c r="G189" s="8">
         <v>304</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="30.75" thickBot="1">
       <c r="A190" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B190" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C190" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C190" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="D190" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E190" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F190" s="13"/>
+      <c r="F190" s="26" t="s">
+        <v>467</v>
+      </c>
       <c r="G190" s="4">
         <v>305</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="60.75" thickBot="1">
       <c r="A191" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B191" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C191" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C191" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="D191" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E191" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F191" s="12"/>
+      <c r="F191" s="27" t="s">
+        <v>468</v>
+      </c>
       <c r="G191" s="8">
         <v>317</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="45.75" thickBot="1">
       <c r="A192" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E192" s="18" t="s">
         <v>76</v>
@@ -6507,16 +6663,16 @@
     </row>
     <row r="193" spans="1:7" ht="30.75" thickBot="1">
       <c r="A193" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B193" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C193" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C193" s="6" t="s">
-        <v>307</v>
-      </c>
       <c r="D193" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E193" s="19" t="s">
         <v>76</v>
@@ -6528,16 +6684,16 @@
     </row>
     <row r="194" spans="1:7" ht="75.75" thickBot="1">
       <c r="A194" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B194" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C194" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="D194" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="E194" s="18" t="s">
         <v>76</v>
@@ -6549,16 +6705,16 @@
     </row>
     <row r="195" spans="1:7" ht="45.75" thickBot="1">
       <c r="A195" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B195" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C195" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C195" s="6" t="s">
-        <v>330</v>
-      </c>
       <c r="D195" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E195" s="19" t="s">
         <v>76</v>
@@ -6570,13 +6726,13 @@
     </row>
     <row r="196" spans="1:7" ht="45.75" thickBot="1">
       <c r="A196" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B196" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C196" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>6</v>
@@ -6591,16 +6747,16 @@
     </row>
     <row r="197" spans="1:7" ht="30.75" thickBot="1">
       <c r="A197" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B197" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C197" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C197" s="6" t="s">
-        <v>316</v>
-      </c>
       <c r="D197" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E197" s="19" t="s">
         <v>76</v>
@@ -6612,16 +6768,16 @@
     </row>
     <row r="198" spans="1:7" ht="30.75" thickBot="1">
       <c r="A198" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B198" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C198" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C198" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="D198" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E198" s="18" t="s">
         <v>76</v>
@@ -6633,16 +6789,16 @@
     </row>
     <row r="199" spans="1:7" ht="45.75" thickBot="1">
       <c r="A199" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B199" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C199" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C199" s="6" t="s">
-        <v>325</v>
-      </c>
       <c r="D199" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E199" s="19" t="s">
         <v>76</v>
@@ -6654,16 +6810,16 @@
     </row>
     <row r="200" spans="1:7" ht="75.75" thickBot="1">
       <c r="A200" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B200" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C200" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="D200" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="E200" s="18" t="s">
         <v>76</v>
@@ -6675,16 +6831,16 @@
     </row>
     <row r="201" spans="1:7" ht="45.75" thickBot="1">
       <c r="A201" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B201" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C201" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C201" s="6" t="s">
-        <v>323</v>
-      </c>
       <c r="D201" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E201" s="19" t="s">
         <v>76</v>
@@ -6696,16 +6852,16 @@
     </row>
     <row r="202" spans="1:7" ht="45.75" thickBot="1">
       <c r="A202" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B202" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C202" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="D202" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="E202" s="18" t="s">
         <v>76</v>
@@ -6717,16 +6873,16 @@
     </row>
     <row r="203" spans="1:7" ht="45.75" thickBot="1">
       <c r="A203" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B203" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C203" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C203" s="6" t="s">
-        <v>335</v>
-      </c>
       <c r="D203" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E203" s="19" t="s">
         <v>76</v>
@@ -6738,16 +6894,16 @@
     </row>
     <row r="204" spans="1:7" ht="45.75" thickBot="1">
       <c r="A204" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B204" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C204" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C204" s="3" t="s">
-        <v>337</v>
-      </c>
       <c r="D204" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E204" s="18" t="s">
         <v>76</v>
@@ -6759,16 +6915,16 @@
     </row>
     <row r="205" spans="1:7" ht="45.75" thickBot="1">
       <c r="A205" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B205" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C205" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C205" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="D205" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E205" s="19" t="s">
         <v>76</v>
@@ -6780,16 +6936,16 @@
     </row>
     <row r="206" spans="1:7" ht="60.75" thickBot="1">
       <c r="A206" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B206" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C206" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C206" s="3" t="s">
-        <v>341</v>
-      </c>
       <c r="D206" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E206" s="18" t="s">
         <v>76</v>
@@ -6801,16 +6957,16 @@
     </row>
     <row r="207" spans="1:7" ht="45.75" thickBot="1">
       <c r="A207" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B207" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C207" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C207" s="6" t="s">
-        <v>343</v>
-      </c>
       <c r="D207" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E207" s="19" t="s">
         <v>76</v>
@@ -6822,16 +6978,16 @@
     </row>
     <row r="208" spans="1:7" ht="75.75" thickBot="1">
       <c r="A208" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B208" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C208" s="3" t="s">
-        <v>345</v>
-      </c>
       <c r="D208" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E208" s="18" t="s">
         <v>76</v>
@@ -6843,16 +6999,16 @@
     </row>
     <row r="209" spans="1:7" ht="90.75" thickBot="1">
       <c r="A209" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B209" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C209" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C209" s="6" t="s">
-        <v>347</v>
-      </c>
       <c r="D209" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E209" s="19" t="s">
         <v>76</v>
@@ -6864,16 +7020,16 @@
     </row>
     <row r="210" spans="1:7" ht="45.75" thickBot="1">
       <c r="A210" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B210" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C210" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C210" s="3" t="s">
-        <v>349</v>
-      </c>
       <c r="D210" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E210" s="18" t="s">
         <v>76</v>
@@ -6885,16 +7041,16 @@
     </row>
     <row r="211" spans="1:7" ht="45.75" thickBot="1">
       <c r="A211" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B211" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C211" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C211" s="6" t="s">
-        <v>351</v>
-      </c>
       <c r="D211" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E211" s="19" t="s">
         <v>76</v>
@@ -6906,16 +7062,16 @@
     </row>
     <row r="212" spans="1:7" ht="30.75" thickBot="1">
       <c r="A212" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C212" s="3" t="s">
-        <v>305</v>
-      </c>
       <c r="D212" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E212" s="18" t="s">
         <v>76</v>
@@ -6927,16 +7083,16 @@
     </row>
     <row r="213" spans="1:7" ht="45.75" thickBot="1">
       <c r="A213" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B213" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C213" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C213" s="6" t="s">
-        <v>312</v>
-      </c>
       <c r="D213" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E213" s="19" t="s">
         <v>76</v>
@@ -6948,16 +7104,16 @@
     </row>
     <row r="214" spans="1:7" ht="30.75" thickBot="1">
       <c r="A214" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B214" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C214" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C214" s="3" t="s">
-        <v>292</v>
-      </c>
       <c r="D214" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E214" s="18" t="s">
         <v>76</v>
@@ -6969,16 +7125,16 @@
     </row>
     <row r="215" spans="1:7" ht="30.75" thickBot="1">
       <c r="A215" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E215" s="19" t="s">
         <v>76</v>
@@ -6990,28 +7146,79 @@
     </row>
     <row r="216" spans="1:7" ht="45.75" thickBot="1">
       <c r="A216" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B216" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C216" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C216" s="3" t="s">
-        <v>353</v>
-      </c>
       <c r="D216" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E216" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F216" s="13"/>
+      <c r="F216" s="26" t="s">
+        <v>477</v>
+      </c>
       <c r="G216" s="4">
         <v>511</v>
       </c>
     </row>
+    <row r="217" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A217" s="2"/>
+      <c r="B217" s="30"/>
+      <c r="C217" s="28"/>
+      <c r="D217" s="23"/>
+      <c r="E217" s="24"/>
+      <c r="F217" s="28"/>
+      <c r="G217" s="25"/>
+    </row>
+    <row r="218" spans="1:7" ht="45.75" thickBot="1">
+      <c r="A218" s="2">
+        <v>218</v>
+      </c>
+      <c r="B218" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="C218" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="D218" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="E218" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F218" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="G218" s="29">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G216"/>
+  <autoFilter ref="A1:G217"/>
+  <hyperlinks>
+    <hyperlink ref="F11" r:id="rId1"/>
+    <hyperlink ref="F84" r:id="rId2"/>
+    <hyperlink ref="F109" r:id="rId3"/>
+    <hyperlink ref="F110" r:id="rId4"/>
+    <hyperlink ref="F179" r:id="rId5"/>
+    <hyperlink ref="F178" r:id="rId6"/>
+    <hyperlink ref="F181" r:id="rId7"/>
+    <hyperlink ref="F182" r:id="rId8"/>
+    <hyperlink ref="F183" r:id="rId9"/>
+    <hyperlink ref="F184" r:id="rId10"/>
+    <hyperlink ref="F189" r:id="rId11"/>
+    <hyperlink ref="F190" r:id="rId12" display="talentohumano@umes.edu.gt"/>
+    <hyperlink ref="F191" r:id="rId13"/>
+    <hyperlink ref="F216" r:id="rId14"/>
+    <hyperlink ref="F218" r:id="rId15"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId16"/>
 </worksheet>
 </file>
--- a/hoja.xlsx
+++ b/hoja.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fer_nando\Desktop\html - copia\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis Fernando\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0809F6E8-FE09-4142-8E1B-C700DA9BE94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Libro(Hoja1)" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Libro(Hoja1)'!$A$1:$G$217</definedName>
   </definedNames>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1464,7 +1465,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="28">
     <font>
       <sz val="11"/>
@@ -2075,9 +2076,8 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2132,20 +2132,19 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="25" fillId="34" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="35" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="34" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2155,10 +2154,10 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2206,7 +2205,9 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{E9FCF83D-801F-4CEE-811E-C257BD917BB6}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2480,4743 +2481,4739 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="C219" sqref="C219"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="4" width="11.42578125" style="1"/>
-    <col min="5" max="5" width="11.42578125" style="20"/>
-    <col min="6" max="6" width="34.85546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="34.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A1" s="2">
+    <row r="1" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="105.75" thickBot="1">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" ht="97.8" thickBot="1">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A3" s="2">
+    <row r="3" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="75.75" thickBot="1">
-      <c r="A4" s="2">
+    <row r="4" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A5" s="2">
+    <row r="5" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A6" s="2">
+    <row r="6" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A7" s="2">
+    <row r="7" spans="1:7" ht="33" thickBot="1">
+      <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="75.75" thickBot="1">
-      <c r="A8" s="2">
+    <row r="8" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A9" s="2">
+    <row r="9" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A10" s="2">
+    <row r="10" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A11" s="2">
+    <row r="11" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="21" t="s">
+      <c r="E11" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A12" s="2">
+    <row r="12" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="16" t="s">
+      <c r="E12" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A13" s="2">
+    <row r="13" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="E13" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A14" s="2">
+    <row r="14" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:7" ht="75.75" thickBot="1">
-      <c r="A15" s="2">
+      <c r="E14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" ht="81.599999999999994" thickBot="1">
+      <c r="A15" s="1">
         <v>15</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="E15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A16" s="2">
+    <row r="16" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A16" s="1">
         <v>16</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A17" s="2">
+      <c r="F16" s="10"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A17" s="1">
         <v>17</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A18" s="2">
+      <c r="F17" s="12"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A18" s="1">
         <v>18</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="10" t="s">
+      <c r="E18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A19" s="2">
+    <row r="19" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A19" s="1">
         <v>19</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="E19" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A20" s="2">
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A21" s="2">
+      <c r="F20" s="10"/>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7" ht="75.75" thickBot="1">
-      <c r="A22" s="2">
+      <c r="E21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="81.599999999999994" thickBot="1">
+      <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="16" t="s">
+      <c r="E22" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A23" s="2">
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A23" s="1">
         <v>23</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>1</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A24" s="2">
+      <c r="F23" s="12"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A24" s="1">
         <v>24</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A25" s="2">
+    <row r="25" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A25" s="1">
         <v>25</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E25" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A26" s="2">
+      <c r="E25" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A26" s="1">
         <v>26</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="E26" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A27" s="2">
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A27" s="1">
         <v>27</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E27" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="9" t="s">
+      <c r="E27" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A28" s="2">
+    <row r="28" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A28" s="1">
         <v>28</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E28" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="E28" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="75.75" thickBot="1">
-      <c r="A29" s="2">
+    <row r="29" spans="1:7" ht="81.599999999999994" thickBot="1">
+      <c r="A29" s="1">
         <v>29</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E29" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="9" t="s">
+      <c r="E29" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <v>245</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A30" s="2">
+    <row r="30" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A30" s="1">
         <v>30</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>1</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E30" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="12" t="s">
+      <c r="E30" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A31" s="2">
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A31" s="1">
         <v>31</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="9" t="s">
+      <c r="E31" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="3">
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A32" s="2">
+    <row r="32" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A32" s="1">
         <v>32</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="E32" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="E32" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="7">
         <v>281</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A33" s="2">
+    <row r="33" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A33" s="1">
         <v>33</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="34" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A34" s="2">
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A34" s="1">
         <v>34</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="17"/>
-    </row>
-    <row r="35" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A35" s="2">
+      <c r="F34" s="10"/>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A35" s="1">
         <v>35</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="15"/>
-    </row>
-    <row r="36" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A36" s="2">
+      <c r="F35" s="12"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A36" s="1">
         <v>36</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E36" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A37" s="2">
+      <c r="E36" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A37" s="1">
         <v>37</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="G37" s="15"/>
-    </row>
-    <row r="38" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A38" s="2">
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A38" s="1">
         <v>38</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E38" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="17"/>
-    </row>
-    <row r="39" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A39" s="2">
+      <c r="E38" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A39" s="1">
         <v>39</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="E39" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="9" t="s">
+      <c r="E39" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="3" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A40" s="2">
+    <row r="40" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A40" s="1">
         <v>40</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="17"/>
-    </row>
-    <row r="41" spans="1:7" ht="120.75" thickBot="1">
-      <c r="A41" s="2">
+      <c r="F40" s="10"/>
+      <c r="G40" s="16"/>
+    </row>
+    <row r="41" spans="1:7" ht="130.19999999999999" thickBot="1">
+      <c r="A41" s="1">
         <v>41</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E41" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="9" t="s">
+      <c r="E41" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="3">
         <v>249</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A42" s="2">
+    <row r="42" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A42" s="1">
         <v>42</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E42" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" s="7" t="s">
+      <c r="E42" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="7">
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A43" s="2">
-        <v>43</v>
-      </c>
-      <c r="B43" s="3" t="s">
+    <row r="43" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A43" s="1">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E43" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="12" t="s">
+      <c r="E43" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="G43" s="15"/>
-    </row>
-    <row r="44" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A44" s="2">
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A44" s="1">
         <v>44</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44" s="7" t="s">
+      <c r="E44" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="7">
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A45" s="2">
+    <row r="45" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A45" s="1">
         <v>45</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="3">
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A46" s="2">
+    <row r="46" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A46" s="1">
         <v>46</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="17"/>
-    </row>
-    <row r="47" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A47" s="2">
+      <c r="F46" s="10"/>
+      <c r="G46" s="16"/>
+    </row>
+    <row r="47" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A47" s="1">
         <v>47</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F47" s="9" t="s">
+      <c r="E47" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="3">
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A48" s="2">
+    <row r="48" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A48" s="1">
         <v>48</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E48" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="17"/>
-    </row>
-    <row r="49" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A49" s="2">
+      <c r="E48" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="16"/>
+    </row>
+    <row r="49" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A49" s="1">
         <v>49</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E49" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F49" s="12" t="s">
+      <c r="E49" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="G49" s="15"/>
-    </row>
-    <row r="50" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A50" s="2">
+      <c r="G49" s="14"/>
+    </row>
+    <row r="50" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A50" s="1">
         <v>50</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E50" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="17"/>
-    </row>
-    <row r="51" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A51" s="2">
+      <c r="E50" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="16"/>
+    </row>
+    <row r="51" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A51" s="1">
         <v>51</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E51" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" s="9" t="s">
+      <c r="E51" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="3">
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A52" s="2">
+    <row r="52" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A52" s="1">
         <v>52</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" s="7" t="s">
+      <c r="E52" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A53" s="2">
+    <row r="53" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A53" s="1">
         <v>53</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="G53" s="15"/>
-    </row>
-    <row r="54" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A54" s="2">
+      <c r="G53" s="14"/>
+    </row>
+    <row r="54" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A54" s="1">
         <v>54</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54" s="7" t="s">
+      <c r="E54" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="7">
         <v>256</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A55" s="2">
+    <row r="55" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A55" s="1">
         <v>55</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E55" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F55" s="9" t="s">
+      <c r="E55" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="3">
         <v>282</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A56" s="2">
+    <row r="56" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A56" s="1">
         <v>56</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="7">
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A57" s="2">
+    <row r="57" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A57" s="1">
         <v>57</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>1</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E57" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F57" s="13"/>
-      <c r="G57" s="15"/>
-    </row>
-    <row r="58" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A58" s="2">
+      <c r="E57" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" s="12"/>
+      <c r="G57" s="14"/>
+    </row>
+    <row r="58" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A58" s="1">
         <v>58</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E58" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="17"/>
-    </row>
-    <row r="59" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A59" s="2">
+      <c r="E58" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="16"/>
+    </row>
+    <row r="59" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A59" s="1">
         <v>59</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F59" s="13"/>
-      <c r="G59" s="15"/>
-    </row>
-    <row r="60" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A60" s="2">
+      <c r="F59" s="12"/>
+      <c r="G59" s="14"/>
+    </row>
+    <row r="60" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A60" s="1">
         <v>60</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G60" s="7">
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A61" s="2">
+    <row r="61" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A61" s="1">
         <v>61</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E61" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F61" s="9" t="s">
+      <c r="E61" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="3">
         <v>260</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A62" s="2">
+    <row r="62" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A62" s="1">
         <v>62</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E62" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F62" s="7" t="s">
+      <c r="E62" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G62" s="7">
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="75.75" thickBot="1">
-      <c r="A63" s="2">
+    <row r="63" spans="1:7" ht="81.599999999999994" thickBot="1">
+      <c r="A63" s="1">
         <v>63</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E63" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F63" s="9" t="s">
+      <c r="E63" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="3">
         <v>211</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A64" s="2">
+    <row r="64" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A64" s="1">
         <v>64</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="E64" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="G64" s="17"/>
-    </row>
-    <row r="65" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A65" s="2">
+      <c r="G64" s="16"/>
+    </row>
+    <row r="65" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A65" s="1">
         <v>65</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E65" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F65" s="9" t="s">
+      <c r="E65" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="3">
         <v>280</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A66" s="2">
+    <row r="66" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A66" s="1">
         <v>66</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E66" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F66" s="11"/>
-      <c r="G66" s="17"/>
-    </row>
-    <row r="67" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A67" s="2">
+      <c r="E66" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" s="10"/>
+      <c r="G66" s="16"/>
+    </row>
+    <row r="67" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A67" s="1">
         <v>67</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="E67" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F67" s="13"/>
-      <c r="G67" s="15"/>
-    </row>
-    <row r="68" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A68" s="2">
+      <c r="F67" s="12"/>
+      <c r="G67" s="14"/>
+    </row>
+    <row r="68" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A68" s="1">
         <v>68</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E68" s="19" t="s">
+      <c r="E68" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G68" s="7">
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A69" s="2">
+    <row r="69" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A69" s="1">
         <v>69</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E69" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F69" s="13"/>
-      <c r="G69" s="15"/>
-    </row>
-    <row r="70" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A70" s="2">
+      <c r="E69" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" s="12"/>
+      <c r="G69" s="14"/>
+    </row>
+    <row r="70" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A70" s="1">
         <v>70</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E70" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F70" s="11"/>
-      <c r="G70" s="17"/>
-    </row>
-    <row r="71" spans="1:7" ht="75.75" thickBot="1">
-      <c r="A71" s="2">
+      <c r="E70" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" s="10"/>
+      <c r="G70" s="16"/>
+    </row>
+    <row r="71" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A71" s="1">
         <v>71</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E71" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F71" s="9" t="s">
+      <c r="E71" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="3">
         <v>231</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A72" s="2">
+    <row r="72" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A72" s="1">
         <v>72</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E72" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G72" s="7">
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A73" s="2">
+    <row r="73" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A73" s="1">
         <v>73</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E73" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F73" s="11"/>
-      <c r="G73" s="17"/>
-    </row>
-    <row r="74" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A74" s="2">
+      <c r="E73" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" s="10"/>
+      <c r="G73" s="16"/>
+    </row>
+    <row r="74" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A74" s="1">
         <v>74</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E74" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F74" s="9" t="s">
+      <c r="E74" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="3">
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A75" s="2">
+    <row r="75" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A75" s="1">
         <v>75</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="E75" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F75" s="7" t="s">
+      <c r="E75" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G75" s="7">
         <v>242</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A76" s="2">
+    <row r="76" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A76" s="1">
         <v>76</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E76" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F76" s="9" t="s">
+      <c r="E76" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G76" s="3">
         <v>236</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A77" s="2">
+    <row r="77" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A77" s="1">
         <v>77</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E77" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F77" s="7" t="s">
+      <c r="E77" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77" s="7">
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A78" s="2">
+    <row r="78" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A78" s="1">
         <v>78</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="E78" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F78" s="9" t="s">
+      <c r="E78" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78" s="3">
         <v>207</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A79" s="2">
+    <row r="79" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A79" s="1">
         <v>79</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E79" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F79" s="11"/>
-      <c r="G79" s="17"/>
-    </row>
-    <row r="80" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A80" s="2">
+      <c r="E79" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" s="10"/>
+      <c r="G79" s="16"/>
+    </row>
+    <row r="80" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A80" s="1">
         <v>80</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E80" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F80" s="9" t="s">
+      <c r="E80" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G80" s="3">
         <v>241</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A81" s="2">
+    <row r="81" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A81" s="1">
         <v>81</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E81" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F81" s="11"/>
-      <c r="G81" s="17"/>
-    </row>
-    <row r="82" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A82" s="2">
+      <c r="E81" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" s="10"/>
+      <c r="G81" s="16"/>
+    </row>
+    <row r="82" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A82" s="1">
         <v>82</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E82" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F82" s="9" t="s">
+      <c r="E82" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82" s="3">
         <v>236</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A83" s="2">
+    <row r="83" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A83" s="1">
         <v>83</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E83" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F83" s="7" t="s">
+      <c r="E83" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G83" s="7">
         <v>210</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A84" s="2">
+    <row r="84" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A84" s="1">
         <v>84</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E84" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F84" s="21" t="s">
+      <c r="E84" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G84" s="3">
         <v>246</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A85" s="2">
+    <row r="85" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A85" s="1">
         <v>85</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D85" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E85" s="19" t="s">
+      <c r="E85" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G85" s="7">
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A86" s="2">
+    <row r="86" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A86" s="1">
         <v>86</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="2">
         <v>1</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E86" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F86" s="9" t="s">
+      <c r="E86" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G86" s="3">
         <v>262</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A87" s="2">
+    <row r="87" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A87" s="1">
         <v>87</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="E87" s="19" t="s">
+      <c r="E87" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="F87" s="11"/>
-      <c r="G87" s="17"/>
-    </row>
-    <row r="88" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A88" s="2">
+      <c r="F87" s="10"/>
+      <c r="G87" s="16"/>
+    </row>
+    <row r="88" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A88" s="1">
         <v>88</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="18" t="s">
+      <c r="E88" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="F88" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G88" s="3">
         <v>107</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A89" s="2">
+    <row r="89" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A89" s="1">
         <v>89</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E89" s="19" t="s">
+      <c r="E89" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F89" s="11"/>
-      <c r="G89" s="17"/>
-    </row>
-    <row r="90" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A90" s="2">
+      <c r="F89" s="10"/>
+      <c r="G89" s="16"/>
+    </row>
+    <row r="90" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A90" s="1">
         <v>90</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E90" s="18" t="s">
+      <c r="E90" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F90" s="9" t="s">
+      <c r="F90" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G90" s="4">
+      <c r="G90" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A91" s="2">
+    <row r="91" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A91" s="1">
         <v>91</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E91" s="19" t="s">
+      <c r="E91" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F91" s="11"/>
-      <c r="G91" s="17"/>
-    </row>
-    <row r="92" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A92" s="2">
+      <c r="F91" s="10"/>
+      <c r="G91" s="16"/>
+    </row>
+    <row r="92" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A92" s="1">
         <v>92</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E92" s="18" t="s">
+      <c r="E92" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F92" s="13" t="s">
+      <c r="F92" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G92" s="4">
+      <c r="G92" s="3">
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A93" s="2">
+    <row r="93" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A93" s="1">
         <v>93</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E93" s="19" t="s">
+      <c r="E93" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G93" s="8">
+      <c r="G93" s="7">
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A94" s="2">
+    <row r="94" spans="1:7" ht="33" thickBot="1">
+      <c r="A94" s="1">
         <v>94</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="2">
         <v>1</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E94" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F94" s="9" t="s">
+      <c r="E94" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="G94" s="4">
+      <c r="G94" s="3">
         <v>237</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A95" s="2">
+    <row r="95" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A95" s="1">
         <v>95</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E95" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F95" s="7" t="s">
+      <c r="E95" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="G95" s="8">
+      <c r="G95" s="7">
         <v>261</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A96" s="2">
+    <row r="96" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A96" s="1">
         <v>96</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E96" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F96" s="9" t="s">
+      <c r="E96" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G96" s="4">
+      <c r="G96" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="75.75" thickBot="1">
-      <c r="A97" s="2">
+    <row r="97" spans="1:7" ht="81.599999999999994" thickBot="1">
+      <c r="A97" s="1">
         <v>97</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E97" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F97" s="7" t="s">
+      <c r="E97" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="G97" s="8">
+      <c r="G97" s="7">
         <v>264</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A98" s="2">
+    <row r="98" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A98" s="1">
         <v>98</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E98" s="18" t="s">
+      <c r="E98" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F98" s="13"/>
-      <c r="G98" s="15"/>
-    </row>
-    <row r="99" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A99" s="2">
+      <c r="F98" s="12"/>
+      <c r="G98" s="14"/>
+    </row>
+    <row r="99" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A99" s="1">
         <v>99</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D99" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E99" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F99" s="11"/>
-      <c r="G99" s="17"/>
-    </row>
-    <row r="100" spans="1:7" ht="75.75" thickBot="1">
-      <c r="A100" s="2">
+      <c r="E99" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" s="10"/>
+      <c r="G99" s="16"/>
+    </row>
+    <row r="100" spans="1:7" ht="81.599999999999994" thickBot="1">
+      <c r="A100" s="1">
         <v>100</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E100" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F100" s="9" t="s">
+      <c r="E100" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="G100" s="4">
+      <c r="G100" s="3">
         <v>253</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A101" s="2">
+    <row r="101" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A101" s="1">
         <v>101</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E101" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F101" s="7" t="s">
+      <c r="E101" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G101" s="8">
+      <c r="G101" s="7">
         <v>240</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A102" s="2">
+    <row r="102" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A102" s="1">
         <v>102</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E102" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F102" s="9" t="s">
+      <c r="E102" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="G102" s="4">
+      <c r="G102" s="3">
         <v>243</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A103" s="2">
+    <row r="103" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A103" s="1">
         <v>103</v>
       </c>
-      <c r="B103" s="5">
+      <c r="B103" s="4">
         <v>1</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C103" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D103" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E103" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F103" s="7" t="s">
+      <c r="E103" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F103" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="G103" s="8">
+      <c r="G103" s="7">
         <v>237</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A104" s="2">
+    <row r="104" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A104" s="1">
         <v>104</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E104" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F104" s="9" t="s">
+      <c r="E104" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="G104" s="4">
+      <c r="G104" s="3">
         <v>239</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A105" s="2">
+    <row r="105" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A105" s="1">
         <v>105</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E105" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F105" s="11"/>
-      <c r="G105" s="17"/>
-    </row>
-    <row r="106" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A106" s="2">
+      <c r="E105" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" s="10"/>
+      <c r="G105" s="16"/>
+    </row>
+    <row r="106" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A106" s="1">
         <v>106</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E106" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F106" s="13"/>
-      <c r="G106" s="15"/>
-    </row>
-    <row r="107" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A107" s="2">
+      <c r="E106" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F106" s="12"/>
+      <c r="G106" s="14"/>
+    </row>
+    <row r="107" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A107" s="1">
         <v>107</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D107" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E107" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F107" s="7" t="s">
+      <c r="E107" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F107" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G107" s="8">
+      <c r="G107" s="7">
         <v>227</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="27" thickBot="1">
-      <c r="A108" s="2">
+    <row r="108" spans="1:7" ht="28.2" thickBot="1">
+      <c r="A108" s="1">
         <v>108</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C108" s="15" t="s">
+      <c r="C108" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D108" s="15" t="s">
+      <c r="D108" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="E108" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F108" s="13" t="s">
+      <c r="E108" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="G108" s="4">
+      <c r="G108" s="3">
         <v>225</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A109" s="2">
+    <row r="109" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A109" s="1">
         <v>109</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C109" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="D109" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E109" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F109" s="22" t="s">
+      <c r="E109" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F109" s="20" t="s">
         <v>458</v>
       </c>
-      <c r="G109" s="8">
+      <c r="G109" s="7">
         <v>225</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A110" s="2">
+    <row r="110" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A110" s="1">
         <v>110</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E110" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F110" s="21" t="s">
+      <c r="E110" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F110" s="19" t="s">
         <v>459</v>
       </c>
-      <c r="G110" s="4">
+      <c r="G110" s="3">
         <v>205</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A111" s="2">
+    <row r="111" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A111" s="1">
         <v>111</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="D111" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E111" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F111" s="10" t="s">
+      <c r="E111" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F111" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="G111" s="8">
+      <c r="G111" s="7">
         <v>245</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A112" s="2">
+    <row r="112" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A112" s="1">
         <v>112</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E112" s="18" t="s">
+      <c r="E112" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F112" s="9" t="s">
+      <c r="F112" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G112" s="4">
+      <c r="G112" s="3">
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="75.75" thickBot="1">
-      <c r="A113" s="2">
+    <row r="113" spans="1:7" ht="81.599999999999994" thickBot="1">
+      <c r="A113" s="1">
         <v>113</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C113" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D113" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E113" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F113" s="10" t="s">
+      <c r="E113" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F113" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="G113" s="8">
+      <c r="G113" s="7">
         <v>278</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A114" s="2">
+    <row r="114" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A114" s="1">
         <v>114</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E114" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F114" s="13"/>
-      <c r="G114" s="15"/>
-    </row>
-    <row r="115" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A115" s="2">
+      <c r="E114" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F114" s="12"/>
+      <c r="G114" s="14"/>
+    </row>
+    <row r="115" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A115" s="1">
         <v>115</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="C115" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D115" s="6" t="s">
+      <c r="D115" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E115" s="19" t="s">
+      <c r="E115" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F115" s="10" t="s">
+      <c r="F115" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G115" s="8">
+      <c r="G115" s="7">
         <v>120</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A116" s="2">
+    <row r="116" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A116" s="1">
         <v>116</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E116" s="18" t="s">
+      <c r="E116" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F116" s="13"/>
-      <c r="G116" s="15"/>
-    </row>
-    <row r="117" spans="1:7" ht="75.75" thickBot="1">
-      <c r="A117" s="2">
+      <c r="F116" s="12"/>
+      <c r="G116" s="14"/>
+    </row>
+    <row r="117" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A117" s="1">
         <v>117</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D117" s="6" t="s">
+      <c r="D117" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E117" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F117" s="10" t="s">
+      <c r="E117" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F117" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G117" s="8">
+      <c r="G117" s="7">
         <v>208</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A118" s="2">
+    <row r="118" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A118" s="1">
         <v>118</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E118" s="18" t="s">
+      <c r="E118" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F118" s="9" t="s">
+      <c r="F118" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G118" s="4">
+      <c r="G118" s="3">
         <v>124</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A119" s="2">
+    <row r="119" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A119" s="1">
         <v>119</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C119" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D119" s="6" t="s">
+      <c r="D119" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E119" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F119" s="12"/>
-      <c r="G119" s="17"/>
-    </row>
-    <row r="120" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A120" s="2">
+      <c r="E119" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F119" s="11"/>
+      <c r="G119" s="16"/>
+    </row>
+    <row r="120" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A120" s="1">
         <v>120</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E120" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F120" s="9" t="s">
+      <c r="E120" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F120" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="G120" s="4">
+      <c r="G120" s="3">
         <v>254</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A121" s="2">
+    <row r="121" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A121" s="1">
         <v>121</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="C121" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="D121" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="E121" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F121" s="10" t="s">
+      <c r="E121" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F121" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="G121" s="17"/>
-    </row>
-    <row r="122" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A122" s="2">
+      <c r="G121" s="16"/>
+    </row>
+    <row r="122" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A122" s="1">
         <v>122</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E122" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F122" s="9" t="s">
+      <c r="E122" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F122" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="G122" s="4">
+      <c r="G122" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A123" s="2">
+    <row r="123" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A123" s="1">
         <v>123</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="C123" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D123" s="6" t="s">
+      <c r="D123" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E123" s="19" t="s">
+      <c r="E123" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F123" s="12"/>
-      <c r="G123" s="17"/>
-    </row>
-    <row r="124" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A124" s="2">
+      <c r="F123" s="11"/>
+      <c r="G123" s="16"/>
+    </row>
+    <row r="124" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A124" s="1">
         <v>124</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E124" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F124" s="9" t="s">
+      <c r="E124" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F124" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G124" s="4">
+      <c r="G124" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A125" s="2">
+    <row r="125" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A125" s="1">
         <v>125</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="C125" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D125" s="6" t="s">
+      <c r="D125" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E125" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F125" s="10" t="s">
+      <c r="E125" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F125" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G125" s="8">
+      <c r="G125" s="7">
         <v>224</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="75.75" thickBot="1">
-      <c r="A126" s="2">
+    <row r="126" spans="1:7" ht="81.599999999999994" thickBot="1">
+      <c r="A126" s="1">
         <v>126</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E126" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F126" s="9" t="s">
+      <c r="E126" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F126" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G126" s="4">
+      <c r="G126" s="3">
         <v>209</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A127" s="2">
+    <row r="127" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A127" s="1">
         <v>127</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="C127" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D127" s="6" t="s">
+      <c r="D127" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E127" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F127" s="10" t="s">
+      <c r="E127" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F127" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="G127" s="8">
+      <c r="G127" s="7">
         <v>244</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A128" s="2">
+    <row r="128" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A128" s="1">
         <v>128</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E128" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F128" s="9" t="s">
+      <c r="E128" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F128" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="G128" s="4">
+      <c r="G128" s="3">
         <v>251</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A129" s="2">
+    <row r="129" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A129" s="1">
         <v>129</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="C129" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D129" s="6" t="s">
+      <c r="D129" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E129" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F129" s="10" t="s">
+      <c r="E129" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F129" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G129" s="8">
+      <c r="G129" s="7">
         <v>201</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A130" s="2">
+    <row r="130" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A130" s="1">
         <v>130</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D130" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E130" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F130" s="9" t="s">
+      <c r="E130" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F130" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G130" s="4">
+      <c r="G130" s="3">
         <v>230</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A131" s="2">
+    <row r="131" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A131" s="1">
         <v>131</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C131" s="6" t="s">
+      <c r="C131" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D131" s="6" t="s">
+      <c r="D131" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E131" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F131" s="12"/>
-      <c r="G131" s="17"/>
-    </row>
-    <row r="132" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A132" s="2">
+      <c r="E131" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F131" s="11"/>
+      <c r="G131" s="16"/>
+    </row>
+    <row r="132" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A132" s="1">
         <v>132</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E132" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F132" s="9" t="s">
+      <c r="E132" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F132" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="G132" s="4">
+      <c r="G132" s="3">
         <v>216</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A133" s="2">
+    <row r="133" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A133" s="1">
         <v>133</v>
       </c>
-      <c r="B133" s="6">
+      <c r="B133" s="5">
         <v>1</v>
       </c>
-      <c r="C133" s="6" t="s">
+      <c r="C133" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D133" s="6" t="s">
+      <c r="D133" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E133" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F133" s="10" t="s">
+      <c r="E133" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F133" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="G133" s="8">
+      <c r="G133" s="7">
         <v>262</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A134" s="2">
+    <row r="134" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A134" s="1">
         <v>134</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E134" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F134" s="9" t="s">
+      <c r="E134" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F134" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G134" s="4">
+      <c r="G134" s="3">
         <v>226</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A135" s="2">
+    <row r="135" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A135" s="1">
         <v>135</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C135" s="6" t="s">
+      <c r="C135" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D135" s="6" t="s">
+      <c r="D135" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="E135" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F135" s="10" t="s">
+      <c r="E135" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F135" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="G135" s="8">
+      <c r="G135" s="7">
         <v>266</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A136" s="2">
+    <row r="136" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A136" s="1">
         <v>136</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E136" s="18" t="s">
+      <c r="E136" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F136" s="9" t="s">
+      <c r="F136" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G136" s="4">
+      <c r="G136" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A137" s="2">
+    <row r="137" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A137" s="1">
         <v>137</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="C137" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D137" s="6" t="s">
+      <c r="D137" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E137" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F137" s="10" t="s">
+      <c r="E137" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F137" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G137" s="8">
+      <c r="G137" s="7">
         <v>233</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A138" s="2">
+    <row r="138" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A138" s="1">
         <v>138</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D138" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E138" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F138" s="13"/>
-      <c r="G138" s="15"/>
-    </row>
-    <row r="139" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A139" s="2">
+      <c r="E138" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F138" s="12"/>
+      <c r="G138" s="14"/>
+    </row>
+    <row r="139" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A139" s="1">
         <v>139</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="C139" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D139" s="6" t="s">
+      <c r="D139" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E139" s="19" t="s">
+      <c r="E139" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F139" s="10" t="s">
+      <c r="F139" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G139" s="8">
+      <c r="G139" s="7">
         <v>109</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A140" s="2">
+    <row r="140" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A140" s="1">
         <v>140</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E140" s="18" t="s">
+      <c r="E140" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F140" s="13"/>
-      <c r="G140" s="15"/>
-    </row>
-    <row r="141" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A141" s="2">
+      <c r="F140" s="12"/>
+      <c r="G140" s="14"/>
+    </row>
+    <row r="141" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A141" s="1">
         <v>141</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="C141" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D141" s="6" t="s">
+      <c r="D141" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="E141" s="19" t="s">
+      <c r="E141" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F141" s="12"/>
-      <c r="G141" s="17"/>
-    </row>
-    <row r="142" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A142" s="2">
+      <c r="F141" s="11"/>
+      <c r="G141" s="16"/>
+    </row>
+    <row r="142" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A142" s="1">
         <v>142</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D142" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E142" s="18" t="s">
+      <c r="E142" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F142" s="9" t="s">
+      <c r="F142" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G142" s="4">
+      <c r="G142" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A143" s="2">
+    <row r="143" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A143" s="1">
         <v>143</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="C143" s="6" t="s">
+      <c r="C143" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D143" s="6" t="s">
+      <c r="D143" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="E143" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F143" s="10" t="s">
+      <c r="E143" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F143" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="G143" s="17"/>
-    </row>
-    <row r="144" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A144" s="2">
+      <c r="G143" s="16"/>
+    </row>
+    <row r="144" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A144" s="1">
         <v>144</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D144" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E144" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F144" s="13"/>
-      <c r="G144" s="15"/>
-    </row>
-    <row r="145" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A145" s="2">
+      <c r="E144" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F144" s="12"/>
+      <c r="G144" s="14"/>
+    </row>
+    <row r="145" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A145" s="1">
         <v>145</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="C145" s="6" t="s">
+      <c r="C145" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D145" s="6" t="s">
+      <c r="D145" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E145" s="19" t="s">
+      <c r="E145" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F145" s="12"/>
-      <c r="G145" s="17"/>
-    </row>
-    <row r="146" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A146" s="2">
+      <c r="F145" s="11"/>
+      <c r="G145" s="16"/>
+    </row>
+    <row r="146" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A146" s="1">
         <v>146</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="D146" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E146" s="18" t="s">
+      <c r="E146" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F146" s="9" t="s">
+      <c r="F146" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="G146" s="4">
+      <c r="G146" s="3">
         <v>257</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A147" s="2">
+    <row r="147" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A147" s="1">
         <v>147</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C147" s="6" t="s">
+      <c r="C147" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D147" s="6" t="s">
+      <c r="D147" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="E147" s="19" t="s">
+      <c r="E147" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F147" s="12"/>
-      <c r="G147" s="17"/>
-    </row>
-    <row r="148" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A148" s="2">
+      <c r="F147" s="11"/>
+      <c r="G147" s="16"/>
+    </row>
+    <row r="148" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A148" s="1">
         <v>148</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D148" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E148" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F148" s="9" t="s">
+      <c r="E148" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F148" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G148" s="4">
+      <c r="G148" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A149" s="2">
+    <row r="149" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A149" s="1">
         <v>149</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C149" s="6" t="s">
+      <c r="C149" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D149" s="6" t="s">
+      <c r="D149" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E149" s="19" t="s">
+      <c r="E149" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F149" s="10" t="s">
+      <c r="F149" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G149" s="8">
+      <c r="G149" s="7">
         <v>112</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A150" s="2">
+    <row r="150" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A150" s="1">
         <v>150</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D150" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E150" s="18" t="s">
+      <c r="E150" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F150" s="9" t="s">
+      <c r="F150" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G150" s="4">
+      <c r="G150" s="3">
         <v>121</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A151" s="2">
+    <row r="151" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A151" s="1">
         <v>151</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="C151" s="6" t="s">
+      <c r="C151" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D151" s="6" t="s">
+      <c r="D151" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="E151" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F151" s="10" t="s">
+      <c r="E151" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F151" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="G151" s="17"/>
-    </row>
-    <row r="152" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A152" s="2">
+      <c r="G151" s="16"/>
+    </row>
+    <row r="152" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A152" s="1">
         <v>152</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="D152" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E152" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F152" s="9" t="s">
+      <c r="E152" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F152" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="G152" s="15"/>
-    </row>
-    <row r="153" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A153" s="2">
+      <c r="G152" s="14"/>
+    </row>
+    <row r="153" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A153" s="1">
         <v>153</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="C153" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D153" s="6" t="s">
+      <c r="D153" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="E153" s="19" t="s">
+      <c r="E153" s="18" t="s">
         <v>445</v>
       </c>
-      <c r="F153" s="10" t="s">
+      <c r="F153" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="G153" s="17"/>
-    </row>
-    <row r="154" spans="1:7" ht="61.5" thickBot="1">
-      <c r="A154" s="2">
+      <c r="G153" s="16"/>
+    </row>
+    <row r="154" spans="1:7" ht="61.8" thickBot="1">
+      <c r="A154" s="1">
         <v>154</v>
       </c>
-      <c r="B154" s="14" t="s">
+      <c r="B154" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="D154" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E154" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F154" s="9" t="s">
+      <c r="E154" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F154" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G154" s="4">
+      <c r="G154" s="3">
         <v>212</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A155" s="2">
+    <row r="155" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A155" s="1">
         <v>155</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C155" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D155" s="6" t="s">
+      <c r="D155" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E155" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F155" s="10" t="s">
+      <c r="E155" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F155" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G155" s="8">
+      <c r="G155" s="7">
         <v>205</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A156" s="2">
+    <row r="156" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A156" s="1">
         <v>156</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D156" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E156" s="18" t="s">
+      <c r="E156" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F156" s="9" t="s">
+      <c r="F156" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G156" s="4">
+      <c r="G156" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A157" s="2">
+    <row r="157" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A157" s="1">
         <v>157</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C157" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D157" s="6" t="s">
+      <c r="D157" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E157" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F157" s="10" t="s">
+      <c r="E157" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F157" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G157" s="8">
+      <c r="G157" s="7">
         <v>228</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A158" s="2">
+    <row r="158" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A158" s="1">
         <v>158</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="2">
         <v>1</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="D158" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E158" s="18" t="s">
+      <c r="E158" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F158" s="13"/>
-      <c r="G158" s="15"/>
-    </row>
-    <row r="159" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A159" s="2">
+      <c r="F158" s="12"/>
+      <c r="G158" s="14"/>
+    </row>
+    <row r="159" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A159" s="1">
         <v>159</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C159" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D159" s="6" t="s">
+      <c r="D159" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E159" s="19" t="s">
+      <c r="E159" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F159" s="12"/>
-      <c r="G159" s="17"/>
-    </row>
-    <row r="160" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A160" s="2">
+      <c r="F159" s="11"/>
+      <c r="G159" s="16"/>
+    </row>
+    <row r="160" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A160" s="1">
         <v>160</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="2">
         <v>1</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="D160" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E160" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F160" s="9" t="s">
+      <c r="E160" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F160" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="G160" s="15"/>
-    </row>
-    <row r="161" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A161" s="2">
+      <c r="G160" s="14"/>
+    </row>
+    <row r="161" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A161" s="1">
         <v>161</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B161" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="C161" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D161" s="6" t="s">
+      <c r="D161" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E161" s="19" t="s">
+      <c r="E161" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F161" s="10" t="s">
+      <c r="F161" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G161" s="8">
+      <c r="G161" s="7">
         <v>121</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A162" s="2">
+    <row r="162" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A162" s="1">
         <v>162</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D162" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E162" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F162" s="9" t="s">
+      <c r="E162" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F162" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="G162" s="4">
+      <c r="G162" s="3">
         <v>255</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A163" s="2">
+    <row r="163" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A163" s="1">
         <v>163</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="C163" s="6" t="s">
+      <c r="C163" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D163" s="6" t="s">
+      <c r="D163" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="E163" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F163" s="10" t="s">
+      <c r="E163" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F163" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="G163" s="8">
+      <c r="G163" s="7">
         <v>275</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A164" s="2">
+    <row r="164" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A164" s="1">
         <v>164</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="D164" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E164" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F164" s="13"/>
-      <c r="G164" s="15"/>
-    </row>
-    <row r="165" spans="1:7" ht="75.75" thickBot="1">
-      <c r="A165" s="2">
+      <c r="E164" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F164" s="12"/>
+      <c r="G164" s="14"/>
+    </row>
+    <row r="165" spans="1:7" ht="81.599999999999994" thickBot="1">
+      <c r="A165" s="1">
         <v>165</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C165" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D165" s="6" t="s">
+      <c r="D165" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E165" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F165" s="10" t="s">
+      <c r="E165" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F165" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="G165" s="8">
+      <c r="G165" s="7">
         <v>253</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A166" s="2">
+    <row r="166" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A166" s="1">
         <v>166</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D166" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E166" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F166" s="9" t="s">
+      <c r="E166" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F166" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="G166" s="4">
+      <c r="G166" s="3">
         <v>248</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A167" s="2">
+    <row r="167" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A167" s="1">
         <v>167</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C167" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D167" s="6" t="s">
+      <c r="D167" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E167" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F167" s="12"/>
-      <c r="G167" s="17"/>
-    </row>
-    <row r="168" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A168" s="2">
+      <c r="E167" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F167" s="11"/>
+      <c r="G167" s="16"/>
+    </row>
+    <row r="168" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A168" s="1">
         <v>168</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="D168" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E168" s="18" t="s">
+      <c r="E168" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F168" s="9" t="s">
+      <c r="F168" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G168" s="4">
+      <c r="G168" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A169" s="2">
+    <row r="169" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A169" s="1">
         <v>169</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B169" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C169" s="6" t="s">
+      <c r="C169" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D169" s="6" t="s">
+      <c r="D169" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E169" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F169" s="10" t="s">
+      <c r="E169" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F169" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G169" s="8">
+      <c r="G169" s="7">
         <v>202</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A170" s="2">
+    <row r="170" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A170" s="1">
         <v>170</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="D170" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E170" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F170" s="13"/>
-      <c r="G170" s="15"/>
-    </row>
-    <row r="171" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A171" s="2">
+      <c r="E170" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F170" s="12"/>
+      <c r="G170" s="14"/>
+    </row>
+    <row r="171" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A171" s="1">
         <v>171</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="C171" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D171" s="6" t="s">
+      <c r="D171" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E171" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F171" s="12"/>
-      <c r="G171" s="17"/>
-    </row>
-    <row r="172" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A172" s="2">
+      <c r="E171" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F171" s="11"/>
+      <c r="G171" s="16"/>
+    </row>
+    <row r="172" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A172" s="1">
         <v>172</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="D172" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E172" s="19" t="s">
+      <c r="E172" s="18" t="s">
         <v>445</v>
       </c>
-      <c r="F172" s="13"/>
-      <c r="G172" s="15"/>
-    </row>
-    <row r="173" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A173" s="2">
+      <c r="F172" s="12"/>
+      <c r="G172" s="14"/>
+    </row>
+    <row r="173" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A173" s="1">
         <v>173</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="C173" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D173" s="6" t="s">
+      <c r="D173" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E173" s="19" t="s">
+      <c r="E173" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F173" s="12"/>
-      <c r="G173" s="17"/>
-    </row>
-    <row r="174" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A174" s="2">
+      <c r="F173" s="11"/>
+      <c r="G173" s="16"/>
+    </row>
+    <row r="174" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A174" s="1">
         <v>174</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174" s="2">
         <v>1</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D174" s="3" t="s">
+      <c r="D174" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E174" s="18" t="s">
+      <c r="E174" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F174" s="9" t="s">
+      <c r="F174" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G174" s="4">
+      <c r="G174" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A175" s="2">
+    <row r="175" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A175" s="1">
         <v>175</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="C175" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D175" s="6" t="s">
+      <c r="D175" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E175" s="19" t="s">
+      <c r="E175" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F175" s="12" t="s">
+      <c r="F175" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G175" s="8">
+      <c r="G175" s="7">
         <v>115</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A176" s="2">
+    <row r="176" spans="1:7" ht="33" thickBot="1">
+      <c r="A176" s="1">
         <v>176</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="D176" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E176" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F176" s="9" t="s">
+      <c r="E176" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F176" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="G176" s="4">
+      <c r="G176" s="3">
         <v>259</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A177" s="2">
+    <row r="177" spans="1:7" ht="33" thickBot="1">
+      <c r="A177" s="1">
         <v>177</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B177" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="C177" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D177" s="6" t="s">
+      <c r="D177" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E177" s="19" t="s">
+      <c r="E177" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F177" s="12"/>
-      <c r="G177" s="8">
+      <c r="F177" s="11"/>
+      <c r="G177" s="7">
         <v>201</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A178" s="2">
+    <row r="178" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A178" s="1">
         <v>178</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="D178" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E178" s="18" t="s">
+      <c r="E178" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F178" s="26" t="s">
+      <c r="F178" s="24" t="s">
         <v>461</v>
       </c>
-      <c r="G178" s="4">
+      <c r="G178" s="3">
         <v>301</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A179" s="2">
+    <row r="179" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A179" s="1">
         <v>179</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B179" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="C179" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D179" s="6" t="s">
+      <c r="D179" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E179" s="19" t="s">
+      <c r="E179" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F179" s="27" t="s">
+      <c r="F179" s="25" t="s">
         <v>460</v>
       </c>
-      <c r="G179" s="8">
+      <c r="G179" s="7">
         <v>302</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A180" s="2">
+    <row r="180" spans="1:7" ht="33" thickBot="1">
+      <c r="A180" s="1">
         <v>180</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D180" s="3" t="s">
+      <c r="D180" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E180" s="18" t="s">
+      <c r="E180" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F180" s="26"/>
-      <c r="G180" s="4" t="s">
+      <c r="F180" s="24"/>
+      <c r="G180" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A181" s="2">
+    <row r="181" spans="1:7" ht="33" thickBot="1">
+      <c r="A181" s="1">
         <v>181</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B181" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C181" s="6" t="s">
+      <c r="C181" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D181" s="6" t="s">
+      <c r="D181" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E181" s="19" t="s">
+      <c r="E181" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F181" s="26" t="s">
+      <c r="F181" s="24" t="s">
         <v>462</v>
       </c>
-      <c r="G181" s="8">
+      <c r="G181" s="7">
         <v>309</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A182" s="2">
+    <row r="182" spans="1:7" ht="33" thickBot="1">
+      <c r="A182" s="1">
         <v>182</v>
       </c>
-      <c r="B182" s="14" t="s">
+      <c r="B182" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D182" s="3" t="s">
+      <c r="D182" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E182" s="18" t="s">
+      <c r="E182" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F182" s="26" t="s">
+      <c r="F182" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="G182" s="4">
+      <c r="G182" s="3">
         <v>308</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A183" s="2">
+    <row r="183" spans="1:7" ht="33" thickBot="1">
+      <c r="A183" s="1">
         <v>183</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B183" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C183" s="6" t="s">
+      <c r="C183" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D183" s="6" t="s">
+      <c r="D183" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E183" s="19" t="s">
+      <c r="E183" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F183" s="27" t="s">
+      <c r="F183" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="G183" s="8">
+      <c r="G183" s="7">
         <v>307</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A184" s="2">
+    <row r="184" spans="1:7" ht="33" thickBot="1">
+      <c r="A184" s="1">
         <v>184</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="D184" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E184" s="18" t="s">
+      <c r="E184" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F184" s="26" t="s">
+      <c r="F184" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="G184" s="4">
+      <c r="G184" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A185" s="2">
+    <row r="185" spans="1:7" ht="33" thickBot="1">
+      <c r="A185" s="1">
         <v>185</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="B185" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C185" s="6" t="s">
+      <c r="C185" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D185" s="6" t="s">
+      <c r="D185" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E185" s="19" t="s">
+      <c r="E185" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F185" s="12"/>
-      <c r="G185" s="8">
+      <c r="F185" s="11"/>
+      <c r="G185" s="7">
         <v>202</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A186" s="2">
+    <row r="186" spans="1:7" ht="33" thickBot="1">
+      <c r="A186" s="1">
         <v>186</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="D186" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="E186" s="18" t="s">
+      <c r="E186" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F186" s="13"/>
-      <c r="G186" s="4">
+      <c r="F186" s="12"/>
+      <c r="G186" s="3">
         <v>24754069</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A187" s="2">
+    <row r="187" spans="1:7" ht="33" thickBot="1">
+      <c r="A187" s="1">
         <v>187</v>
       </c>
-      <c r="B187" s="5" t="s">
+      <c r="B187" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C187" s="6" t="s">
+      <c r="C187" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D187" s="6" t="s">
+      <c r="D187" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E187" s="19" t="s">
+      <c r="E187" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F187" s="27"/>
-      <c r="G187" s="8">
+      <c r="F187" s="25"/>
+      <c r="G187" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A188" s="2">
+    <row r="188" spans="1:7" ht="33" thickBot="1">
+      <c r="A188" s="1">
         <v>188</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C188" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D188" s="3" t="s">
+      <c r="D188" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E188" s="18" t="s">
+      <c r="E188" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F188" s="13"/>
-      <c r="G188" s="4">
+      <c r="F188" s="12"/>
+      <c r="G188" s="3">
         <v>304</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A189" s="2">
+    <row r="189" spans="1:7" ht="33" thickBot="1">
+      <c r="A189" s="1">
         <v>189</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C189" s="6" t="s">
+      <c r="C189" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D189" s="6" t="s">
+      <c r="D189" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="E189" s="19" t="s">
+      <c r="E189" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F189" s="27" t="s">
+      <c r="F189" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="G189" s="8">
+      <c r="G189" s="7">
         <v>304</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A190" s="2">
+    <row r="190" spans="1:7" ht="33" thickBot="1">
+      <c r="A190" s="1">
         <v>190</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C190" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D190" s="3" t="s">
+      <c r="D190" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E190" s="18" t="s">
+      <c r="E190" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F190" s="26" t="s">
+      <c r="F190" s="24" t="s">
         <v>467</v>
       </c>
-      <c r="G190" s="4">
+      <c r="G190" s="3">
         <v>305</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A191" s="2">
+    <row r="191" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A191" s="1">
         <v>191</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="B191" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C191" s="6" t="s">
+      <c r="C191" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D191" s="6" t="s">
+      <c r="D191" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E191" s="19" t="s">
+      <c r="E191" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F191" s="27" t="s">
+      <c r="F191" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="G191" s="8">
+      <c r="G191" s="7">
         <v>317</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A192" s="2">
+    <row r="192" spans="1:7" ht="33" thickBot="1">
+      <c r="A192" s="1">
         <v>192</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C192" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D192" s="3" t="s">
+      <c r="D192" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E192" s="18" t="s">
+      <c r="E192" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F192" s="13"/>
-      <c r="G192" s="4">
+      <c r="F192" s="12"/>
+      <c r="G192" s="3">
         <v>316</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A193" s="2">
+    <row r="193" spans="1:7" ht="33" thickBot="1">
+      <c r="A193" s="1">
         <v>193</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="B193" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C193" s="6" t="s">
+      <c r="C193" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D193" s="6" t="s">
+      <c r="D193" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E193" s="19" t="s">
+      <c r="E193" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F193" s="12"/>
-      <c r="G193" s="8">
+      <c r="F193" s="11"/>
+      <c r="G193" s="7">
         <v>315</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="75.75" thickBot="1">
-      <c r="A194" s="2">
+    <row r="194" spans="1:7" ht="81.599999999999994" thickBot="1">
+      <c r="A194" s="1">
         <v>194</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="C194" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D194" s="3" t="s">
+      <c r="D194" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E194" s="18" t="s">
+      <c r="E194" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F194" s="13"/>
-      <c r="G194" s="4">
+      <c r="F194" s="12"/>
+      <c r="G194" s="3">
         <v>407</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A195" s="2">
+    <row r="195" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A195" s="1">
         <v>195</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="B195" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C195" s="6" t="s">
+      <c r="C195" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D195" s="6" t="s">
+      <c r="D195" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="E195" s="19" t="s">
+      <c r="E195" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F195" s="12"/>
-      <c r="G195" s="8">
+      <c r="F195" s="11"/>
+      <c r="G195" s="7">
         <v>406</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A196" s="2">
+    <row r="196" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A196" s="1">
         <v>196</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C196" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D196" s="3" t="s">
+      <c r="D196" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E196" s="18" t="s">
+      <c r="E196" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F196" s="13"/>
-      <c r="G196" s="4">
+      <c r="F196" s="12"/>
+      <c r="G196" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A197" s="2">
+    <row r="197" spans="1:7" ht="33" thickBot="1">
+      <c r="A197" s="1">
         <v>197</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="B197" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C197" s="6" t="s">
+      <c r="C197" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="D197" s="6" t="s">
+      <c r="D197" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E197" s="19" t="s">
+      <c r="E197" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F197" s="12"/>
-      <c r="G197" s="8">
+      <c r="F197" s="11"/>
+      <c r="G197" s="7">
         <v>400</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A198" s="2">
+    <row r="198" spans="1:7" ht="33" thickBot="1">
+      <c r="A198" s="1">
         <v>198</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C198" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D198" s="3" t="s">
+      <c r="D198" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E198" s="18" t="s">
+      <c r="E198" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F198" s="13"/>
-      <c r="G198" s="4">
+      <c r="F198" s="12"/>
+      <c r="G198" s="3">
         <v>401</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A199" s="2">
+    <row r="199" spans="1:7" ht="33" thickBot="1">
+      <c r="A199" s="1">
         <v>199</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B199" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C199" s="6" t="s">
+      <c r="C199" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D199" s="6" t="s">
+      <c r="D199" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="E199" s="19" t="s">
+      <c r="E199" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F199" s="12"/>
-      <c r="G199" s="8">
+      <c r="F199" s="11"/>
+      <c r="G199" s="7">
         <v>404</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="75.75" thickBot="1">
-      <c r="A200" s="2">
+    <row r="200" spans="1:7" ht="65.400000000000006" thickBot="1">
+      <c r="A200" s="1">
         <v>200</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="C200" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D200" s="3" t="s">
+      <c r="D200" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E200" s="18" t="s">
+      <c r="E200" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F200" s="13"/>
-      <c r="G200" s="4">
+      <c r="F200" s="12"/>
+      <c r="G200" s="3">
         <v>402</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A201" s="2">
+    <row r="201" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A201" s="1">
         <v>201</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="B201" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C201" s="6" t="s">
+      <c r="C201" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="D201" s="6" t="s">
+      <c r="D201" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="E201" s="19" t="s">
+      <c r="E201" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F201" s="12"/>
-      <c r="G201" s="8">
+      <c r="F201" s="11"/>
+      <c r="G201" s="7">
         <v>403</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A202" s="2">
+    <row r="202" spans="1:7" ht="33" thickBot="1">
+      <c r="A202" s="1">
         <v>202</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="C202" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="D202" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E202" s="18" t="s">
+      <c r="E202" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F202" s="13"/>
-      <c r="G202" s="4">
+      <c r="F202" s="12"/>
+      <c r="G202" s="3">
         <v>405</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A203" s="2">
+    <row r="203" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A203" s="1">
         <v>203</v>
       </c>
-      <c r="B203" s="6" t="s">
+      <c r="B203" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C203" s="6" t="s">
+      <c r="C203" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D203" s="6" t="s">
+      <c r="D203" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="E203" s="19" t="s">
+      <c r="E203" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F203" s="12"/>
-      <c r="G203" s="8">
+      <c r="F203" s="11"/>
+      <c r="G203" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A204" s="2">
+    <row r="204" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A204" s="1">
         <v>204</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C204" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D204" s="3" t="s">
+      <c r="D204" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E204" s="18" t="s">
+      <c r="E204" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F204" s="13"/>
-      <c r="G204" s="4">
+      <c r="F204" s="12"/>
+      <c r="G204" s="3">
         <v>501</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A205" s="2">
+    <row r="205" spans="1:7" ht="33" thickBot="1">
+      <c r="A205" s="1">
         <v>205</v>
       </c>
-      <c r="B205" s="5" t="s">
+      <c r="B205" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C205" s="6" t="s">
+      <c r="C205" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D205" s="6" t="s">
+      <c r="D205" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E205" s="19" t="s">
+      <c r="E205" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F205" s="12"/>
-      <c r="G205" s="8">
+      <c r="F205" s="11"/>
+      <c r="G205" s="7">
         <v>502</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A206" s="2">
+    <row r="206" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A206" s="1">
         <v>206</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D206" s="3" t="s">
+      <c r="D206" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E206" s="18" t="s">
+      <c r="E206" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F206" s="13"/>
-      <c r="G206" s="4">
+      <c r="F206" s="12"/>
+      <c r="G206" s="3">
         <v>503</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A207" s="2">
+    <row r="207" spans="1:7" ht="33" thickBot="1">
+      <c r="A207" s="1">
         <v>207</v>
       </c>
-      <c r="B207" s="5" t="s">
+      <c r="B207" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C207" s="6" t="s">
+      <c r="C207" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D207" s="6" t="s">
+      <c r="D207" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="E207" s="19" t="s">
+      <c r="E207" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F207" s="12"/>
-      <c r="G207" s="8">
+      <c r="F207" s="11"/>
+      <c r="G207" s="7">
         <v>503</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="75.75" thickBot="1">
-      <c r="A208" s="2">
+    <row r="208" spans="1:7" ht="81.599999999999994" thickBot="1">
+      <c r="A208" s="1">
         <v>208</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C208" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D208" s="3" t="s">
+      <c r="D208" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="E208" s="18" t="s">
+      <c r="E208" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F208" s="13"/>
-      <c r="G208" s="4">
+      <c r="F208" s="12"/>
+      <c r="G208" s="3">
         <v>504</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="90.75" thickBot="1">
-      <c r="A209" s="2">
+    <row r="209" spans="1:7" ht="97.8" thickBot="1">
+      <c r="A209" s="1">
         <v>209</v>
       </c>
-      <c r="B209" s="6" t="s">
+      <c r="B209" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C209" s="6" t="s">
+      <c r="C209" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D209" s="6" t="s">
+      <c r="D209" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="E209" s="19" t="s">
+      <c r="E209" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F209" s="12"/>
-      <c r="G209" s="8">
+      <c r="F209" s="11"/>
+      <c r="G209" s="7">
         <v>505</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A210" s="2">
+    <row r="210" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A210" s="1">
         <v>210</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="C210" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D210" s="3" t="s">
+      <c r="D210" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="E210" s="18" t="s">
+      <c r="E210" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F210" s="13"/>
-      <c r="G210" s="4">
+      <c r="F210" s="12"/>
+      <c r="G210" s="3">
         <v>506</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A211" s="2">
+    <row r="211" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A211" s="1">
         <v>211</v>
       </c>
-      <c r="B211" s="6" t="s">
+      <c r="B211" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C211" s="6" t="s">
+      <c r="C211" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D211" s="6" t="s">
+      <c r="D211" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="E211" s="19" t="s">
+      <c r="E211" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F211" s="12"/>
-      <c r="G211" s="8">
+      <c r="F211" s="11"/>
+      <c r="G211" s="7">
         <v>507</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A212" s="2">
+    <row r="212" spans="1:7" ht="33" thickBot="1">
+      <c r="A212" s="1">
         <v>212</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C212" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D212" s="3" t="s">
+      <c r="D212" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E212" s="18" t="s">
+      <c r="E212" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F212" s="13"/>
-      <c r="G212" s="4">
+      <c r="F212" s="12"/>
+      <c r="G212" s="3">
         <v>314</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A213" s="2">
+    <row r="213" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A213" s="1">
         <v>213</v>
       </c>
-      <c r="B213" s="6" t="s">
+      <c r="B213" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C213" s="6" t="s">
+      <c r="C213" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D213" s="6" t="s">
+      <c r="D213" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E213" s="19" t="s">
+      <c r="E213" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F213" s="12"/>
-      <c r="G213" s="8">
+      <c r="F213" s="11"/>
+      <c r="G213" s="7">
         <v>318</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A214" s="2">
+    <row r="214" spans="1:7" ht="33" thickBot="1">
+      <c r="A214" s="1">
         <v>214</v>
       </c>
-      <c r="B214" s="14" t="s">
+      <c r="B214" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="C214" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D214" s="3" t="s">
+      <c r="D214" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E214" s="18" t="s">
+      <c r="E214" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F214" s="13"/>
-      <c r="G214" s="4">
+      <c r="F214" s="12"/>
+      <c r="G214" s="3">
         <v>303</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A215" s="2">
+    <row r="215" spans="1:7" ht="33" thickBot="1">
+      <c r="A215" s="1">
         <v>215</v>
       </c>
-      <c r="B215" s="5" t="s">
+      <c r="B215" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C215" s="6" t="s">
+      <c r="C215" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D215" s="6" t="s">
+      <c r="D215" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E215" s="19" t="s">
+      <c r="E215" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F215" s="12"/>
-      <c r="G215" s="8">
+      <c r="F215" s="11"/>
+      <c r="G215" s="7">
         <v>303</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A216" s="2">
+    <row r="216" spans="1:7" ht="33" thickBot="1">
+      <c r="A216" s="1">
         <v>216</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B216" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="C216" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D216" s="3" t="s">
+      <c r="D216" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E216" s="18" t="s">
+      <c r="E216" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F216" s="26" t="s">
+      <c r="F216" s="24" t="s">
         <v>477</v>
       </c>
-      <c r="G216" s="4">
+      <c r="G216" s="3">
         <v>511</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A217" s="2"/>
-      <c r="B217" s="30"/>
-      <c r="C217" s="28"/>
-      <c r="D217" s="23"/>
-      <c r="E217" s="24"/>
-      <c r="F217" s="28"/>
-      <c r="G217" s="25"/>
-    </row>
-    <row r="218" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A218" s="2">
+    <row r="217" spans="1:7" ht="16.8" thickBot="1">
+      <c r="A217" s="1"/>
+      <c r="B217" s="28"/>
+      <c r="C217" s="26"/>
+      <c r="D217" s="21"/>
+      <c r="E217" s="22"/>
+      <c r="F217" s="26"/>
+      <c r="G217" s="23"/>
+    </row>
+    <row r="218" spans="1:7" ht="49.2" thickBot="1">
+      <c r="A218" s="1">
         <v>218</v>
       </c>
-      <c r="B218" s="30" t="s">
+      <c r="B218" s="28" t="s">
         <v>475</v>
       </c>
-      <c r="C218" s="28" t="s">
+      <c r="C218" s="26" t="s">
         <v>478</v>
       </c>
-      <c r="D218" s="23" t="s">
+      <c r="D218" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="E218" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F218" s="28" t="s">
+      <c r="E218" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F218" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="G218" s="29">
+      <c r="G218" s="27">
         <v>235</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G217"/>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1"/>
-    <hyperlink ref="F84" r:id="rId2"/>
-    <hyperlink ref="F109" r:id="rId3"/>
-    <hyperlink ref="F110" r:id="rId4"/>
-    <hyperlink ref="F179" r:id="rId5"/>
-    <hyperlink ref="F178" r:id="rId6"/>
-    <hyperlink ref="F181" r:id="rId7"/>
-    <hyperlink ref="F182" r:id="rId8"/>
-    <hyperlink ref="F183" r:id="rId9"/>
-    <hyperlink ref="F184" r:id="rId10"/>
-    <hyperlink ref="F189" r:id="rId11"/>
-    <hyperlink ref="F190" r:id="rId12" display="talentohumano@umes.edu.gt"/>
-    <hyperlink ref="F191" r:id="rId13"/>
-    <hyperlink ref="F216" r:id="rId14"/>
-    <hyperlink ref="F218" r:id="rId15"/>
+    <hyperlink ref="F11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F84" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F109" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F110" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F179" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F178" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F181" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F182" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F183" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F184" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F189" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F190" r:id="rId12" display="talentohumano@umes.edu.gt" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F191" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F216" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F218" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId16"/>

--- a/hoja.xlsx
+++ b/hoja.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis Fernando\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0809F6E8-FE09-4142-8E1B-C700DA9BE94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB698696-CBF8-4425-A048-2ED5FAD6277D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1466,7 +1466,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1642,12 +1642,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Docs-Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -2074,7 +2068,7 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2126,38 +2120,38 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2485,7 +2479,7 @@
   <dimension ref="A1:G218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="16.2"/>
@@ -2506,7 +2500,7 @@
       <c r="D1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -2529,7 +2523,7 @@
       <c r="D2" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -2552,7 +2546,7 @@
       <c r="D3" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -2575,7 +2569,7 @@
       <c r="D4" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -2598,7 +2592,7 @@
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -2621,7 +2615,7 @@
       <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -2644,7 +2638,7 @@
       <c r="D7" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="8" t="s">
@@ -2667,7 +2661,7 @@
       <c r="D8" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -2690,7 +2684,7 @@
       <c r="D9" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -2713,7 +2707,7 @@
       <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -2736,10 +2730,10 @@
       <c r="D11" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="19" t="s">
+      <c r="E11" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>456</v>
       </c>
       <c r="G11" s="3">
@@ -2759,7 +2753,7 @@
       <c r="D12" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="15" t="s">
@@ -2782,7 +2776,7 @@
       <c r="D13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -2805,7 +2799,7 @@
       <c r="D14" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="10"/>
@@ -2824,7 +2818,7 @@
       <c r="D15" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="8" t="s">
@@ -2847,7 +2841,7 @@
       <c r="D16" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="10"/>
@@ -2866,7 +2860,7 @@
       <c r="D17" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="12"/>
@@ -2885,7 +2879,7 @@
       <c r="D18" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F18" s="9" t="s">
@@ -2908,7 +2902,7 @@
       <c r="D19" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="8" t="s">
@@ -2929,7 +2923,7 @@
       <c r="D20" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="10"/>
@@ -2948,7 +2942,7 @@
       <c r="D21" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F21" s="12"/>
@@ -2967,7 +2961,7 @@
       <c r="D22" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F22" s="15" t="s">
@@ -2988,7 +2982,7 @@
       <c r="D23" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="12"/>
@@ -3007,7 +3001,7 @@
       <c r="D24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F24" s="6" t="s">
@@ -3030,7 +3024,7 @@
       <c r="D25" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F25" s="12"/>
@@ -3049,7 +3043,7 @@
       <c r="D26" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F26" s="6" t="s">
@@ -3070,7 +3064,7 @@
       <c r="D27" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F27" s="8" t="s">
@@ -3093,7 +3087,7 @@
       <c r="D28" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F28" s="6" t="s">
@@ -3116,7 +3110,7 @@
       <c r="D29" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F29" s="8" t="s">
@@ -3139,7 +3133,7 @@
       <c r="D30" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F30" s="11" t="s">
@@ -3160,7 +3154,7 @@
       <c r="D31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F31" s="8" t="s">
@@ -3183,7 +3177,7 @@
       <c r="D32" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F32" s="6" t="s">
@@ -3206,7 +3200,7 @@
       <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F33" s="8" t="s">
@@ -3227,7 +3221,7 @@
       <c r="D34" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F34" s="10"/>
@@ -3246,7 +3240,7 @@
       <c r="D35" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="26" t="s">
         <v>387</v>
       </c>
       <c r="F35" s="12"/>
@@ -3265,7 +3259,7 @@
       <c r="D36" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F36" s="10"/>
@@ -3284,7 +3278,7 @@
       <c r="D37" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="26" t="s">
         <v>387</v>
       </c>
       <c r="F37" s="8" t="s">
@@ -3305,7 +3299,7 @@
       <c r="D38" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F38" s="10"/>
@@ -3324,7 +3318,7 @@
       <c r="D39" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F39" s="8" t="s">
@@ -3347,7 +3341,7 @@
       <c r="D40" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F40" s="10"/>
@@ -3366,7 +3360,7 @@
       <c r="D41" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F41" s="8" t="s">
@@ -3389,7 +3383,7 @@
       <c r="D42" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F42" s="6" t="s">
@@ -3412,7 +3406,7 @@
       <c r="D43" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F43" s="11" t="s">
@@ -3433,7 +3427,7 @@
       <c r="D44" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F44" s="6" t="s">
@@ -3456,7 +3450,7 @@
       <c r="D45" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F45" s="8" t="s">
@@ -3479,7 +3473,7 @@
       <c r="D46" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F46" s="10"/>
@@ -3498,7 +3492,7 @@
       <c r="D47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F47" s="8" t="s">
@@ -3521,7 +3515,7 @@
       <c r="D48" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F48" s="10"/>
@@ -3540,7 +3534,7 @@
       <c r="D49" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="E49" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F49" s="11" t="s">
@@ -3561,7 +3555,7 @@
       <c r="D50" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F50" s="10"/>
@@ -3580,7 +3574,7 @@
       <c r="D51" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F51" s="8" t="s">
@@ -3603,7 +3597,7 @@
       <c r="D52" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F52" s="6" t="s">
@@ -3626,7 +3620,7 @@
       <c r="D53" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="26" t="s">
         <v>399</v>
       </c>
       <c r="F53" s="8" t="s">
@@ -3647,7 +3641,7 @@
       <c r="D54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="17" t="s">
+      <c r="E54" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F54" s="6" t="s">
@@ -3670,7 +3664,7 @@
       <c r="D55" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="E55" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F55" s="8" t="s">
@@ -3693,7 +3687,7 @@
       <c r="D56" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F56" s="6" t="s">
@@ -3716,7 +3710,7 @@
       <c r="D57" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E57" s="17" t="s">
+      <c r="E57" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F57" s="12"/>
@@ -3735,7 +3729,7 @@
       <c r="D58" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E58" s="17" t="s">
+      <c r="E58" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F58" s="10"/>
@@ -3754,7 +3748,7 @@
       <c r="D59" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F59" s="12"/>
@@ -3773,7 +3767,7 @@
       <c r="D60" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E60" s="18" t="s">
+      <c r="E60" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F60" s="6" t="s">
@@ -3796,7 +3790,7 @@
       <c r="D61" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E61" s="17" t="s">
+      <c r="E61" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F61" s="8" t="s">
@@ -3819,7 +3813,7 @@
       <c r="D62" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E62" s="17" t="s">
+      <c r="E62" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F62" s="6" t="s">
@@ -3842,7 +3836,7 @@
       <c r="D63" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E63" s="17" t="s">
+      <c r="E63" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F63" s="8" t="s">
@@ -3865,7 +3859,7 @@
       <c r="D64" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E64" s="18" t="s">
+      <c r="E64" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F64" s="6" t="s">
@@ -3886,7 +3880,7 @@
       <c r="D65" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="E65" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F65" s="8" t="s">
@@ -3909,7 +3903,7 @@
       <c r="D66" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="E66" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F66" s="10"/>
@@ -3928,7 +3922,7 @@
       <c r="D67" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F67" s="12"/>
@@ -3947,7 +3941,7 @@
       <c r="D68" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E68" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F68" s="6" t="s">
@@ -3970,7 +3964,7 @@
       <c r="D69" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E69" s="17" t="s">
+      <c r="E69" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F69" s="12"/>
@@ -3989,7 +3983,7 @@
       <c r="D70" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E70" s="17" t="s">
+      <c r="E70" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F70" s="10"/>
@@ -4008,7 +4002,7 @@
       <c r="D71" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E71" s="17" t="s">
+      <c r="E71" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F71" s="8" t="s">
@@ -4031,7 +4025,7 @@
       <c r="D72" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E72" s="18" t="s">
+      <c r="E72" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F72" s="6" t="s">
@@ -4054,7 +4048,7 @@
       <c r="D73" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E73" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F73" s="10"/>
@@ -4073,7 +4067,7 @@
       <c r="D74" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E74" s="17" t="s">
+      <c r="E74" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F74" s="8" t="s">
@@ -4096,7 +4090,7 @@
       <c r="D75" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="E75" s="17" t="s">
+      <c r="E75" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F75" s="6" t="s">
@@ -4119,7 +4113,7 @@
       <c r="D76" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E76" s="17" t="s">
+      <c r="E76" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F76" s="8" t="s">
@@ -4142,7 +4136,7 @@
       <c r="D77" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E77" s="17" t="s">
+      <c r="E77" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F77" s="6" t="s">
@@ -4165,7 +4159,7 @@
       <c r="D78" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="E78" s="17" t="s">
+      <c r="E78" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F78" s="8" t="s">
@@ -4188,7 +4182,7 @@
       <c r="D79" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E79" s="17" t="s">
+      <c r="E79" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F79" s="10"/>
@@ -4207,7 +4201,7 @@
       <c r="D80" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E80" s="17" t="s">
+      <c r="E80" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F80" s="8" t="s">
@@ -4230,7 +4224,7 @@
       <c r="D81" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E81" s="17" t="s">
+      <c r="E81" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F81" s="10"/>
@@ -4249,7 +4243,7 @@
       <c r="D82" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E82" s="17" t="s">
+      <c r="E82" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F82" s="8" t="s">
@@ -4272,7 +4266,7 @@
       <c r="D83" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E83" s="17" t="s">
+      <c r="E83" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F83" s="6" t="s">
@@ -4295,10 +4289,10 @@
       <c r="D84" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E84" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F84" s="19" t="s">
+      <c r="E84" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" s="17" t="s">
         <v>457</v>
       </c>
       <c r="G84" s="3">
@@ -4318,7 +4312,7 @@
       <c r="D85" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E85" s="18" t="s">
+      <c r="E85" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F85" s="6" t="s">
@@ -4341,7 +4335,7 @@
       <c r="D86" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E86" s="17" t="s">
+      <c r="E86" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F86" s="8" t="s">
@@ -4364,7 +4358,7 @@
       <c r="D87" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="E87" s="18" t="s">
+      <c r="E87" s="27" t="s">
         <v>399</v>
       </c>
       <c r="F87" s="10"/>
@@ -4383,7 +4377,7 @@
       <c r="D88" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="17" t="s">
+      <c r="E88" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F88" s="8" t="s">
@@ -4406,7 +4400,7 @@
       <c r="D89" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E89" s="18" t="s">
+      <c r="E89" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F89" s="10"/>
@@ -4425,7 +4419,7 @@
       <c r="D90" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E90" s="17" t="s">
+      <c r="E90" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F90" s="8" t="s">
@@ -4448,7 +4442,7 @@
       <c r="D91" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E91" s="18" t="s">
+      <c r="E91" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F91" s="10"/>
@@ -4467,7 +4461,7 @@
       <c r="D92" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E92" s="17" t="s">
+      <c r="E92" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F92" s="12" t="s">
@@ -4490,7 +4484,7 @@
       <c r="D93" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E93" s="18" t="s">
+      <c r="E93" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F93" s="6" t="s">
@@ -4513,7 +4507,7 @@
       <c r="D94" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E94" s="17" t="s">
+      <c r="E94" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F94" s="8" t="s">
@@ -4536,7 +4530,7 @@
       <c r="D95" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E95" s="17" t="s">
+      <c r="E95" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F95" s="6" t="s">
@@ -4559,7 +4553,7 @@
       <c r="D96" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E96" s="17" t="s">
+      <c r="E96" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F96" s="8" t="s">
@@ -4582,7 +4576,7 @@
       <c r="D97" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E97" s="17" t="s">
+      <c r="E97" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F97" s="6" t="s">
@@ -4605,7 +4599,7 @@
       <c r="D98" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E98" s="17" t="s">
+      <c r="E98" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F98" s="12"/>
@@ -4624,7 +4618,7 @@
       <c r="D99" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E99" s="17" t="s">
+      <c r="E99" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F99" s="10"/>
@@ -4643,7 +4637,7 @@
       <c r="D100" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E100" s="17" t="s">
+      <c r="E100" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F100" s="8" t="s">
@@ -4666,7 +4660,7 @@
       <c r="D101" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E101" s="17" t="s">
+      <c r="E101" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F101" s="6" t="s">
@@ -4689,7 +4683,7 @@
       <c r="D102" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E102" s="17" t="s">
+      <c r="E102" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F102" s="8" t="s">
@@ -4712,7 +4706,7 @@
       <c r="D103" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E103" s="17" t="s">
+      <c r="E103" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F103" s="6" t="s">
@@ -4735,7 +4729,7 @@
       <c r="D104" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E104" s="17" t="s">
+      <c r="E104" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F104" s="8" t="s">
@@ -4758,7 +4752,7 @@
       <c r="D105" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E105" s="17" t="s">
+      <c r="E105" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F105" s="10"/>
@@ -4777,7 +4771,7 @@
       <c r="D106" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E106" s="17" t="s">
+      <c r="E106" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F106" s="12"/>
@@ -4796,7 +4790,7 @@
       <c r="D107" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E107" s="17" t="s">
+      <c r="E107" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F107" s="6" t="s">
@@ -4819,7 +4813,7 @@
       <c r="D108" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="E108" s="17" t="s">
+      <c r="E108" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F108" s="12" t="s">
@@ -4842,10 +4836,10 @@
       <c r="D109" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E109" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F109" s="20" t="s">
+      <c r="E109" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F109" s="18" t="s">
         <v>458</v>
       </c>
       <c r="G109" s="7">
@@ -4865,10 +4859,10 @@
       <c r="D110" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E110" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F110" s="19" t="s">
+      <c r="E110" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F110" s="17" t="s">
         <v>459</v>
       </c>
       <c r="G110" s="3">
@@ -4888,7 +4882,7 @@
       <c r="D111" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E111" s="17" t="s">
+      <c r="E111" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F111" s="9" t="s">
@@ -4911,7 +4905,7 @@
       <c r="D112" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E112" s="17" t="s">
+      <c r="E112" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F112" s="8" t="s">
@@ -4934,7 +4928,7 @@
       <c r="D113" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E113" s="17" t="s">
+      <c r="E113" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F113" s="9" t="s">
@@ -4957,7 +4951,7 @@
       <c r="D114" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E114" s="17" t="s">
+      <c r="E114" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F114" s="12"/>
@@ -4976,7 +4970,7 @@
       <c r="D115" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E115" s="18" t="s">
+      <c r="E115" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F115" s="9" t="s">
@@ -4999,7 +4993,7 @@
       <c r="D116" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E116" s="17" t="s">
+      <c r="E116" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F116" s="12"/>
@@ -5018,7 +5012,7 @@
       <c r="D117" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E117" s="17" t="s">
+      <c r="E117" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F117" s="9" t="s">
@@ -5041,7 +5035,7 @@
       <c r="D118" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E118" s="17" t="s">
+      <c r="E118" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F118" s="8" t="s">
@@ -5064,7 +5058,7 @@
       <c r="D119" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E119" s="17" t="s">
+      <c r="E119" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F119" s="11"/>
@@ -5083,7 +5077,7 @@
       <c r="D120" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E120" s="17" t="s">
+      <c r="E120" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F120" s="8" t="s">
@@ -5106,7 +5100,7 @@
       <c r="D121" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="E121" s="17" t="s">
+      <c r="E121" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F121" s="9" t="s">
@@ -5127,7 +5121,7 @@
       <c r="D122" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E122" s="17" t="s">
+      <c r="E122" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F122" s="8" t="s">
@@ -5150,7 +5144,7 @@
       <c r="D123" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E123" s="18" t="s">
+      <c r="E123" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F123" s="11"/>
@@ -5169,7 +5163,7 @@
       <c r="D124" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E124" s="17" t="s">
+      <c r="E124" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F124" s="8" t="s">
@@ -5192,7 +5186,7 @@
       <c r="D125" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E125" s="17" t="s">
+      <c r="E125" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F125" s="9" t="s">
@@ -5215,7 +5209,7 @@
       <c r="D126" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E126" s="17" t="s">
+      <c r="E126" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F126" s="8" t="s">
@@ -5238,7 +5232,7 @@
       <c r="D127" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E127" s="17" t="s">
+      <c r="E127" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F127" s="9" t="s">
@@ -5261,7 +5255,7 @@
       <c r="D128" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E128" s="17" t="s">
+      <c r="E128" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F128" s="8" t="s">
@@ -5284,7 +5278,7 @@
       <c r="D129" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E129" s="17" t="s">
+      <c r="E129" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F129" s="9" t="s">
@@ -5307,7 +5301,7 @@
       <c r="D130" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E130" s="17" t="s">
+      <c r="E130" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F130" s="8" t="s">
@@ -5330,7 +5324,7 @@
       <c r="D131" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E131" s="17" t="s">
+      <c r="E131" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F131" s="11"/>
@@ -5349,7 +5343,7 @@
       <c r="D132" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E132" s="17" t="s">
+      <c r="E132" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F132" s="8" t="s">
@@ -5372,7 +5366,7 @@
       <c r="D133" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E133" s="17" t="s">
+      <c r="E133" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F133" s="9" t="s">
@@ -5395,7 +5389,7 @@
       <c r="D134" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E134" s="17" t="s">
+      <c r="E134" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F134" s="8" t="s">
@@ -5418,7 +5412,7 @@
       <c r="D135" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="E135" s="17" t="s">
+      <c r="E135" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F135" s="9" t="s">
@@ -5441,7 +5435,7 @@
       <c r="D136" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E136" s="17" t="s">
+      <c r="E136" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F136" s="8" t="s">
@@ -5464,7 +5458,7 @@
       <c r="D137" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E137" s="17" t="s">
+      <c r="E137" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F137" s="9" t="s">
@@ -5487,7 +5481,7 @@
       <c r="D138" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E138" s="17" t="s">
+      <c r="E138" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F138" s="12"/>
@@ -5506,7 +5500,7 @@
       <c r="D139" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E139" s="18" t="s">
+      <c r="E139" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F139" s="9" t="s">
@@ -5529,7 +5523,7 @@
       <c r="D140" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E140" s="17" t="s">
+      <c r="E140" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F140" s="12"/>
@@ -5548,7 +5542,7 @@
       <c r="D141" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="E141" s="18" t="s">
+      <c r="E141" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F141" s="11"/>
@@ -5567,7 +5561,7 @@
       <c r="D142" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E142" s="17" t="s">
+      <c r="E142" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F142" s="8" t="s">
@@ -5590,7 +5584,7 @@
       <c r="D143" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="E143" s="17" t="s">
+      <c r="E143" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F143" s="9" t="s">
@@ -5611,7 +5605,7 @@
       <c r="D144" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E144" s="17" t="s">
+      <c r="E144" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F144" s="12"/>
@@ -5630,7 +5624,7 @@
       <c r="D145" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E145" s="18" t="s">
+      <c r="E145" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F145" s="11"/>
@@ -5649,7 +5643,7 @@
       <c r="D146" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E146" s="17" t="s">
+      <c r="E146" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F146" s="8" t="s">
@@ -5672,7 +5666,7 @@
       <c r="D147" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="E147" s="18" t="s">
+      <c r="E147" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F147" s="11"/>
@@ -5691,7 +5685,7 @@
       <c r="D148" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E148" s="17" t="s">
+      <c r="E148" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F148" s="8" t="s">
@@ -5714,7 +5708,7 @@
       <c r="D149" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E149" s="18" t="s">
+      <c r="E149" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F149" s="9" t="s">
@@ -5737,7 +5731,7 @@
       <c r="D150" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E150" s="17" t="s">
+      <c r="E150" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F150" s="8" t="s">
@@ -5760,7 +5754,7 @@
       <c r="D151" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="E151" s="17" t="s">
+      <c r="E151" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F151" s="9" t="s">
@@ -5781,7 +5775,7 @@
       <c r="D152" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E152" s="17" t="s">
+      <c r="E152" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F152" s="8" t="s">
@@ -5802,7 +5796,7 @@
       <c r="D153" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="E153" s="18" t="s">
+      <c r="E153" s="27" t="s">
         <v>445</v>
       </c>
       <c r="F153" s="9" t="s">
@@ -5823,7 +5817,7 @@
       <c r="D154" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E154" s="17" t="s">
+      <c r="E154" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F154" s="8" t="s">
@@ -5846,7 +5840,7 @@
       <c r="D155" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E155" s="17" t="s">
+      <c r="E155" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F155" s="9" t="s">
@@ -5869,7 +5863,7 @@
       <c r="D156" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E156" s="17" t="s">
+      <c r="E156" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F156" s="8" t="s">
@@ -5892,7 +5886,7 @@
       <c r="D157" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E157" s="17" t="s">
+      <c r="E157" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F157" s="9" t="s">
@@ -5915,7 +5909,7 @@
       <c r="D158" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E158" s="17" t="s">
+      <c r="E158" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F158" s="12"/>
@@ -5934,7 +5928,7 @@
       <c r="D159" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E159" s="18" t="s">
+      <c r="E159" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F159" s="11"/>
@@ -5953,7 +5947,7 @@
       <c r="D160" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E160" s="17" t="s">
+      <c r="E160" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F160" s="8" t="s">
@@ -5974,7 +5968,7 @@
       <c r="D161" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E161" s="18" t="s">
+      <c r="E161" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F161" s="9" t="s">
@@ -5997,7 +5991,7 @@
       <c r="D162" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E162" s="17" t="s">
+      <c r="E162" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F162" s="8" t="s">
@@ -6020,7 +6014,7 @@
       <c r="D163" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="E163" s="17" t="s">
+      <c r="E163" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F163" s="9" t="s">
@@ -6043,7 +6037,7 @@
       <c r="D164" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E164" s="17" t="s">
+      <c r="E164" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F164" s="12"/>
@@ -6062,7 +6056,7 @@
       <c r="D165" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E165" s="17" t="s">
+      <c r="E165" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F165" s="9" t="s">
@@ -6085,7 +6079,7 @@
       <c r="D166" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E166" s="17" t="s">
+      <c r="E166" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F166" s="8" t="s">
@@ -6108,7 +6102,7 @@
       <c r="D167" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E167" s="17" t="s">
+      <c r="E167" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F167" s="11"/>
@@ -6127,7 +6121,7 @@
       <c r="D168" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E168" s="17" t="s">
+      <c r="E168" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F168" s="8" t="s">
@@ -6150,7 +6144,7 @@
       <c r="D169" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E169" s="17" t="s">
+      <c r="E169" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F169" s="9" t="s">
@@ -6173,7 +6167,7 @@
       <c r="D170" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E170" s="17" t="s">
+      <c r="E170" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F170" s="12"/>
@@ -6192,7 +6186,7 @@
       <c r="D171" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E171" s="17" t="s">
+      <c r="E171" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F171" s="11"/>
@@ -6211,7 +6205,7 @@
       <c r="D172" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E172" s="18" t="s">
+      <c r="E172" s="27" t="s">
         <v>445</v>
       </c>
       <c r="F172" s="12"/>
@@ -6230,7 +6224,7 @@
       <c r="D173" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E173" s="18" t="s">
+      <c r="E173" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F173" s="11"/>
@@ -6249,7 +6243,7 @@
       <c r="D174" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E174" s="17" t="s">
+      <c r="E174" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F174" s="8" t="s">
@@ -6272,7 +6266,7 @@
       <c r="D175" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E175" s="18" t="s">
+      <c r="E175" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F175" s="11" t="s">
@@ -6295,7 +6289,7 @@
       <c r="D176" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E176" s="17" t="s">
+      <c r="E176" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F176" s="8" t="s">
@@ -6318,7 +6312,7 @@
       <c r="D177" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E177" s="18" t="s">
+      <c r="E177" s="27" t="s">
         <v>76</v>
       </c>
       <c r="F177" s="11"/>
@@ -6339,10 +6333,10 @@
       <c r="D178" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E178" s="17" t="s">
+      <c r="E178" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F178" s="24" t="s">
+      <c r="F178" s="21" t="s">
         <v>461</v>
       </c>
       <c r="G178" s="3">
@@ -6362,10 +6356,10 @@
       <c r="D179" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E179" s="18" t="s">
+      <c r="E179" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="F179" s="25" t="s">
+      <c r="F179" s="22" t="s">
         <v>460</v>
       </c>
       <c r="G179" s="7">
@@ -6385,10 +6379,10 @@
       <c r="D180" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E180" s="17" t="s">
+      <c r="E180" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F180" s="24"/>
+      <c r="F180" s="21"/>
       <c r="G180" s="3" t="s">
         <v>361</v>
       </c>
@@ -6406,10 +6400,10 @@
       <c r="D181" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E181" s="18" t="s">
+      <c r="E181" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="F181" s="24" t="s">
+      <c r="F181" s="21" t="s">
         <v>462</v>
       </c>
       <c r="G181" s="7">
@@ -6429,10 +6423,10 @@
       <c r="D182" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E182" s="17" t="s">
+      <c r="E182" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F182" s="24" t="s">
+      <c r="F182" s="21" t="s">
         <v>463</v>
       </c>
       <c r="G182" s="3">
@@ -6452,10 +6446,10 @@
       <c r="D183" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E183" s="18" t="s">
+      <c r="E183" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="F183" s="25" t="s">
+      <c r="F183" s="22" t="s">
         <v>464</v>
       </c>
       <c r="G183" s="7">
@@ -6475,10 +6469,10 @@
       <c r="D184" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E184" s="17" t="s">
+      <c r="E184" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F184" s="24" t="s">
+      <c r="F184" s="21" t="s">
         <v>465</v>
       </c>
       <c r="G184" s="3">
@@ -6498,7 +6492,7 @@
       <c r="D185" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E185" s="18" t="s">
+      <c r="E185" s="27" t="s">
         <v>76</v>
       </c>
       <c r="F185" s="11"/>
@@ -6519,7 +6513,7 @@
       <c r="D186" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="E186" s="17" t="s">
+      <c r="E186" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F186" s="12"/>
@@ -6540,10 +6534,10 @@
       <c r="D187" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E187" s="18" t="s">
+      <c r="E187" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="F187" s="25"/>
+      <c r="F187" s="22"/>
       <c r="G187" s="7">
         <v>200</v>
       </c>
@@ -6561,7 +6555,7 @@
       <c r="D188" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E188" s="17" t="s">
+      <c r="E188" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F188" s="12"/>
@@ -6582,10 +6576,10 @@
       <c r="D189" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="E189" s="18" t="s">
+      <c r="E189" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="F189" s="25" t="s">
+      <c r="F189" s="22" t="s">
         <v>466</v>
       </c>
       <c r="G189" s="7">
@@ -6605,10 +6599,10 @@
       <c r="D190" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E190" s="17" t="s">
+      <c r="E190" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F190" s="24" t="s">
+      <c r="F190" s="21" t="s">
         <v>467</v>
       </c>
       <c r="G190" s="3">
@@ -6628,10 +6622,10 @@
       <c r="D191" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E191" s="18" t="s">
+      <c r="E191" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="F191" s="25" t="s">
+      <c r="F191" s="22" t="s">
         <v>468</v>
       </c>
       <c r="G191" s="7">
@@ -6651,7 +6645,7 @@
       <c r="D192" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E192" s="17" t="s">
+      <c r="E192" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F192" s="12"/>
@@ -6672,7 +6666,7 @@
       <c r="D193" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E193" s="18" t="s">
+      <c r="E193" s="27" t="s">
         <v>76</v>
       </c>
       <c r="F193" s="11"/>
@@ -6693,7 +6687,7 @@
       <c r="D194" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E194" s="17" t="s">
+      <c r="E194" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F194" s="12"/>
@@ -6714,7 +6708,7 @@
       <c r="D195" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="E195" s="18" t="s">
+      <c r="E195" s="27" t="s">
         <v>76</v>
       </c>
       <c r="F195" s="11"/>
@@ -6735,7 +6729,7 @@
       <c r="D196" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E196" s="17" t="s">
+      <c r="E196" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F196" s="12"/>
@@ -6756,7 +6750,7 @@
       <c r="D197" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E197" s="18" t="s">
+      <c r="E197" s="27" t="s">
         <v>76</v>
       </c>
       <c r="F197" s="11"/>
@@ -6777,7 +6771,7 @@
       <c r="D198" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E198" s="17" t="s">
+      <c r="E198" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F198" s="12"/>
@@ -6798,7 +6792,7 @@
       <c r="D199" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="E199" s="18" t="s">
+      <c r="E199" s="27" t="s">
         <v>76</v>
       </c>
       <c r="F199" s="11"/>
@@ -6819,7 +6813,7 @@
       <c r="D200" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E200" s="17" t="s">
+      <c r="E200" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F200" s="12"/>
@@ -6840,7 +6834,7 @@
       <c r="D201" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="E201" s="18" t="s">
+      <c r="E201" s="27" t="s">
         <v>76</v>
       </c>
       <c r="F201" s="11"/>
@@ -6861,7 +6855,7 @@
       <c r="D202" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E202" s="17" t="s">
+      <c r="E202" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F202" s="12"/>
@@ -6882,7 +6876,7 @@
       <c r="D203" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="E203" s="18" t="s">
+      <c r="E203" s="27" t="s">
         <v>76</v>
       </c>
       <c r="F203" s="11"/>
@@ -6903,7 +6897,7 @@
       <c r="D204" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E204" s="17" t="s">
+      <c r="E204" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F204" s="12"/>
@@ -6924,7 +6918,7 @@
       <c r="D205" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E205" s="18" t="s">
+      <c r="E205" s="27" t="s">
         <v>76</v>
       </c>
       <c r="F205" s="11"/>
@@ -6945,7 +6939,7 @@
       <c r="D206" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E206" s="17" t="s">
+      <c r="E206" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F206" s="12"/>
@@ -6966,7 +6960,7 @@
       <c r="D207" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="E207" s="18" t="s">
+      <c r="E207" s="27" t="s">
         <v>76</v>
       </c>
       <c r="F207" s="11"/>
@@ -6987,7 +6981,7 @@
       <c r="D208" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="E208" s="17" t="s">
+      <c r="E208" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F208" s="12"/>
@@ -7008,7 +7002,7 @@
       <c r="D209" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="E209" s="18" t="s">
+      <c r="E209" s="27" t="s">
         <v>76</v>
       </c>
       <c r="F209" s="11"/>
@@ -7029,7 +7023,7 @@
       <c r="D210" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="E210" s="17" t="s">
+      <c r="E210" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F210" s="12"/>
@@ -7050,7 +7044,7 @@
       <c r="D211" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="E211" s="18" t="s">
+      <c r="E211" s="27" t="s">
         <v>76</v>
       </c>
       <c r="F211" s="11"/>
@@ -7071,7 +7065,7 @@
       <c r="D212" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E212" s="17" t="s">
+      <c r="E212" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F212" s="12"/>
@@ -7092,7 +7086,7 @@
       <c r="D213" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E213" s="18" t="s">
+      <c r="E213" s="27" t="s">
         <v>76</v>
       </c>
       <c r="F213" s="11"/>
@@ -7113,7 +7107,7 @@
       <c r="D214" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E214" s="17" t="s">
+      <c r="E214" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F214" s="12"/>
@@ -7134,7 +7128,7 @@
       <c r="D215" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E215" s="18" t="s">
+      <c r="E215" s="27" t="s">
         <v>76</v>
       </c>
       <c r="F215" s="11"/>
@@ -7155,10 +7149,10 @@
       <c r="D216" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E216" s="17" t="s">
+      <c r="E216" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F216" s="24" t="s">
+      <c r="F216" s="21" t="s">
         <v>477</v>
       </c>
       <c r="G216" s="3">
@@ -7167,33 +7161,33 @@
     </row>
     <row r="217" spans="1:7" ht="16.8" thickBot="1">
       <c r="A217" s="1"/>
-      <c r="B217" s="28"/>
-      <c r="C217" s="26"/>
-      <c r="D217" s="21"/>
-      <c r="E217" s="22"/>
-      <c r="F217" s="26"/>
-      <c r="G217" s="23"/>
+      <c r="B217" s="25"/>
+      <c r="C217" s="23"/>
+      <c r="D217" s="19"/>
+      <c r="E217" s="28"/>
+      <c r="F217" s="23"/>
+      <c r="G217" s="20"/>
     </row>
     <row r="218" spans="1:7" ht="49.2" thickBot="1">
       <c r="A218" s="1">
         <v>218</v>
       </c>
-      <c r="B218" s="28" t="s">
+      <c r="B218" s="25" t="s">
         <v>475</v>
       </c>
-      <c r="C218" s="26" t="s">
+      <c r="C218" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="D218" s="21" t="s">
+      <c r="D218" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="E218" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F218" s="26" t="s">
+      <c r="E218" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F218" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="G218" s="27">
+      <c r="G218" s="24">
         <v>235</v>
       </c>
     </row>

--- a/hoja.xlsx
+++ b/hoja.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis Fernando\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fer_nando\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB698696-CBF8-4425-A048-2ED5FAD6277D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14640" windowHeight="10965"/>
   </bookViews>
   <sheets>
     <sheet name="Libro(Hoja1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Libro(Hoja1)'!$A$1:$G$217</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Libro(Hoja1)'!$A$1:$G$216</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -1465,7 +1464,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="27">
     <font>
       <sz val="11"/>
@@ -2070,7 +2069,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2129,7 +2128,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="34" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2200,7 +2198,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{E9FCF83D-801F-4CEE-811E-C257BD917BB6}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2475,19 +2473,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G218"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="A217" sqref="A217:XFD217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="34.88671875" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="1" spans="1:7" ht="60.75" thickBot="1">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -2500,7 +2498,7 @@
       <c r="D1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -2510,7 +2508,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="97.8" thickBot="1">
+    <row r="2" spans="1:7" ht="105.75" thickBot="1">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -2523,7 +2521,7 @@
       <c r="D2" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -2533,7 +2531,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="3" spans="1:7" ht="60.75" thickBot="1">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -2546,7 +2544,7 @@
       <c r="D3" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -2556,7 +2554,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="4" spans="1:7" ht="75.75" thickBot="1">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -2569,7 +2567,7 @@
       <c r="D4" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -2579,7 +2577,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="5" spans="1:7" ht="60.75" thickBot="1">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -2592,7 +2590,7 @@
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -2602,7 +2600,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="6" spans="1:7" ht="60.75" thickBot="1">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -2615,7 +2613,7 @@
       <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -2625,7 +2623,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="33" thickBot="1">
+    <row r="7" spans="1:7" ht="45.75" thickBot="1">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -2638,7 +2636,7 @@
       <c r="D7" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="8" t="s">
@@ -2648,7 +2646,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="49.2" thickBot="1">
+    <row r="8" spans="1:7" ht="75.75" thickBot="1">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -2661,7 +2659,7 @@
       <c r="D8" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -2671,7 +2669,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="9" spans="1:7" ht="60.75" thickBot="1">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -2684,7 +2682,7 @@
       <c r="D9" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -2694,7 +2692,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="49.2" thickBot="1">
+    <row r="10" spans="1:7" ht="60.75" thickBot="1">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -2707,7 +2705,7 @@
       <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -2717,7 +2715,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="11" spans="1:7" ht="60.75" thickBot="1">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -2730,7 +2728,7 @@
       <c r="D11" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="17" t="s">
@@ -2740,7 +2738,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="12" spans="1:7" ht="60.75" thickBot="1">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -2753,7 +2751,7 @@
       <c r="D12" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="15" t="s">
@@ -2763,7 +2761,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="13" spans="1:7" ht="60.75" thickBot="1">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -2776,7 +2774,7 @@
       <c r="D13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -2786,7 +2784,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="14" spans="1:7" ht="60.75" thickBot="1">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -2799,13 +2797,13 @@
       <c r="D14" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" ht="81.599999999999994" thickBot="1">
+    <row r="15" spans="1:7" ht="75.75" thickBot="1">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -2818,7 +2816,7 @@
       <c r="D15" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="8" t="s">
@@ -2828,7 +2826,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="16" spans="1:7" ht="60.75" thickBot="1">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -2841,13 +2839,13 @@
       <c r="D16" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="17" spans="1:7" ht="60.75" thickBot="1">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -2860,13 +2858,13 @@
       <c r="D17" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="18" spans="1:7" ht="60.75" thickBot="1">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -2879,7 +2877,7 @@
       <c r="D18" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F18" s="9" t="s">
@@ -2889,7 +2887,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="19" spans="1:7" ht="60.75" thickBot="1">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -2902,7 +2900,7 @@
       <c r="D19" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="8" t="s">
@@ -2910,7 +2908,7 @@
       </c>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="20" spans="1:7" ht="60.75" thickBot="1">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -2923,13 +2921,13 @@
       <c r="D20" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="21" spans="1:7" ht="60.75" thickBot="1">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -2942,13 +2940,13 @@
       <c r="D21" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="81.599999999999994" thickBot="1">
+    <row r="22" spans="1:7" ht="75.75" thickBot="1">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -2961,7 +2959,7 @@
       <c r="D22" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F22" s="15" t="s">
@@ -2969,7 +2967,7 @@
       </c>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="23" spans="1:7" ht="60.75" thickBot="1">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -2982,13 +2980,13 @@
       <c r="D23" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="24" spans="1:7" ht="60.75" thickBot="1">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -3001,7 +2999,7 @@
       <c r="D24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F24" s="6" t="s">
@@ -3011,7 +3009,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="25" spans="1:7" ht="60.75" thickBot="1">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -3024,13 +3022,13 @@
       <c r="D25" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="26" spans="1:7" ht="60.75" thickBot="1">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -3043,7 +3041,7 @@
       <c r="D26" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F26" s="6" t="s">
@@ -3051,7 +3049,7 @@
       </c>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="27" spans="1:7" ht="60.75" thickBot="1">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -3064,7 +3062,7 @@
       <c r="D27" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F27" s="8" t="s">
@@ -3074,7 +3072,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="28" spans="1:7" ht="60.75" thickBot="1">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -3087,7 +3085,7 @@
       <c r="D28" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F28" s="6" t="s">
@@ -3097,7 +3095,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="81.599999999999994" thickBot="1">
+    <row r="29" spans="1:7" ht="75.75" thickBot="1">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -3110,7 +3108,7 @@
       <c r="D29" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F29" s="8" t="s">
@@ -3120,7 +3118,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="30" spans="1:7" ht="60.75" thickBot="1">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -3133,7 +3131,7 @@
       <c r="D30" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F30" s="11" t="s">
@@ -3141,7 +3139,7 @@
       </c>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="31" spans="1:7" ht="60.75" thickBot="1">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -3154,7 +3152,7 @@
       <c r="D31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F31" s="8" t="s">
@@ -3164,7 +3162,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="49.2" thickBot="1">
+    <row r="32" spans="1:7" ht="60.75" thickBot="1">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -3177,7 +3175,7 @@
       <c r="D32" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F32" s="6" t="s">
@@ -3187,7 +3185,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="33" spans="1:7" ht="60.75" thickBot="1">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -3200,7 +3198,7 @@
       <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F33" s="8" t="s">
@@ -3208,7 +3206,7 @@
       </c>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="34" spans="1:7" ht="60.75" thickBot="1">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -3221,13 +3219,13 @@
       <c r="D34" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="35" spans="1:7" ht="60.75" thickBot="1">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -3240,13 +3238,13 @@
       <c r="D35" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="25" t="s">
         <v>387</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="36" spans="1:7" ht="60.75" thickBot="1">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -3259,13 +3257,13 @@
       <c r="D36" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="37" spans="1:7" ht="60.75" thickBot="1">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -3278,7 +3276,7 @@
       <c r="D37" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="25" t="s">
         <v>387</v>
       </c>
       <c r="F37" s="8" t="s">
@@ -3286,7 +3284,7 @@
       </c>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="38" spans="1:7" ht="60.75" thickBot="1">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -3299,13 +3297,13 @@
       <c r="D38" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="1:7" ht="49.2" thickBot="1">
+    <row r="39" spans="1:7" ht="45.75" thickBot="1">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -3318,7 +3316,7 @@
       <c r="D39" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F39" s="8" t="s">
@@ -3328,7 +3326,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="40" spans="1:7" ht="60.75" thickBot="1">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -3341,13 +3339,13 @@
       <c r="D40" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="1:7" ht="130.19999999999999" thickBot="1">
+    <row r="41" spans="1:7" ht="120.75" thickBot="1">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -3360,7 +3358,7 @@
       <c r="D41" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F41" s="8" t="s">
@@ -3370,7 +3368,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="42" spans="1:7" ht="60.75" thickBot="1">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -3383,7 +3381,7 @@
       <c r="D42" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F42" s="6" t="s">
@@ -3393,7 +3391,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="43" spans="1:7" ht="60.75" thickBot="1">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -3406,7 +3404,7 @@
       <c r="D43" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F43" s="11" t="s">
@@ -3414,7 +3412,7 @@
       </c>
       <c r="G43" s="14"/>
     </row>
-    <row r="44" spans="1:7" ht="49.2" thickBot="1">
+    <row r="44" spans="1:7" ht="60.75" thickBot="1">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -3427,7 +3425,7 @@
       <c r="D44" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F44" s="6" t="s">
@@ -3437,7 +3435,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="45" spans="1:7" ht="60.75" thickBot="1">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -3450,7 +3448,7 @@
       <c r="D45" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F45" s="8" t="s">
@@ -3460,7 +3458,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="46" spans="1:7" ht="60.75" thickBot="1">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -3473,13 +3471,13 @@
       <c r="D46" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="16"/>
     </row>
-    <row r="47" spans="1:7" ht="49.2" thickBot="1">
+    <row r="47" spans="1:7" ht="45.75" thickBot="1">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -3492,7 +3490,7 @@
       <c r="D47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="26" t="s">
+      <c r="E47" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F47" s="8" t="s">
@@ -3502,7 +3500,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="48" spans="1:7" ht="60.75" thickBot="1">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -3515,13 +3513,13 @@
       <c r="D48" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="16"/>
     </row>
-    <row r="49" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="49" spans="1:7" ht="60.75" thickBot="1">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -3534,7 +3532,7 @@
       <c r="D49" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E49" s="26" t="s">
+      <c r="E49" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F49" s="11" t="s">
@@ -3542,7 +3540,7 @@
       </c>
       <c r="G49" s="14"/>
     </row>
-    <row r="50" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="50" spans="1:7" ht="60.75" thickBot="1">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -3555,13 +3553,13 @@
       <c r="D50" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E50" s="26" t="s">
+      <c r="E50" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="16"/>
     </row>
-    <row r="51" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="51" spans="1:7" ht="60.75" thickBot="1">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -3574,7 +3572,7 @@
       <c r="D51" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E51" s="26" t="s">
+      <c r="E51" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F51" s="8" t="s">
@@ -3584,7 +3582,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="52" spans="1:7" ht="60.75" thickBot="1">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -3597,7 +3595,7 @@
       <c r="D52" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="26" t="s">
+      <c r="E52" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F52" s="6" t="s">
@@ -3607,7 +3605,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="49.2" thickBot="1">
+    <row r="53" spans="1:7" ht="60.75" thickBot="1">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -3620,7 +3618,7 @@
       <c r="D53" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E53" s="26" t="s">
+      <c r="E53" s="25" t="s">
         <v>399</v>
       </c>
       <c r="F53" s="8" t="s">
@@ -3628,7 +3626,7 @@
       </c>
       <c r="G53" s="14"/>
     </row>
-    <row r="54" spans="1:7" ht="49.2" thickBot="1">
+    <row r="54" spans="1:7" ht="45.75" thickBot="1">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -3641,7 +3639,7 @@
       <c r="D54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="26" t="s">
+      <c r="E54" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F54" s="6" t="s">
@@ -3651,7 +3649,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="55" spans="1:7" ht="60.75" thickBot="1">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -3664,7 +3662,7 @@
       <c r="D55" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="E55" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F55" s="8" t="s">
@@ -3674,7 +3672,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="56" spans="1:7" ht="60.75" thickBot="1">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -3687,7 +3685,7 @@
       <c r="D56" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="27" t="s">
+      <c r="E56" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F56" s="6" t="s">
@@ -3697,7 +3695,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="49.2" thickBot="1">
+    <row r="57" spans="1:7" ht="45.75" thickBot="1">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -3710,13 +3708,13 @@
       <c r="D57" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E57" s="26" t="s">
+      <c r="E57" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="14"/>
     </row>
-    <row r="58" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="58" spans="1:7" ht="60.75" thickBot="1">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -3729,13 +3727,13 @@
       <c r="D58" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E58" s="26" t="s">
+      <c r="E58" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="16"/>
     </row>
-    <row r="59" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="59" spans="1:7" ht="60.75" thickBot="1">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -3748,13 +3746,13 @@
       <c r="D59" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="E59" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F59" s="12"/>
       <c r="G59" s="14"/>
     </row>
-    <row r="60" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="60" spans="1:7" ht="60.75" thickBot="1">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -3767,7 +3765,7 @@
       <c r="D60" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E60" s="27" t="s">
+      <c r="E60" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F60" s="6" t="s">
@@ -3777,7 +3775,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="61" spans="1:7" ht="60.75" thickBot="1">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -3790,7 +3788,7 @@
       <c r="D61" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="E61" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F61" s="8" t="s">
@@ -3800,7 +3798,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="62" spans="1:7" ht="60.75" thickBot="1">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -3813,7 +3811,7 @@
       <c r="D62" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E62" s="26" t="s">
+      <c r="E62" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F62" s="6" t="s">
@@ -3823,7 +3821,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="81.599999999999994" thickBot="1">
+    <row r="63" spans="1:7" ht="75.75" thickBot="1">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -3836,7 +3834,7 @@
       <c r="D63" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E63" s="26" t="s">
+      <c r="E63" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F63" s="8" t="s">
@@ -3846,7 +3844,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="64" spans="1:7" ht="60.75" thickBot="1">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -3859,7 +3857,7 @@
       <c r="D64" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E64" s="27" t="s">
+      <c r="E64" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F64" s="6" t="s">
@@ -3867,7 +3865,7 @@
       </c>
       <c r="G64" s="16"/>
     </row>
-    <row r="65" spans="1:7" ht="49.2" thickBot="1">
+    <row r="65" spans="1:7" ht="45.75" thickBot="1">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -3880,7 +3878,7 @@
       <c r="D65" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E65" s="26" t="s">
+      <c r="E65" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F65" s="8" t="s">
@@ -3890,7 +3888,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="66" spans="1:7" ht="60.75" thickBot="1">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -3903,13 +3901,13 @@
       <c r="D66" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E66" s="26" t="s">
+      <c r="E66" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="16"/>
     </row>
-    <row r="67" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="67" spans="1:7" ht="60.75" thickBot="1">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -3922,13 +3920,13 @@
       <c r="D67" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E67" s="26" t="s">
+      <c r="E67" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F67" s="12"/>
       <c r="G67" s="14"/>
     </row>
-    <row r="68" spans="1:7" ht="49.2" thickBot="1">
+    <row r="68" spans="1:7" ht="45.75" thickBot="1">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -3941,7 +3939,7 @@
       <c r="D68" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E68" s="27" t="s">
+      <c r="E68" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F68" s="6" t="s">
@@ -3951,7 +3949,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="69" spans="1:7" ht="60.75" thickBot="1">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -3964,13 +3962,13 @@
       <c r="D69" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E69" s="26" t="s">
+      <c r="E69" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="14"/>
     </row>
-    <row r="70" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="70" spans="1:7" ht="60.75" thickBot="1">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -3983,13 +3981,13 @@
       <c r="D70" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E70" s="26" t="s">
+      <c r="E70" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="16"/>
     </row>
-    <row r="71" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="71" spans="1:7" ht="75.75" thickBot="1">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -4002,7 +4000,7 @@
       <c r="D71" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E71" s="26" t="s">
+      <c r="E71" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F71" s="8" t="s">
@@ -4012,7 +4010,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="72" spans="1:7" ht="60.75" thickBot="1">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -4025,7 +4023,7 @@
       <c r="D72" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E72" s="27" t="s">
+      <c r="E72" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F72" s="6" t="s">
@@ -4035,7 +4033,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="73" spans="1:7" ht="60.75" thickBot="1">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -4048,13 +4046,13 @@
       <c r="D73" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E73" s="26" t="s">
+      <c r="E73" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="16"/>
     </row>
-    <row r="74" spans="1:7" ht="49.2" thickBot="1">
+    <row r="74" spans="1:7" ht="60.75" thickBot="1">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -4067,7 +4065,7 @@
       <c r="D74" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E74" s="26" t="s">
+      <c r="E74" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F74" s="8" t="s">
@@ -4077,7 +4075,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="75" spans="1:7" ht="60.75" thickBot="1">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -4090,7 +4088,7 @@
       <c r="D75" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="E75" s="26" t="s">
+      <c r="E75" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F75" s="6" t="s">
@@ -4100,7 +4098,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="49.2" thickBot="1">
+    <row r="76" spans="1:7" ht="60.75" thickBot="1">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -4113,7 +4111,7 @@
       <c r="D76" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E76" s="26" t="s">
+      <c r="E76" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F76" s="8" t="s">
@@ -4123,7 +4121,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="49.2" thickBot="1">
+    <row r="77" spans="1:7" ht="45.75" thickBot="1">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -4136,7 +4134,7 @@
       <c r="D77" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E77" s="26" t="s">
+      <c r="E77" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F77" s="6" t="s">
@@ -4146,7 +4144,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="78" spans="1:7" ht="60.75" thickBot="1">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -4159,7 +4157,7 @@
       <c r="D78" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="E78" s="26" t="s">
+      <c r="E78" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F78" s="8" t="s">
@@ -4169,7 +4167,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="79" spans="1:7" ht="60.75" thickBot="1">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -4182,13 +4180,13 @@
       <c r="D79" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E79" s="26" t="s">
+      <c r="E79" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="16"/>
     </row>
-    <row r="80" spans="1:7" ht="49.2" thickBot="1">
+    <row r="80" spans="1:7" ht="60.75" thickBot="1">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -4201,7 +4199,7 @@
       <c r="D80" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E80" s="26" t="s">
+      <c r="E80" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F80" s="8" t="s">
@@ -4211,7 +4209,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="81" spans="1:7" ht="60.75" thickBot="1">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -4224,13 +4222,13 @@
       <c r="D81" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E81" s="26" t="s">
+      <c r="E81" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="16"/>
     </row>
-    <row r="82" spans="1:7" ht="49.2" thickBot="1">
+    <row r="82" spans="1:7" ht="45.75" thickBot="1">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -4243,7 +4241,7 @@
       <c r="D82" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E82" s="26" t="s">
+      <c r="E82" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F82" s="8" t="s">
@@ -4253,7 +4251,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="49.2" thickBot="1">
+    <row r="83" spans="1:7" ht="45.75" thickBot="1">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -4266,7 +4264,7 @@
       <c r="D83" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E83" s="26" t="s">
+      <c r="E83" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F83" s="6" t="s">
@@ -4276,7 +4274,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="49.2" thickBot="1">
+    <row r="84" spans="1:7" ht="45.75" thickBot="1">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -4289,7 +4287,7 @@
       <c r="D84" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E84" s="26" t="s">
+      <c r="E84" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F84" s="17" t="s">
@@ -4299,7 +4297,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="49.2" thickBot="1">
+    <row r="85" spans="1:7" ht="45.75" thickBot="1">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -4312,7 +4310,7 @@
       <c r="D85" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E85" s="27" t="s">
+      <c r="E85" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F85" s="6" t="s">
@@ -4322,7 +4320,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="49.2" thickBot="1">
+    <row r="86" spans="1:7" ht="45.75" thickBot="1">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -4335,7 +4333,7 @@
       <c r="D86" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E86" s="26" t="s">
+      <c r="E86" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F86" s="8" t="s">
@@ -4345,7 +4343,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="49.2" thickBot="1">
+    <row r="87" spans="1:7" ht="45.75" thickBot="1">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -4358,13 +4356,13 @@
       <c r="D87" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="E87" s="27" t="s">
+      <c r="E87" s="26" t="s">
         <v>399</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="16"/>
     </row>
-    <row r="88" spans="1:7" ht="49.2" thickBot="1">
+    <row r="88" spans="1:7" ht="45.75" thickBot="1">
       <c r="A88" s="1">
         <v>88</v>
       </c>
@@ -4377,7 +4375,7 @@
       <c r="D88" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="26" t="s">
+      <c r="E88" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F88" s="8" t="s">
@@ -4387,7 +4385,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="89" spans="1:7" ht="60.75" thickBot="1">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -4400,13 +4398,13 @@
       <c r="D89" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E89" s="27" t="s">
+      <c r="E89" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="16"/>
     </row>
-    <row r="90" spans="1:7" ht="49.2" thickBot="1">
+    <row r="90" spans="1:7" ht="45.75" thickBot="1">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -4419,7 +4417,7 @@
       <c r="D90" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E90" s="26" t="s">
+      <c r="E90" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F90" s="8" t="s">
@@ -4429,7 +4427,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="91" spans="1:7" ht="60.75" thickBot="1">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -4442,13 +4440,13 @@
       <c r="D91" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E91" s="27" t="s">
+      <c r="E91" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="16"/>
     </row>
-    <row r="92" spans="1:7" ht="49.2" thickBot="1">
+    <row r="92" spans="1:7" ht="60.75" thickBot="1">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -4461,7 +4459,7 @@
       <c r="D92" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E92" s="26" t="s">
+      <c r="E92" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F92" s="12" t="s">
@@ -4471,7 +4469,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="49.2" thickBot="1">
+    <row r="93" spans="1:7" ht="45.75" thickBot="1">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -4484,7 +4482,7 @@
       <c r="D93" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E93" s="27" t="s">
+      <c r="E93" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F93" s="6" t="s">
@@ -4494,7 +4492,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="33" thickBot="1">
+    <row r="94" spans="1:7" ht="45.75" thickBot="1">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -4507,7 +4505,7 @@
       <c r="D94" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E94" s="26" t="s">
+      <c r="E94" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F94" s="8" t="s">
@@ -4517,7 +4515,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="49.2" thickBot="1">
+    <row r="95" spans="1:7" ht="60.75" thickBot="1">
       <c r="A95" s="1">
         <v>95</v>
       </c>
@@ -4530,7 +4528,7 @@
       <c r="D95" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E95" s="26" t="s">
+      <c r="E95" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F95" s="6" t="s">
@@ -4540,7 +4538,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="96" spans="1:7" ht="60.75" thickBot="1">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -4553,7 +4551,7 @@
       <c r="D96" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E96" s="26" t="s">
+      <c r="E96" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F96" s="8" t="s">
@@ -4563,7 +4561,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="81.599999999999994" thickBot="1">
+    <row r="97" spans="1:7" ht="75.75" thickBot="1">
       <c r="A97" s="1">
         <v>97</v>
       </c>
@@ -4576,7 +4574,7 @@
       <c r="D97" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E97" s="26" t="s">
+      <c r="E97" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F97" s="6" t="s">
@@ -4586,7 +4584,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="98" spans="1:7" ht="60.75" thickBot="1">
       <c r="A98" s="1">
         <v>98</v>
       </c>
@@ -4599,13 +4597,13 @@
       <c r="D98" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E98" s="26" t="s">
+      <c r="E98" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F98" s="12"/>
       <c r="G98" s="14"/>
     </row>
-    <row r="99" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="99" spans="1:7" ht="60.75" thickBot="1">
       <c r="A99" s="1">
         <v>99</v>
       </c>
@@ -4618,13 +4616,13 @@
       <c r="D99" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E99" s="26" t="s">
+      <c r="E99" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F99" s="10"/>
       <c r="G99" s="16"/>
     </row>
-    <row r="100" spans="1:7" ht="81.599999999999994" thickBot="1">
+    <row r="100" spans="1:7" ht="75.75" thickBot="1">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -4637,7 +4635,7 @@
       <c r="D100" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E100" s="26" t="s">
+      <c r="E100" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F100" s="8" t="s">
@@ -4647,7 +4645,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="49.2" thickBot="1">
+    <row r="101" spans="1:7" ht="45.75" thickBot="1">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -4660,7 +4658,7 @@
       <c r="D101" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E101" s="26" t="s">
+      <c r="E101" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F101" s="6" t="s">
@@ -4670,7 +4668,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="49.2" thickBot="1">
+    <row r="102" spans="1:7" ht="60.75" thickBot="1">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -4683,7 +4681,7 @@
       <c r="D102" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E102" s="26" t="s">
+      <c r="E102" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F102" s="8" t="s">
@@ -4693,7 +4691,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="49.2" thickBot="1">
+    <row r="103" spans="1:7" ht="45.75" thickBot="1">
       <c r="A103" s="1">
         <v>103</v>
       </c>
@@ -4706,7 +4704,7 @@
       <c r="D103" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E103" s="26" t="s">
+      <c r="E103" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F103" s="6" t="s">
@@ -4716,7 +4714,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="104" spans="1:7" ht="60.75" thickBot="1">
       <c r="A104" s="1">
         <v>104</v>
       </c>
@@ -4729,7 +4727,7 @@
       <c r="D104" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E104" s="26" t="s">
+      <c r="E104" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F104" s="8" t="s">
@@ -4739,7 +4737,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="105" spans="1:7" ht="60.75" thickBot="1">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -4752,13 +4750,13 @@
       <c r="D105" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E105" s="26" t="s">
+      <c r="E105" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F105" s="10"/>
       <c r="G105" s="16"/>
     </row>
-    <row r="106" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="106" spans="1:7" ht="60.75" thickBot="1">
       <c r="A106" s="1">
         <v>106</v>
       </c>
@@ -4771,13 +4769,13 @@
       <c r="D106" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E106" s="26" t="s">
+      <c r="E106" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F106" s="12"/>
       <c r="G106" s="14"/>
     </row>
-    <row r="107" spans="1:7" ht="49.2" thickBot="1">
+    <row r="107" spans="1:7" ht="45.75" thickBot="1">
       <c r="A107" s="1">
         <v>107</v>
       </c>
@@ -4790,7 +4788,7 @@
       <c r="D107" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E107" s="26" t="s">
+      <c r="E107" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F107" s="6" t="s">
@@ -4800,7 +4798,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="28.2" thickBot="1">
+    <row r="108" spans="1:7" ht="27" thickBot="1">
       <c r="A108" s="1">
         <v>108</v>
       </c>
@@ -4813,7 +4811,7 @@
       <c r="D108" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="E108" s="26" t="s">
+      <c r="E108" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F108" s="12" t="s">
@@ -4823,7 +4821,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="109" spans="1:7" ht="60.75" thickBot="1">
       <c r="A109" s="1">
         <v>109</v>
       </c>
@@ -4836,7 +4834,7 @@
       <c r="D109" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E109" s="26" t="s">
+      <c r="E109" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F109" s="18" t="s">
@@ -4846,7 +4844,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="110" spans="1:7" ht="60.75" thickBot="1">
       <c r="A110" s="1">
         <v>110</v>
       </c>
@@ -4859,7 +4857,7 @@
       <c r="D110" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E110" s="26" t="s">
+      <c r="E110" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F110" s="17" t="s">
@@ -4869,7 +4867,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="49.2" thickBot="1">
+    <row r="111" spans="1:7" ht="45.75" thickBot="1">
       <c r="A111" s="1">
         <v>111</v>
       </c>
@@ -4882,7 +4880,7 @@
       <c r="D111" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E111" s="26" t="s">
+      <c r="E111" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F111" s="9" t="s">
@@ -4892,7 +4890,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="49.2" thickBot="1">
+    <row r="112" spans="1:7" ht="60.75" thickBot="1">
       <c r="A112" s="1">
         <v>112</v>
       </c>
@@ -4905,7 +4903,7 @@
       <c r="D112" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E112" s="26" t="s">
+      <c r="E112" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F112" s="8" t="s">
@@ -4915,7 +4913,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="81.599999999999994" thickBot="1">
+    <row r="113" spans="1:7" ht="75.75" thickBot="1">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -4928,7 +4926,7 @@
       <c r="D113" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E113" s="26" t="s">
+      <c r="E113" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F113" s="9" t="s">
@@ -4938,7 +4936,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="114" spans="1:7" ht="60.75" thickBot="1">
       <c r="A114" s="1">
         <v>114</v>
       </c>
@@ -4951,13 +4949,13 @@
       <c r="D114" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E114" s="26" t="s">
+      <c r="E114" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F114" s="12"/>
       <c r="G114" s="14"/>
     </row>
-    <row r="115" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="115" spans="1:7" ht="60.75" thickBot="1">
       <c r="A115" s="1">
         <v>115</v>
       </c>
@@ -4970,7 +4968,7 @@
       <c r="D115" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E115" s="27" t="s">
+      <c r="E115" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F115" s="9" t="s">
@@ -4980,7 +4978,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="116" spans="1:7" ht="60.75" thickBot="1">
       <c r="A116" s="1">
         <v>116</v>
       </c>
@@ -4993,13 +4991,13 @@
       <c r="D116" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E116" s="26" t="s">
+      <c r="E116" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F116" s="12"/>
       <c r="G116" s="14"/>
     </row>
-    <row r="117" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="117" spans="1:7" ht="75.75" thickBot="1">
       <c r="A117" s="1">
         <v>117</v>
       </c>
@@ -5012,7 +5010,7 @@
       <c r="D117" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E117" s="26" t="s">
+      <c r="E117" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F117" s="9" t="s">
@@ -5022,7 +5020,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="118" spans="1:7" ht="60.75" thickBot="1">
       <c r="A118" s="1">
         <v>118</v>
       </c>
@@ -5035,7 +5033,7 @@
       <c r="D118" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E118" s="26" t="s">
+      <c r="E118" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F118" s="8" t="s">
@@ -5045,7 +5043,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="119" spans="1:7" ht="60.75" thickBot="1">
       <c r="A119" s="1">
         <v>119</v>
       </c>
@@ -5058,13 +5056,13 @@
       <c r="D119" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E119" s="26" t="s">
+      <c r="E119" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F119" s="11"/>
       <c r="G119" s="16"/>
     </row>
-    <row r="120" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="120" spans="1:7" ht="60.75" thickBot="1">
       <c r="A120" s="1">
         <v>120</v>
       </c>
@@ -5077,7 +5075,7 @@
       <c r="D120" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E120" s="26" t="s">
+      <c r="E120" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F120" s="8" t="s">
@@ -5087,7 +5085,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="49.2" thickBot="1">
+    <row r="121" spans="1:7" ht="60.75" thickBot="1">
       <c r="A121" s="1">
         <v>121</v>
       </c>
@@ -5100,7 +5098,7 @@
       <c r="D121" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="E121" s="26" t="s">
+      <c r="E121" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F121" s="9" t="s">
@@ -5108,7 +5106,7 @@
       </c>
       <c r="G121" s="16"/>
     </row>
-    <row r="122" spans="1:7" ht="49.2" thickBot="1">
+    <row r="122" spans="1:7" ht="45.75" thickBot="1">
       <c r="A122" s="1">
         <v>122</v>
       </c>
@@ -5121,7 +5119,7 @@
       <c r="D122" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E122" s="26" t="s">
+      <c r="E122" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F122" s="8" t="s">
@@ -5131,7 +5129,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="123" spans="1:7" ht="60.75" thickBot="1">
       <c r="A123" s="1">
         <v>123</v>
       </c>
@@ -5144,13 +5142,13 @@
       <c r="D123" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E123" s="27" t="s">
+      <c r="E123" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F123" s="11"/>
       <c r="G123" s="16"/>
     </row>
-    <row r="124" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="124" spans="1:7" ht="60.75" thickBot="1">
       <c r="A124" s="1">
         <v>124</v>
       </c>
@@ -5163,7 +5161,7 @@
       <c r="D124" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E124" s="26" t="s">
+      <c r="E124" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F124" s="8" t="s">
@@ -5173,7 +5171,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="125" spans="1:7" ht="60.75" thickBot="1">
       <c r="A125" s="1">
         <v>125</v>
       </c>
@@ -5186,7 +5184,7 @@
       <c r="D125" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E125" s="26" t="s">
+      <c r="E125" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F125" s="9" t="s">
@@ -5196,7 +5194,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="81.599999999999994" thickBot="1">
+    <row r="126" spans="1:7" ht="75.75" thickBot="1">
       <c r="A126" s="1">
         <v>126</v>
       </c>
@@ -5209,7 +5207,7 @@
       <c r="D126" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E126" s="26" t="s">
+      <c r="E126" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F126" s="8" t="s">
@@ -5219,7 +5217,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="127" spans="1:7" ht="60.75" thickBot="1">
       <c r="A127" s="1">
         <v>127</v>
       </c>
@@ -5232,7 +5230,7 @@
       <c r="D127" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E127" s="26" t="s">
+      <c r="E127" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F127" s="9" t="s">
@@ -5242,7 +5240,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="128" spans="1:7" ht="60.75" thickBot="1">
       <c r="A128" s="1">
         <v>128</v>
       </c>
@@ -5255,7 +5253,7 @@
       <c r="D128" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E128" s="26" t="s">
+      <c r="E128" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F128" s="8" t="s">
@@ -5265,7 +5263,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="129" spans="1:7" ht="60.75" thickBot="1">
       <c r="A129" s="1">
         <v>129</v>
       </c>
@@ -5278,7 +5276,7 @@
       <c r="D129" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E129" s="26" t="s">
+      <c r="E129" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F129" s="9" t="s">
@@ -5288,7 +5286,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="130" spans="1:7" ht="60.75" thickBot="1">
       <c r="A130" s="1">
         <v>130</v>
       </c>
@@ -5301,7 +5299,7 @@
       <c r="D130" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E130" s="26" t="s">
+      <c r="E130" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F130" s="8" t="s">
@@ -5311,7 +5309,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="131" spans="1:7" ht="60.75" thickBot="1">
       <c r="A131" s="1">
         <v>131</v>
       </c>
@@ -5324,13 +5322,13 @@
       <c r="D131" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E131" s="26" t="s">
+      <c r="E131" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F131" s="11"/>
       <c r="G131" s="16"/>
     </row>
-    <row r="132" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="132" spans="1:7" ht="60.75" thickBot="1">
       <c r="A132" s="1">
         <v>132</v>
       </c>
@@ -5343,7 +5341,7 @@
       <c r="D132" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E132" s="26" t="s">
+      <c r="E132" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F132" s="8" t="s">
@@ -5353,7 +5351,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="49.2" thickBot="1">
+    <row r="133" spans="1:7" ht="45.75" thickBot="1">
       <c r="A133" s="1">
         <v>133</v>
       </c>
@@ -5366,7 +5364,7 @@
       <c r="D133" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E133" s="26" t="s">
+      <c r="E133" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F133" s="9" t="s">
@@ -5376,7 +5374,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="134" spans="1:7" ht="60.75" thickBot="1">
       <c r="A134" s="1">
         <v>134</v>
       </c>
@@ -5389,7 +5387,7 @@
       <c r="D134" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E134" s="26" t="s">
+      <c r="E134" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F134" s="8" t="s">
@@ -5399,7 +5397,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="49.2" thickBot="1">
+    <row r="135" spans="1:7" ht="45.75" thickBot="1">
       <c r="A135" s="1">
         <v>135</v>
       </c>
@@ -5412,7 +5410,7 @@
       <c r="D135" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="E135" s="26" t="s">
+      <c r="E135" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F135" s="9" t="s">
@@ -5422,7 +5420,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="49.2" thickBot="1">
+    <row r="136" spans="1:7" ht="60.75" thickBot="1">
       <c r="A136" s="1">
         <v>136</v>
       </c>
@@ -5435,7 +5433,7 @@
       <c r="D136" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E136" s="26" t="s">
+      <c r="E136" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F136" s="8" t="s">
@@ -5445,7 +5443,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="137" spans="1:7" ht="60.75" thickBot="1">
       <c r="A137" s="1">
         <v>137</v>
       </c>
@@ -5458,7 +5456,7 @@
       <c r="D137" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E137" s="26" t="s">
+      <c r="E137" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F137" s="9" t="s">
@@ -5468,7 +5466,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="138" spans="1:7" ht="60.75" thickBot="1">
       <c r="A138" s="1">
         <v>138</v>
       </c>
@@ -5481,13 +5479,13 @@
       <c r="D138" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E138" s="26" t="s">
+      <c r="E138" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F138" s="12"/>
       <c r="G138" s="14"/>
     </row>
-    <row r="139" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="139" spans="1:7" ht="60.75" thickBot="1">
       <c r="A139" s="1">
         <v>139</v>
       </c>
@@ -5500,7 +5498,7 @@
       <c r="D139" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E139" s="27" t="s">
+      <c r="E139" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F139" s="9" t="s">
@@ -5510,7 +5508,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="140" spans="1:7" ht="60.75" thickBot="1">
       <c r="A140" s="1">
         <v>140</v>
       </c>
@@ -5523,13 +5521,13 @@
       <c r="D140" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E140" s="26" t="s">
+      <c r="E140" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F140" s="12"/>
       <c r="G140" s="14"/>
     </row>
-    <row r="141" spans="1:7" ht="49.2" thickBot="1">
+    <row r="141" spans="1:7" ht="60.75" thickBot="1">
       <c r="A141" s="1">
         <v>141</v>
       </c>
@@ -5542,13 +5540,13 @@
       <c r="D141" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="E141" s="27" t="s">
+      <c r="E141" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F141" s="11"/>
       <c r="G141" s="16"/>
     </row>
-    <row r="142" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="142" spans="1:7" ht="60.75" thickBot="1">
       <c r="A142" s="1">
         <v>142</v>
       </c>
@@ -5561,7 +5559,7 @@
       <c r="D142" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E142" s="26" t="s">
+      <c r="E142" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F142" s="8" t="s">
@@ -5571,7 +5569,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="143" spans="1:7" ht="60.75" thickBot="1">
       <c r="A143" s="1">
         <v>143</v>
       </c>
@@ -5584,7 +5582,7 @@
       <c r="D143" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="E143" s="26" t="s">
+      <c r="E143" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F143" s="9" t="s">
@@ -5592,7 +5590,7 @@
       </c>
       <c r="G143" s="16"/>
     </row>
-    <row r="144" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="144" spans="1:7" ht="60.75" thickBot="1">
       <c r="A144" s="1">
         <v>144</v>
       </c>
@@ -5605,13 +5603,13 @@
       <c r="D144" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E144" s="26" t="s">
+      <c r="E144" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F144" s="12"/>
       <c r="G144" s="14"/>
     </row>
-    <row r="145" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="145" spans="1:7" ht="60.75" thickBot="1">
       <c r="A145" s="1">
         <v>145</v>
       </c>
@@ -5624,13 +5622,13 @@
       <c r="D145" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E145" s="27" t="s">
+      <c r="E145" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F145" s="11"/>
       <c r="G145" s="16"/>
     </row>
-    <row r="146" spans="1:7" ht="49.2" thickBot="1">
+    <row r="146" spans="1:7" ht="45.75" thickBot="1">
       <c r="A146" s="1">
         <v>146</v>
       </c>
@@ -5643,7 +5641,7 @@
       <c r="D146" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E146" s="26" t="s">
+      <c r="E146" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F146" s="8" t="s">
@@ -5653,7 +5651,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="49.2" thickBot="1">
+    <row r="147" spans="1:7" ht="45.75" thickBot="1">
       <c r="A147" s="1">
         <v>147</v>
       </c>
@@ -5666,13 +5664,13 @@
       <c r="D147" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="E147" s="27" t="s">
+      <c r="E147" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F147" s="11"/>
       <c r="G147" s="16"/>
     </row>
-    <row r="148" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="148" spans="1:7" ht="60.75" thickBot="1">
       <c r="A148" s="1">
         <v>148</v>
       </c>
@@ -5685,7 +5683,7 @@
       <c r="D148" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E148" s="26" t="s">
+      <c r="E148" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F148" s="8" t="s">
@@ -5695,7 +5693,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="149" spans="1:7" ht="60.75" thickBot="1">
       <c r="A149" s="1">
         <v>149</v>
       </c>
@@ -5708,7 +5706,7 @@
       <c r="D149" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E149" s="27" t="s">
+      <c r="E149" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F149" s="9" t="s">
@@ -5718,7 +5716,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="49.2" thickBot="1">
+    <row r="150" spans="1:7" ht="45.75" thickBot="1">
       <c r="A150" s="1">
         <v>150</v>
       </c>
@@ -5731,7 +5729,7 @@
       <c r="D150" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E150" s="26" t="s">
+      <c r="E150" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F150" s="8" t="s">
@@ -5741,7 +5739,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="49.2" thickBot="1">
+    <row r="151" spans="1:7" ht="45.75" thickBot="1">
       <c r="A151" s="1">
         <v>151</v>
       </c>
@@ -5754,7 +5752,7 @@
       <c r="D151" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="E151" s="26" t="s">
+      <c r="E151" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F151" s="9" t="s">
@@ -5762,7 +5760,7 @@
       </c>
       <c r="G151" s="16"/>
     </row>
-    <row r="152" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="152" spans="1:7" ht="60.75" thickBot="1">
       <c r="A152" s="1">
         <v>152</v>
       </c>
@@ -5775,7 +5773,7 @@
       <c r="D152" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E152" s="26" t="s">
+      <c r="E152" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F152" s="8" t="s">
@@ -5783,7 +5781,7 @@
       </c>
       <c r="G152" s="14"/>
     </row>
-    <row r="153" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="153" spans="1:7" ht="60.75" thickBot="1">
       <c r="A153" s="1">
         <v>153</v>
       </c>
@@ -5796,7 +5794,7 @@
       <c r="D153" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="E153" s="27" t="s">
+      <c r="E153" s="26" t="s">
         <v>445</v>
       </c>
       <c r="F153" s="9" t="s">
@@ -5804,7 +5802,7 @@
       </c>
       <c r="G153" s="16"/>
     </row>
-    <row r="154" spans="1:7" ht="61.8" thickBot="1">
+    <row r="154" spans="1:7" ht="61.5" thickBot="1">
       <c r="A154" s="1">
         <v>154</v>
       </c>
@@ -5817,7 +5815,7 @@
       <c r="D154" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E154" s="26" t="s">
+      <c r="E154" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F154" s="8" t="s">
@@ -5827,7 +5825,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="155" spans="1:7" ht="60.75" thickBot="1">
       <c r="A155" s="1">
         <v>155</v>
       </c>
@@ -5840,7 +5838,7 @@
       <c r="D155" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E155" s="26" t="s">
+      <c r="E155" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F155" s="9" t="s">
@@ -5850,7 +5848,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="156" spans="1:7" ht="60.75" thickBot="1">
       <c r="A156" s="1">
         <v>156</v>
       </c>
@@ -5863,7 +5861,7 @@
       <c r="D156" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E156" s="26" t="s">
+      <c r="E156" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F156" s="8" t="s">
@@ -5873,7 +5871,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="157" spans="1:7" ht="60.75" thickBot="1">
       <c r="A157" s="1">
         <v>157</v>
       </c>
@@ -5886,7 +5884,7 @@
       <c r="D157" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E157" s="26" t="s">
+      <c r="E157" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F157" s="9" t="s">
@@ -5896,7 +5894,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="158" spans="1:7" ht="60.75" thickBot="1">
       <c r="A158" s="1">
         <v>158</v>
       </c>
@@ -5909,13 +5907,13 @@
       <c r="D158" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E158" s="26" t="s">
+      <c r="E158" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F158" s="12"/>
       <c r="G158" s="14"/>
     </row>
-    <row r="159" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="159" spans="1:7" ht="60.75" thickBot="1">
       <c r="A159" s="1">
         <v>159</v>
       </c>
@@ -5928,13 +5926,13 @@
       <c r="D159" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E159" s="27" t="s">
+      <c r="E159" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F159" s="11"/>
       <c r="G159" s="16"/>
     </row>
-    <row r="160" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="160" spans="1:7" ht="60.75" thickBot="1">
       <c r="A160" s="1">
         <v>160</v>
       </c>
@@ -5947,7 +5945,7 @@
       <c r="D160" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E160" s="26" t="s">
+      <c r="E160" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F160" s="8" t="s">
@@ -5955,7 +5953,7 @@
       </c>
       <c r="G160" s="14"/>
     </row>
-    <row r="161" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="161" spans="1:7" ht="60.75" thickBot="1">
       <c r="A161" s="1">
         <v>161</v>
       </c>
@@ -5968,7 +5966,7 @@
       <c r="D161" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E161" s="27" t="s">
+      <c r="E161" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F161" s="9" t="s">
@@ -5978,7 +5976,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="162" spans="1:7" ht="60.75" thickBot="1">
       <c r="A162" s="1">
         <v>162</v>
       </c>
@@ -5991,7 +5989,7 @@
       <c r="D162" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E162" s="26" t="s">
+      <c r="E162" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F162" s="8" t="s">
@@ -6001,7 +5999,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="49.2" thickBot="1">
+    <row r="163" spans="1:7" ht="60.75" thickBot="1">
       <c r="A163" s="1">
         <v>163</v>
       </c>
@@ -6014,7 +6012,7 @@
       <c r="D163" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="E163" s="26" t="s">
+      <c r="E163" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F163" s="9" t="s">
@@ -6024,7 +6022,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="164" spans="1:7" ht="60.75" thickBot="1">
       <c r="A164" s="1">
         <v>164</v>
       </c>
@@ -6037,13 +6035,13 @@
       <c r="D164" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E164" s="26" t="s">
+      <c r="E164" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F164" s="12"/>
       <c r="G164" s="14"/>
     </row>
-    <row r="165" spans="1:7" ht="81.599999999999994" thickBot="1">
+    <row r="165" spans="1:7" ht="75.75" thickBot="1">
       <c r="A165" s="1">
         <v>165</v>
       </c>
@@ -6056,7 +6054,7 @@
       <c r="D165" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E165" s="26" t="s">
+      <c r="E165" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F165" s="9" t="s">
@@ -6066,7 +6064,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="166" spans="1:7" ht="60.75" thickBot="1">
       <c r="A166" s="1">
         <v>166</v>
       </c>
@@ -6079,7 +6077,7 @@
       <c r="D166" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E166" s="26" t="s">
+      <c r="E166" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F166" s="8" t="s">
@@ -6089,7 +6087,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="167" spans="1:7" ht="60.75" thickBot="1">
       <c r="A167" s="1">
         <v>167</v>
       </c>
@@ -6102,13 +6100,13 @@
       <c r="D167" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E167" s="26" t="s">
+      <c r="E167" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F167" s="11"/>
       <c r="G167" s="16"/>
     </row>
-    <row r="168" spans="1:7" ht="49.2" thickBot="1">
+    <row r="168" spans="1:7" ht="45.75" thickBot="1">
       <c r="A168" s="1">
         <v>168</v>
       </c>
@@ -6121,7 +6119,7 @@
       <c r="D168" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E168" s="26" t="s">
+      <c r="E168" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F168" s="8" t="s">
@@ -6131,7 +6129,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="169" spans="1:7" ht="60.75" thickBot="1">
       <c r="A169" s="1">
         <v>169</v>
       </c>
@@ -6144,7 +6142,7 @@
       <c r="D169" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E169" s="26" t="s">
+      <c r="E169" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F169" s="9" t="s">
@@ -6154,7 +6152,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="170" spans="1:7" ht="60.75" thickBot="1">
       <c r="A170" s="1">
         <v>170</v>
       </c>
@@ -6167,13 +6165,13 @@
       <c r="D170" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E170" s="26" t="s">
+      <c r="E170" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F170" s="12"/>
       <c r="G170" s="14"/>
     </row>
-    <row r="171" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="171" spans="1:7" ht="60.75" thickBot="1">
       <c r="A171" s="1">
         <v>171</v>
       </c>
@@ -6186,13 +6184,13 @@
       <c r="D171" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E171" s="26" t="s">
+      <c r="E171" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F171" s="11"/>
       <c r="G171" s="16"/>
     </row>
-    <row r="172" spans="1:7" ht="49.2" thickBot="1">
+    <row r="172" spans="1:7" ht="45.75" thickBot="1">
       <c r="A172" s="1">
         <v>172</v>
       </c>
@@ -6205,13 +6203,13 @@
       <c r="D172" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E172" s="27" t="s">
+      <c r="E172" s="26" t="s">
         <v>445</v>
       </c>
       <c r="F172" s="12"/>
       <c r="G172" s="14"/>
     </row>
-    <row r="173" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="173" spans="1:7" ht="60.75" thickBot="1">
       <c r="A173" s="1">
         <v>173</v>
       </c>
@@ -6224,13 +6222,13 @@
       <c r="D173" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E173" s="27" t="s">
+      <c r="E173" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F173" s="11"/>
       <c r="G173" s="16"/>
     </row>
-    <row r="174" spans="1:7" ht="49.2" thickBot="1">
+    <row r="174" spans="1:7" ht="45.75" thickBot="1">
       <c r="A174" s="1">
         <v>174</v>
       </c>
@@ -6243,7 +6241,7 @@
       <c r="D174" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E174" s="26" t="s">
+      <c r="E174" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F174" s="8" t="s">
@@ -6253,7 +6251,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="175" spans="1:7" ht="60.75" thickBot="1">
       <c r="A175" s="1">
         <v>175</v>
       </c>
@@ -6266,7 +6264,7 @@
       <c r="D175" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E175" s="27" t="s">
+      <c r="E175" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F175" s="11" t="s">
@@ -6276,7 +6274,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="33" thickBot="1">
+    <row r="176" spans="1:7" ht="45.75" thickBot="1">
       <c r="A176" s="1">
         <v>176</v>
       </c>
@@ -6289,7 +6287,7 @@
       <c r="D176" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E176" s="26" t="s">
+      <c r="E176" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F176" s="8" t="s">
@@ -6299,7 +6297,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="33" thickBot="1">
+    <row r="177" spans="1:7" ht="30.75" thickBot="1">
       <c r="A177" s="1">
         <v>177</v>
       </c>
@@ -6312,7 +6310,7 @@
       <c r="D177" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E177" s="27" t="s">
+      <c r="E177" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F177" s="11"/>
@@ -6320,7 +6318,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="49.2" thickBot="1">
+    <row r="178" spans="1:7" ht="45.75" thickBot="1">
       <c r="A178" s="1">
         <v>178</v>
       </c>
@@ -6333,17 +6331,17 @@
       <c r="D178" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E178" s="26" t="s">
+      <c r="E178" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="F178" s="21" t="s">
+      <c r="F178" s="20" t="s">
         <v>461</v>
       </c>
       <c r="G178" s="3">
         <v>301</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="49.2" thickBot="1">
+    <row r="179" spans="1:7" ht="45.75" thickBot="1">
       <c r="A179" s="1">
         <v>179</v>
       </c>
@@ -6356,17 +6354,17 @@
       <c r="D179" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E179" s="27" t="s">
+      <c r="E179" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F179" s="22" t="s">
+      <c r="F179" s="21" t="s">
         <v>460</v>
       </c>
       <c r="G179" s="7">
         <v>302</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="33" thickBot="1">
+    <row r="180" spans="1:7" ht="30.75" thickBot="1">
       <c r="A180" s="1">
         <v>180</v>
       </c>
@@ -6379,15 +6377,15 @@
       <c r="D180" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E180" s="26" t="s">
+      <c r="E180" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="F180" s="21"/>
+      <c r="F180" s="20"/>
       <c r="G180" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="33" thickBot="1">
+    <row r="181" spans="1:7" ht="30.75" thickBot="1">
       <c r="A181" s="1">
         <v>181</v>
       </c>
@@ -6400,17 +6398,17 @@
       <c r="D181" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E181" s="27" t="s">
+      <c r="E181" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F181" s="21" t="s">
+      <c r="F181" s="20" t="s">
         <v>462</v>
       </c>
       <c r="G181" s="7">
         <v>309</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="33" thickBot="1">
+    <row r="182" spans="1:7" ht="30.75" thickBot="1">
       <c r="A182" s="1">
         <v>182</v>
       </c>
@@ -6423,17 +6421,17 @@
       <c r="D182" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E182" s="26" t="s">
+      <c r="E182" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="F182" s="21" t="s">
+      <c r="F182" s="20" t="s">
         <v>463</v>
       </c>
       <c r="G182" s="3">
         <v>308</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="33" thickBot="1">
+    <row r="183" spans="1:7" ht="30.75" thickBot="1">
       <c r="A183" s="1">
         <v>183</v>
       </c>
@@ -6446,17 +6444,17 @@
       <c r="D183" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E183" s="27" t="s">
+      <c r="E183" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F183" s="22" t="s">
+      <c r="F183" s="21" t="s">
         <v>464</v>
       </c>
       <c r="G183" s="7">
         <v>307</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="33" thickBot="1">
+    <row r="184" spans="1:7" ht="30.75" thickBot="1">
       <c r="A184" s="1">
         <v>184</v>
       </c>
@@ -6469,17 +6467,17 @@
       <c r="D184" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E184" s="26" t="s">
+      <c r="E184" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="F184" s="21" t="s">
+      <c r="F184" s="20" t="s">
         <v>465</v>
       </c>
       <c r="G184" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="33" thickBot="1">
+    <row r="185" spans="1:7" ht="30.75" thickBot="1">
       <c r="A185" s="1">
         <v>185</v>
       </c>
@@ -6492,7 +6490,7 @@
       <c r="D185" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E185" s="27" t="s">
+      <c r="E185" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F185" s="11"/>
@@ -6500,7 +6498,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="33" thickBot="1">
+    <row r="186" spans="1:7" ht="30.75" thickBot="1">
       <c r="A186" s="1">
         <v>186</v>
       </c>
@@ -6513,7 +6511,7 @@
       <c r="D186" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="E186" s="26" t="s">
+      <c r="E186" s="25" t="s">
         <v>76</v>
       </c>
       <c r="F186" s="12"/>
@@ -6521,7 +6519,7 @@
         <v>24754069</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="33" thickBot="1">
+    <row r="187" spans="1:7" ht="30.75" thickBot="1">
       <c r="A187" s="1">
         <v>187</v>
       </c>
@@ -6534,15 +6532,15 @@
       <c r="D187" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E187" s="27" t="s">
+      <c r="E187" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F187" s="22"/>
+      <c r="F187" s="21"/>
       <c r="G187" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="33" thickBot="1">
+    <row r="188" spans="1:7" ht="30.75" thickBot="1">
       <c r="A188" s="1">
         <v>188</v>
       </c>
@@ -6555,7 +6553,7 @@
       <c r="D188" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E188" s="26" t="s">
+      <c r="E188" s="25" t="s">
         <v>76</v>
       </c>
       <c r="F188" s="12"/>
@@ -6563,7 +6561,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="33" thickBot="1">
+    <row r="189" spans="1:7" ht="30.75" thickBot="1">
       <c r="A189" s="1">
         <v>189</v>
       </c>
@@ -6576,17 +6574,17 @@
       <c r="D189" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="E189" s="27" t="s">
+      <c r="E189" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F189" s="22" t="s">
+      <c r="F189" s="21" t="s">
         <v>466</v>
       </c>
       <c r="G189" s="7">
         <v>304</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="33" thickBot="1">
+    <row r="190" spans="1:7" ht="30.75" thickBot="1">
       <c r="A190" s="1">
         <v>190</v>
       </c>
@@ -6599,17 +6597,17 @@
       <c r="D190" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E190" s="26" t="s">
+      <c r="E190" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="F190" s="21" t="s">
+      <c r="F190" s="20" t="s">
         <v>467</v>
       </c>
       <c r="G190" s="3">
         <v>305</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="191" spans="1:7" ht="60.75" thickBot="1">
       <c r="A191" s="1">
         <v>191</v>
       </c>
@@ -6622,17 +6620,17 @@
       <c r="D191" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E191" s="27" t="s">
+      <c r="E191" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F191" s="22" t="s">
+      <c r="F191" s="21" t="s">
         <v>468</v>
       </c>
       <c r="G191" s="7">
         <v>317</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="33" thickBot="1">
+    <row r="192" spans="1:7" ht="45.75" thickBot="1">
       <c r="A192" s="1">
         <v>192</v>
       </c>
@@ -6645,7 +6643,7 @@
       <c r="D192" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E192" s="26" t="s">
+      <c r="E192" s="25" t="s">
         <v>76</v>
       </c>
       <c r="F192" s="12"/>
@@ -6653,7 +6651,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="33" thickBot="1">
+    <row r="193" spans="1:7" ht="30.75" thickBot="1">
       <c r="A193" s="1">
         <v>193</v>
       </c>
@@ -6666,7 +6664,7 @@
       <c r="D193" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E193" s="27" t="s">
+      <c r="E193" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F193" s="11"/>
@@ -6674,7 +6672,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="81.599999999999994" thickBot="1">
+    <row r="194" spans="1:7" ht="75.75" thickBot="1">
       <c r="A194" s="1">
         <v>194</v>
       </c>
@@ -6687,7 +6685,7 @@
       <c r="D194" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E194" s="26" t="s">
+      <c r="E194" s="25" t="s">
         <v>76</v>
       </c>
       <c r="F194" s="12"/>
@@ -6695,7 +6693,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="49.2" thickBot="1">
+    <row r="195" spans="1:7" ht="45.75" thickBot="1">
       <c r="A195" s="1">
         <v>195</v>
       </c>
@@ -6708,7 +6706,7 @@
       <c r="D195" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="E195" s="27" t="s">
+      <c r="E195" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F195" s="11"/>
@@ -6716,7 +6714,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="49.2" thickBot="1">
+    <row r="196" spans="1:7" ht="45.75" thickBot="1">
       <c r="A196" s="1">
         <v>196</v>
       </c>
@@ -6729,7 +6727,7 @@
       <c r="D196" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E196" s="26" t="s">
+      <c r="E196" s="25" t="s">
         <v>76</v>
       </c>
       <c r="F196" s="12"/>
@@ -6737,7 +6735,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="33" thickBot="1">
+    <row r="197" spans="1:7" ht="30.75" thickBot="1">
       <c r="A197" s="1">
         <v>197</v>
       </c>
@@ -6750,7 +6748,7 @@
       <c r="D197" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E197" s="27" t="s">
+      <c r="E197" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F197" s="11"/>
@@ -6758,7 +6756,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="33" thickBot="1">
+    <row r="198" spans="1:7" ht="30.75" thickBot="1">
       <c r="A198" s="1">
         <v>198</v>
       </c>
@@ -6771,7 +6769,7 @@
       <c r="D198" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E198" s="26" t="s">
+      <c r="E198" s="25" t="s">
         <v>76</v>
       </c>
       <c r="F198" s="12"/>
@@ -6779,7 +6777,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="33" thickBot="1">
+    <row r="199" spans="1:7" ht="45.75" thickBot="1">
       <c r="A199" s="1">
         <v>199</v>
       </c>
@@ -6792,7 +6790,7 @@
       <c r="D199" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="E199" s="27" t="s">
+      <c r="E199" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F199" s="11"/>
@@ -6800,7 +6798,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="65.400000000000006" thickBot="1">
+    <row r="200" spans="1:7" ht="75.75" thickBot="1">
       <c r="A200" s="1">
         <v>200</v>
       </c>
@@ -6813,7 +6811,7 @@
       <c r="D200" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E200" s="26" t="s">
+      <c r="E200" s="25" t="s">
         <v>76</v>
       </c>
       <c r="F200" s="12"/>
@@ -6821,7 +6819,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="49.2" thickBot="1">
+    <row r="201" spans="1:7" ht="45.75" thickBot="1">
       <c r="A201" s="1">
         <v>201</v>
       </c>
@@ -6834,7 +6832,7 @@
       <c r="D201" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="E201" s="27" t="s">
+      <c r="E201" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F201" s="11"/>
@@ -6842,7 +6840,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="33" thickBot="1">
+    <row r="202" spans="1:7" ht="45.75" thickBot="1">
       <c r="A202" s="1">
         <v>202</v>
       </c>
@@ -6855,7 +6853,7 @@
       <c r="D202" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E202" s="26" t="s">
+      <c r="E202" s="25" t="s">
         <v>76</v>
       </c>
       <c r="F202" s="12"/>
@@ -6863,7 +6861,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="49.2" thickBot="1">
+    <row r="203" spans="1:7" ht="45.75" thickBot="1">
       <c r="A203" s="1">
         <v>203</v>
       </c>
@@ -6876,7 +6874,7 @@
       <c r="D203" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="E203" s="27" t="s">
+      <c r="E203" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F203" s="11"/>
@@ -6884,7 +6882,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="49.2" thickBot="1">
+    <row r="204" spans="1:7" ht="45.75" thickBot="1">
       <c r="A204" s="1">
         <v>204</v>
       </c>
@@ -6897,7 +6895,7 @@
       <c r="D204" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E204" s="26" t="s">
+      <c r="E204" s="25" t="s">
         <v>76</v>
       </c>
       <c r="F204" s="12"/>
@@ -6905,7 +6903,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="33" thickBot="1">
+    <row r="205" spans="1:7" ht="45.75" thickBot="1">
       <c r="A205" s="1">
         <v>205</v>
       </c>
@@ -6918,7 +6916,7 @@
       <c r="D205" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E205" s="27" t="s">
+      <c r="E205" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F205" s="11"/>
@@ -6926,7 +6924,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="49.2" thickBot="1">
+    <row r="206" spans="1:7" ht="60.75" thickBot="1">
       <c r="A206" s="1">
         <v>206</v>
       </c>
@@ -6939,7 +6937,7 @@
       <c r="D206" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E206" s="26" t="s">
+      <c r="E206" s="25" t="s">
         <v>76</v>
       </c>
       <c r="F206" s="12"/>
@@ -6947,7 +6945,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="33" thickBot="1">
+    <row r="207" spans="1:7" ht="45.75" thickBot="1">
       <c r="A207" s="1">
         <v>207</v>
       </c>
@@ -6960,7 +6958,7 @@
       <c r="D207" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="E207" s="27" t="s">
+      <c r="E207" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F207" s="11"/>
@@ -6968,7 +6966,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="81.599999999999994" thickBot="1">
+    <row r="208" spans="1:7" ht="75.75" thickBot="1">
       <c r="A208" s="1">
         <v>208</v>
       </c>
@@ -6981,7 +6979,7 @@
       <c r="D208" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="E208" s="26" t="s">
+      <c r="E208" s="25" t="s">
         <v>76</v>
       </c>
       <c r="F208" s="12"/>
@@ -6989,7 +6987,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="97.8" thickBot="1">
+    <row r="209" spans="1:7" ht="90.75" thickBot="1">
       <c r="A209" s="1">
         <v>209</v>
       </c>
@@ -7002,7 +7000,7 @@
       <c r="D209" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="E209" s="27" t="s">
+      <c r="E209" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F209" s="11"/>
@@ -7010,7 +7008,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="49.2" thickBot="1">
+    <row r="210" spans="1:7" ht="45.75" thickBot="1">
       <c r="A210" s="1">
         <v>210</v>
       </c>
@@ -7023,7 +7021,7 @@
       <c r="D210" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="E210" s="26" t="s">
+      <c r="E210" s="25" t="s">
         <v>76</v>
       </c>
       <c r="F210" s="12"/>
@@ -7031,7 +7029,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="49.2" thickBot="1">
+    <row r="211" spans="1:7" ht="45.75" thickBot="1">
       <c r="A211" s="1">
         <v>211</v>
       </c>
@@ -7044,7 +7042,7 @@
       <c r="D211" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="E211" s="27" t="s">
+      <c r="E211" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F211" s="11"/>
@@ -7052,7 +7050,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="33" thickBot="1">
+    <row r="212" spans="1:7" ht="30.75" thickBot="1">
       <c r="A212" s="1">
         <v>212</v>
       </c>
@@ -7065,7 +7063,7 @@
       <c r="D212" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E212" s="26" t="s">
+      <c r="E212" s="25" t="s">
         <v>76</v>
       </c>
       <c r="F212" s="12"/>
@@ -7073,7 +7071,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="49.2" thickBot="1">
+    <row r="213" spans="1:7" ht="45.75" thickBot="1">
       <c r="A213" s="1">
         <v>213</v>
       </c>
@@ -7086,7 +7084,7 @@
       <c r="D213" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E213" s="27" t="s">
+      <c r="E213" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F213" s="11"/>
@@ -7094,7 +7092,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="33" thickBot="1">
+    <row r="214" spans="1:7" ht="30.75" thickBot="1">
       <c r="A214" s="1">
         <v>214</v>
       </c>
@@ -7107,7 +7105,7 @@
       <c r="D214" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E214" s="26" t="s">
+      <c r="E214" s="25" t="s">
         <v>76</v>
       </c>
       <c r="F214" s="12"/>
@@ -7115,7 +7113,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="33" thickBot="1">
+    <row r="215" spans="1:7" ht="30.75" thickBot="1">
       <c r="A215" s="1">
         <v>215</v>
       </c>
@@ -7128,7 +7126,7 @@
       <c r="D215" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E215" s="27" t="s">
+      <c r="E215" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F215" s="11"/>
@@ -7136,7 +7134,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="33" thickBot="1">
+    <row r="216" spans="1:7" ht="45.75" thickBot="1">
       <c r="A216" s="1">
         <v>216</v>
       </c>
@@ -7149,65 +7147,56 @@
       <c r="D216" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E216" s="26" t="s">
+      <c r="E216" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="F216" s="21" t="s">
+      <c r="F216" s="20" t="s">
         <v>477</v>
       </c>
       <c r="G216" s="3">
         <v>511</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="16.8" thickBot="1">
-      <c r="A217" s="1"/>
-      <c r="B217" s="25"/>
-      <c r="C217" s="23"/>
-      <c r="D217" s="19"/>
-      <c r="E217" s="28"/>
-      <c r="F217" s="23"/>
-      <c r="G217" s="20"/>
-    </row>
-    <row r="218" spans="1:7" ht="49.2" thickBot="1">
-      <c r="A218" s="1">
+    <row r="217" spans="1:7" ht="45.75" thickBot="1">
+      <c r="A217" s="1">
         <v>218</v>
       </c>
-      <c r="B218" s="25" t="s">
+      <c r="B217" s="24" t="s">
         <v>475</v>
       </c>
-      <c r="C218" s="23" t="s">
+      <c r="C217" s="22" t="s">
         <v>478</v>
       </c>
-      <c r="D218" s="19" t="s">
+      <c r="D217" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="E218" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F218" s="23" t="s">
+      <c r="E217" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F217" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="G218" s="24">
+      <c r="G217" s="23">
         <v>235</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F84" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F109" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F110" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F179" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F178" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F181" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F182" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F183" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F184" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F189" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F190" r:id="rId12" display="talentohumano@umes.edu.gt" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F191" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F216" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F218" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F11" r:id="rId1"/>
+    <hyperlink ref="F84" r:id="rId2"/>
+    <hyperlink ref="F109" r:id="rId3"/>
+    <hyperlink ref="F110" r:id="rId4"/>
+    <hyperlink ref="F179" r:id="rId5"/>
+    <hyperlink ref="F178" r:id="rId6"/>
+    <hyperlink ref="F181" r:id="rId7"/>
+    <hyperlink ref="F182" r:id="rId8"/>
+    <hyperlink ref="F183" r:id="rId9"/>
+    <hyperlink ref="F184" r:id="rId10"/>
+    <hyperlink ref="F189" r:id="rId11"/>
+    <hyperlink ref="F190" r:id="rId12" display="talentohumano@umes.edu.gt"/>
+    <hyperlink ref="F191" r:id="rId13"/>
+    <hyperlink ref="F216" r:id="rId14"/>
+    <hyperlink ref="F217" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId16"/>
